--- a/data/concat_rule.xlsx
+++ b/data/concat_rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE216B55-836E-4F3E-B49D-0A09832FACD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B13BB3E9-C654-4DC1-933C-B8C0A3178AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/concat_rule.xlsx
+++ b/data/concat_rule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B13BB3E9-C654-4DC1-933C-B8C0A3178AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0EE4B5F-CD26-4B11-A004-F7C5F1FC7EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7029,7 +7029,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7046,13 +7046,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFDC2626"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -7081,11 +7074,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7306,9 +7298,7 @@
   </sheetPr>
   <dimension ref="A1:D1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -7319,7 +7309,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">

--- a/data/concat_rule.xlsx
+++ b/data/concat_rule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0EE4B5F-CD26-4B11-A004-F7C5F1FC7EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C457D6D-1FE6-46DC-9471-EBC5CA4A0DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/concat_rule.xlsx
+++ b/data/concat_rule.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amida\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C457D6D-1FE6-46DC-9471-EBC5CA4A0DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Concat Rule" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -7028,12 +7019,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7041,14 +7039,167 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7061,8 +7212,194 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -7070,26 +7407,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7287,28 +7910,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.712962962963" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="32.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="31.4259259259259" customWidth="1"/>
+    <col min="4" max="4" width="46.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7322,7 +7946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -7336,7 +7960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -7350,7 +7974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -7364,7 +7988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -7378,7 +8002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -7392,7 +8016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -7406,7 +8030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -7420,7 +8044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -7434,7 +8058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -7448,7 +8072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -7462,7 +8086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -7476,7 +8100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -7490,7 +8114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -7504,7 +8128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -7518,7 +8142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -7532,7 +8156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -7546,7 +8170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+    <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -7560,7 +8184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+    <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -7574,7 +8198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+    <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -7588,7 +8212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+    <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -7602,7 +8226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+    <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -7616,7 +8240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+    <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
@@ -7630,7 +8254,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+    <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -7644,7 +8268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+    <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -7658,7 +8282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+    <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>65</v>
       </c>
@@ -7672,7 +8296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -7686,7 +8310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.45">
+    <row r="28" ht="14.4" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
@@ -7700,7 +8324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.45">
+    <row r="29" ht="14.4" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -7714,7 +8338,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.45">
+    <row r="30" ht="14.4" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
@@ -7728,7 +8352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.45">
+    <row r="31" ht="14.4" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>78</v>
       </c>
@@ -7742,7 +8366,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.45">
+    <row r="32" ht="14.4" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>80</v>
       </c>
@@ -7756,7 +8380,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45">
+    <row r="33" ht="14.4" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
@@ -7770,7 +8394,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.45">
+    <row r="34" ht="14.4" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -7784,7 +8408,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45">
+    <row r="35" ht="14.4" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
@@ -7798,7 +8422,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.45">
+    <row r="36" ht="14.4" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -7812,7 +8436,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45">
+    <row r="37" ht="14.4" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>94</v>
       </c>
@@ -7826,7 +8450,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.45">
+    <row r="38" ht="14.4" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>96</v>
       </c>
@@ -7840,7 +8464,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.45">
+    <row r="39" ht="14.4" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
@@ -7854,7 +8478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.45">
+    <row r="40" ht="14.4" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>102</v>
       </c>
@@ -7868,7 +8492,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.45">
+    <row r="41" ht="14.4" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>104</v>
       </c>
@@ -7882,7 +8506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.45">
+    <row r="42" ht="14.4" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>106</v>
       </c>
@@ -7896,7 +8520,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.45">
+    <row r="43" ht="14.4" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>109</v>
       </c>
@@ -7910,7 +8534,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.45">
+    <row r="44" ht="14.4" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
@@ -7924,7 +8548,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.45">
+    <row r="45" ht="14.4" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>113</v>
       </c>
@@ -7938,7 +8562,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.45">
+    <row r="46" ht="14.4" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>115</v>
       </c>
@@ -7952,7 +8576,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.45">
+    <row r="47" ht="14.4" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>118</v>
       </c>
@@ -7966,7 +8590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.45">
+    <row r="48" ht="14.4" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>120</v>
       </c>
@@ -7980,7 +8604,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.45">
+    <row r="49" ht="14.4" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>122</v>
       </c>
@@ -7994,7 +8618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.45">
+    <row r="50" ht="14.4" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>124</v>
       </c>
@@ -8008,7 +8632,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.45">
+    <row r="51" ht="14.4" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>126</v>
       </c>
@@ -8022,7 +8646,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.45">
+    <row r="52" ht="14.4" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>128</v>
       </c>
@@ -8036,7 +8660,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.45">
+    <row r="53" ht="14.4" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>130</v>
       </c>
@@ -8050,7 +8674,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.45">
+    <row r="54" ht="14.4" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>132</v>
       </c>
@@ -8064,7 +8688,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.45">
+    <row r="55" ht="14.4" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>133</v>
       </c>
@@ -8078,7 +8702,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.45">
+    <row r="56" ht="14.4" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>135</v>
       </c>
@@ -8092,7 +8716,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.45">
+    <row r="57" ht="14.4" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>138</v>
       </c>
@@ -8106,7 +8730,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.45">
+    <row r="58" ht="14.4" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>140</v>
       </c>
@@ -8120,7 +8744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.45">
+    <row r="59" ht="14.4" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>142</v>
       </c>
@@ -8134,7 +8758,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.45">
+    <row r="60" ht="14.4" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>144</v>
       </c>
@@ -8148,7 +8772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.45">
+    <row r="61" ht="14.4" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>146</v>
       </c>
@@ -8162,7 +8786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.45">
+    <row r="62" ht="14.4" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>149</v>
       </c>
@@ -8176,7 +8800,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.45">
+    <row r="63" ht="14.4" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>150</v>
       </c>
@@ -8190,7 +8814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.45">
+    <row r="64" ht="14.4" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>153</v>
       </c>
@@ -8204,7 +8828,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.45">
+    <row r="65" ht="14.4" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>155</v>
       </c>
@@ -8218,7 +8842,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.45">
+    <row r="66" ht="14.4" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>157</v>
       </c>
@@ -8232,7 +8856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.45">
+    <row r="67" ht="14.4" spans="1:4">
       <c r="A67" s="2" t="s">
         <v>159</v>
       </c>
@@ -8246,7 +8870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14.45">
+    <row r="68" ht="14.4" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>161</v>
       </c>
@@ -8260,7 +8884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="14.45">
+    <row r="69" ht="14.4" spans="1:4">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -8274,7 +8898,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14.45">
+    <row r="70" ht="14.4" spans="1:4">
       <c r="A70" s="2" t="s">
         <v>164</v>
       </c>
@@ -8288,7 +8912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="14.45">
+    <row r="71" ht="14.4" spans="1:4">
       <c r="A71" s="2" t="s">
         <v>166</v>
       </c>
@@ -8302,7 +8926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14.45">
+    <row r="72" ht="14.4" spans="1:4">
       <c r="A72" s="2" t="s">
         <v>168</v>
       </c>
@@ -8316,7 +8940,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="14.45">
+    <row r="73" ht="14.4" spans="1:4">
       <c r="A73" s="2" t="s">
         <v>172</v>
       </c>
@@ -8330,7 +8954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="14.45">
+    <row r="74" ht="14.4" spans="1:4">
       <c r="A74" s="2" t="s">
         <v>175</v>
       </c>
@@ -8344,7 +8968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="14.45">
+    <row r="75" ht="14.4" spans="1:4">
       <c r="A75" s="2" t="s">
         <v>178</v>
       </c>
@@ -8358,7 +8982,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="14.45">
+    <row r="76" ht="14.4" spans="1:4">
       <c r="A76" s="2" t="s">
         <v>181</v>
       </c>
@@ -8372,7 +8996,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="14.45">
+    <row r="77" ht="14.4" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>182</v>
       </c>
@@ -8386,7 +9010,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="14.45">
+    <row r="78" ht="14.4" spans="1:4">
       <c r="A78" s="2" t="s">
         <v>183</v>
       </c>
@@ -8400,7 +9024,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14.45">
+    <row r="79" ht="14.4" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>187</v>
       </c>
@@ -8414,7 +9038,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="14.45">
+    <row r="80" ht="14.4" spans="1:4">
       <c r="A80" s="2" t="s">
         <v>190</v>
       </c>
@@ -8428,7 +9052,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="14.45">
+    <row r="81" ht="14.4" spans="1:4">
       <c r="A81" s="2" t="s">
         <v>194</v>
       </c>
@@ -8442,7 +9066,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="14.45">
+    <row r="82" ht="14.4" spans="1:4">
       <c r="A82" s="2" t="s">
         <v>197</v>
       </c>
@@ -8456,7 +9080,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="14.45">
+    <row r="83" ht="14.4" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>199</v>
       </c>
@@ -8470,7 +9094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="14.45">
+    <row r="84" ht="14.4" spans="1:4">
       <c r="A84" s="2" t="s">
         <v>201</v>
       </c>
@@ -8484,7 +9108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="14.45">
+    <row r="85" ht="14.4" spans="1:4">
       <c r="A85" s="2" t="s">
         <v>204</v>
       </c>
@@ -8498,7 +9122,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="14.45">
+    <row r="86" ht="14.4" spans="1:4">
       <c r="A86" s="2" t="s">
         <v>206</v>
       </c>
@@ -8512,7 +9136,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="14.45">
+    <row r="87" ht="14.4" spans="1:4">
       <c r="A87" s="2" t="s">
         <v>208</v>
       </c>
@@ -8526,7 +9150,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="14.45">
+    <row r="88" ht="14.4" spans="1:4">
       <c r="A88" s="2" t="s">
         <v>211</v>
       </c>
@@ -8540,7 +9164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="14.45">
+    <row r="89" ht="14.4" spans="1:4">
       <c r="A89" s="2" t="s">
         <v>213</v>
       </c>
@@ -8554,7 +9178,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="14.45">
+    <row r="90" ht="14.4" spans="1:4">
       <c r="A90" s="2" t="s">
         <v>215</v>
       </c>
@@ -8568,7 +9192,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="14.45">
+    <row r="91" ht="14.4" spans="1:4">
       <c r="A91" s="2" t="s">
         <v>216</v>
       </c>
@@ -8582,7 +9206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="14.45">
+    <row r="92" ht="14.4" spans="1:4">
       <c r="A92" s="2" t="s">
         <v>218</v>
       </c>
@@ -8596,7 +9220,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="14.45">
+    <row r="93" ht="14.4" spans="1:4">
       <c r="A93" s="2" t="s">
         <v>221</v>
       </c>
@@ -8610,7 +9234,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="14.45">
+    <row r="94" ht="14.4" spans="1:4">
       <c r="A94" s="2" t="s">
         <v>224</v>
       </c>
@@ -8624,7 +9248,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="14.45">
+    <row r="95" ht="14.4" spans="1:4">
       <c r="A95" s="2" t="s">
         <v>227</v>
       </c>
@@ -8638,7 +9262,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="14.45">
+    <row r="96" ht="14.4" spans="1:4">
       <c r="A96" s="2" t="s">
         <v>229</v>
       </c>
@@ -8652,7 +9276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="14.45">
+    <row r="97" ht="14.4" spans="1:4">
       <c r="A97" s="2" t="s">
         <v>231</v>
       </c>
@@ -8666,7 +9290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="14.45">
+    <row r="98" ht="14.4" spans="1:4">
       <c r="A98" s="2" t="s">
         <v>233</v>
       </c>
@@ -8680,7 +9304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="14.45">
+    <row r="99" ht="14.4" spans="1:4">
       <c r="A99" s="2" t="s">
         <v>235</v>
       </c>
@@ -8694,7 +9318,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14.45">
+    <row r="100" ht="14.4" spans="1:4">
       <c r="A100" s="2" t="s">
         <v>237</v>
       </c>
@@ -8708,7 +9332,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="14.45">
+    <row r="101" ht="14.4" spans="1:4">
       <c r="A101" s="2" t="s">
         <v>239</v>
       </c>
@@ -8722,7 +9346,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="14.45">
+    <row r="102" ht="14.4" spans="1:4">
       <c r="A102" s="2" t="s">
         <v>241</v>
       </c>
@@ -8736,7 +9360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="14.45">
+    <row r="103" ht="14.4" spans="1:4">
       <c r="A103" s="2" t="s">
         <v>243</v>
       </c>
@@ -8750,7 +9374,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="14.45">
+    <row r="104" ht="14.4" spans="1:4">
       <c r="A104" s="2" t="s">
         <v>245</v>
       </c>
@@ -8764,7 +9388,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="14.45">
+    <row r="105" ht="14.4" spans="1:4">
       <c r="A105" s="2" t="s">
         <v>247</v>
       </c>
@@ -8778,7 +9402,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="14.45">
+    <row r="106" ht="14.4" spans="1:4">
       <c r="A106" s="2" t="s">
         <v>249</v>
       </c>
@@ -8792,7 +9416,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="14.45">
+    <row r="107" ht="14.4" spans="1:4">
       <c r="A107" s="2" t="s">
         <v>251</v>
       </c>
@@ -8806,7 +9430,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="14.45">
+    <row r="108" ht="14.4" spans="1:4">
       <c r="A108" s="2" t="s">
         <v>254</v>
       </c>
@@ -8820,7 +9444,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="14.45">
+    <row r="109" ht="14.4" spans="1:4">
       <c r="A109" s="2" t="s">
         <v>256</v>
       </c>
@@ -8834,7 +9458,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="14.45">
+    <row r="110" ht="14.4" spans="1:4">
       <c r="A110" s="2" t="s">
         <v>258</v>
       </c>
@@ -8848,7 +9472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="14.45">
+    <row r="111" ht="14.4" spans="1:4">
       <c r="A111" s="2" t="s">
         <v>260</v>
       </c>
@@ -8862,7 +9486,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="14.45">
+    <row r="112" ht="14.4" spans="1:4">
       <c r="A112" s="2" t="s">
         <v>261</v>
       </c>
@@ -8876,7 +9500,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="14.45">
+    <row r="113" ht="14.4" spans="1:4">
       <c r="A113" s="2" t="s">
         <v>263</v>
       </c>
@@ -8890,7 +9514,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="14.45">
+    <row r="114" ht="14.4" spans="1:4">
       <c r="A114" s="2" t="s">
         <v>264</v>
       </c>
@@ -8904,7 +9528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="14.45">
+    <row r="115" ht="14.4" spans="1:4">
       <c r="A115" s="2" t="s">
         <v>266</v>
       </c>
@@ -8918,7 +9542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="14.45">
+    <row r="116" ht="14.4" spans="1:4">
       <c r="A116" s="2" t="s">
         <v>268</v>
       </c>
@@ -8932,7 +9556,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="14.45">
+    <row r="117" ht="14.4" spans="1:4">
       <c r="A117" s="2" t="s">
         <v>270</v>
       </c>
@@ -8946,7 +9570,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="14.45">
+    <row r="118" ht="14.4" spans="1:4">
       <c r="A118" s="2" t="s">
         <v>272</v>
       </c>
@@ -8960,7 +9584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="14.45">
+    <row r="119" ht="14.4" spans="1:4">
       <c r="A119" s="2" t="s">
         <v>274</v>
       </c>
@@ -8974,7 +9598,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="14.45">
+    <row r="120" ht="14.4" spans="1:4">
       <c r="A120" s="2" t="s">
         <v>276</v>
       </c>
@@ -8988,7 +9612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="14.45">
+    <row r="121" ht="14.4" spans="1:4">
       <c r="A121" s="2" t="s">
         <v>278</v>
       </c>
@@ -9002,7 +9626,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="14.45">
+    <row r="122" ht="14.4" spans="1:4">
       <c r="A122" s="2" t="s">
         <v>280</v>
       </c>
@@ -9016,7 +9640,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="14.45">
+    <row r="123" ht="14.4" spans="1:4">
       <c r="A123" s="2" t="s">
         <v>282</v>
       </c>
@@ -9030,7 +9654,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="14.45">
+    <row r="124" ht="14.4" spans="1:4">
       <c r="A124" s="2" t="s">
         <v>284</v>
       </c>
@@ -9044,7 +9668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="14.45">
+    <row r="125" ht="14.4" spans="1:4">
       <c r="A125" s="2" t="s">
         <v>286</v>
       </c>
@@ -9058,7 +9682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="14.45">
+    <row r="126" ht="14.4" spans="1:4">
       <c r="A126" s="2" t="s">
         <v>287</v>
       </c>
@@ -9072,7 +9696,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="14.45">
+    <row r="127" ht="14.4" spans="1:4">
       <c r="A127" s="2" t="s">
         <v>289</v>
       </c>
@@ -9086,7 +9710,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="14.45">
+    <row r="128" ht="14.4" spans="1:4">
       <c r="A128" s="2" t="s">
         <v>291</v>
       </c>
@@ -9100,7 +9724,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="14.45">
+    <row r="129" ht="14.4" spans="1:4">
       <c r="A129" s="2" t="s">
         <v>293</v>
       </c>
@@ -9114,7 +9738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="14.45">
+    <row r="130" ht="14.4" spans="1:4">
       <c r="A130" s="2" t="s">
         <v>295</v>
       </c>
@@ -9128,7 +9752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="14.45">
+    <row r="131" ht="14.4" spans="1:4">
       <c r="A131" s="2" t="s">
         <v>297</v>
       </c>
@@ -9142,7 +9766,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="14.45">
+    <row r="132" ht="14.4" spans="1:4">
       <c r="A132" s="2" t="s">
         <v>300</v>
       </c>
@@ -9156,7 +9780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="14.45">
+    <row r="133" ht="14.4" spans="1:4">
       <c r="A133" s="2" t="s">
         <v>302</v>
       </c>
@@ -9170,7 +9794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="14.45">
+    <row r="134" ht="14.4" spans="1:4">
       <c r="A134" s="2" t="s">
         <v>304</v>
       </c>
@@ -9184,7 +9808,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="14.45">
+    <row r="135" ht="14.4" spans="1:4">
       <c r="A135" s="2" t="s">
         <v>306</v>
       </c>
@@ -9198,7 +9822,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="14.45">
+    <row r="136" ht="14.4" spans="1:4">
       <c r="A136" s="2" t="s">
         <v>308</v>
       </c>
@@ -9212,7 +9836,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="14.45">
+    <row r="137" ht="14.4" spans="1:4">
       <c r="A137" s="2" t="s">
         <v>310</v>
       </c>
@@ -9226,7 +9850,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="14.45">
+    <row r="138" ht="14.4" spans="1:4">
       <c r="A138" s="2" t="s">
         <v>312</v>
       </c>
@@ -9240,7 +9864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="14.45">
+    <row r="139" ht="14.4" spans="1:4">
       <c r="A139" s="2" t="s">
         <v>314</v>
       </c>
@@ -9254,7 +9878,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="14.45">
+    <row r="140" ht="14.4" spans="1:4">
       <c r="A140" s="2" t="s">
         <v>317</v>
       </c>
@@ -9268,7 +9892,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="14.45">
+    <row r="141" ht="14.4" spans="1:4">
       <c r="A141" s="2" t="s">
         <v>319</v>
       </c>
@@ -9282,7 +9906,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="14.45">
+    <row r="142" ht="14.4" spans="1:4">
       <c r="A142" s="2" t="s">
         <v>321</v>
       </c>
@@ -9296,7 +9920,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="14.45">
+    <row r="143" ht="14.4" spans="1:4">
       <c r="A143" s="2" t="s">
         <v>325</v>
       </c>
@@ -9310,7 +9934,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="14.45">
+    <row r="144" ht="14.4" spans="1:4">
       <c r="A144" s="2" t="s">
         <v>327</v>
       </c>
@@ -9324,7 +9948,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="14.45">
+    <row r="145" ht="14.4" spans="1:4">
       <c r="A145" s="2" t="s">
         <v>330</v>
       </c>
@@ -9338,7 +9962,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="14.45">
+    <row r="146" ht="14.4" spans="1:4">
       <c r="A146" s="2" t="s">
         <v>332</v>
       </c>
@@ -9352,7 +9976,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="14.45">
+    <row r="147" ht="14.4" spans="1:4">
       <c r="A147" s="2" t="s">
         <v>334</v>
       </c>
@@ -9366,7 +9990,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="14.45">
+    <row r="148" ht="14.4" spans="1:4">
       <c r="A148" s="2" t="s">
         <v>338</v>
       </c>
@@ -9380,7 +10004,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="14.45">
+    <row r="149" ht="14.4" spans="1:4">
       <c r="A149" s="2" t="s">
         <v>341</v>
       </c>
@@ -9394,7 +10018,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="14.45">
+    <row r="150" ht="14.4" spans="1:4">
       <c r="A150" s="2" t="s">
         <v>343</v>
       </c>
@@ -9408,7 +10032,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="14.45">
+    <row r="151" ht="14.4" spans="1:4">
       <c r="A151" s="2" t="s">
         <v>345</v>
       </c>
@@ -9422,7 +10046,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="14.45">
+    <row r="152" ht="14.4" spans="1:4">
       <c r="A152" s="2" t="s">
         <v>347</v>
       </c>
@@ -9436,7 +10060,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="14.45">
+    <row r="153" ht="14.4" spans="1:4">
       <c r="A153" s="2" t="s">
         <v>349</v>
       </c>
@@ -9450,7 +10074,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="14.45">
+    <row r="154" ht="14.4" spans="1:4">
       <c r="A154" s="2" t="s">
         <v>351</v>
       </c>
@@ -9464,7 +10088,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="14.45">
+    <row r="155" ht="14.4" spans="1:4">
       <c r="A155" s="2" t="s">
         <v>353</v>
       </c>
@@ -9478,7 +10102,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="14.45">
+    <row r="156" ht="14.4" spans="1:4">
       <c r="A156" s="2" t="s">
         <v>355</v>
       </c>
@@ -9492,7 +10116,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="14.45">
+    <row r="157" ht="14.4" spans="1:4">
       <c r="A157" s="2" t="s">
         <v>357</v>
       </c>
@@ -9506,7 +10130,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="14.45">
+    <row r="158" ht="14.4" spans="1:4">
       <c r="A158" s="2" t="s">
         <v>359</v>
       </c>
@@ -9520,7 +10144,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="14.45">
+    <row r="159" ht="14.4" spans="1:4">
       <c r="A159" s="2" t="s">
         <v>361</v>
       </c>
@@ -9534,7 +10158,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="14.45">
+    <row r="160" ht="14.4" spans="1:4">
       <c r="A160" s="2" t="s">
         <v>364</v>
       </c>
@@ -9548,7 +10172,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="14.45">
+    <row r="161" ht="14.4" spans="1:4">
       <c r="A161" s="2" t="s">
         <v>366</v>
       </c>
@@ -9562,7 +10186,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="14.45">
+    <row r="162" ht="14.4" spans="1:4">
       <c r="A162" s="2" t="s">
         <v>368</v>
       </c>
@@ -9576,7 +10200,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="14.45">
+    <row r="163" ht="14.4" spans="1:4">
       <c r="A163" s="2" t="s">
         <v>370</v>
       </c>
@@ -9590,7 +10214,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="14.45">
+    <row r="164" ht="14.4" spans="1:4">
       <c r="A164" s="2" t="s">
         <v>372</v>
       </c>
@@ -9604,7 +10228,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="14.45">
+    <row r="165" ht="14.4" spans="1:4">
       <c r="A165" s="2" t="s">
         <v>373</v>
       </c>
@@ -9618,7 +10242,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="14.45">
+    <row r="166" ht="14.4" spans="1:4">
       <c r="A166" s="2" t="s">
         <v>375</v>
       </c>
@@ -9632,7 +10256,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="14.45">
+    <row r="167" ht="14.4" spans="1:4">
       <c r="A167" s="2" t="s">
         <v>377</v>
       </c>
@@ -9646,7 +10270,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="14.45">
+    <row r="168" ht="14.4" spans="1:4">
       <c r="A168" s="2" t="s">
         <v>379</v>
       </c>
@@ -9660,7 +10284,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="14.45">
+    <row r="169" ht="14.4" spans="1:4">
       <c r="A169" s="2" t="s">
         <v>381</v>
       </c>
@@ -9674,7 +10298,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="14.45">
+    <row r="170" ht="14.4" spans="1:4">
       <c r="A170" s="2" t="s">
         <v>383</v>
       </c>
@@ -9688,7 +10312,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="14.45">
+    <row r="171" ht="14.4" spans="1:4">
       <c r="A171" s="2" t="s">
         <v>385</v>
       </c>
@@ -9702,7 +10326,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="14.45">
+    <row r="172" ht="14.4" spans="1:4">
       <c r="A172" s="2" t="s">
         <v>387</v>
       </c>
@@ -9716,7 +10340,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="14.45">
+    <row r="173" ht="14.4" spans="1:4">
       <c r="A173" s="2" t="s">
         <v>389</v>
       </c>
@@ -9730,7 +10354,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="14.45">
+    <row r="174" ht="14.4" spans="1:4">
       <c r="A174" s="2" t="s">
         <v>391</v>
       </c>
@@ -9744,7 +10368,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="14.45">
+    <row r="175" ht="14.4" spans="1:4">
       <c r="A175" s="2" t="s">
         <v>394</v>
       </c>
@@ -9758,7 +10382,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="14.45">
+    <row r="176" ht="14.4" spans="1:4">
       <c r="A176" s="2" t="s">
         <v>396</v>
       </c>
@@ -9772,7 +10396,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="14.45">
+    <row r="177" ht="14.4" spans="1:4">
       <c r="A177" s="2" t="s">
         <v>398</v>
       </c>
@@ -9786,7 +10410,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="14.45">
+    <row r="178" ht="14.4" spans="1:4">
       <c r="A178" s="2" t="s">
         <v>400</v>
       </c>
@@ -9800,7 +10424,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="14.45">
+    <row r="179" ht="14.4" spans="1:4">
       <c r="A179" s="2" t="s">
         <v>402</v>
       </c>
@@ -9814,7 +10438,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="14.45">
+    <row r="180" ht="14.4" spans="1:4">
       <c r="A180" s="2" t="s">
         <v>404</v>
       </c>
@@ -9828,7 +10452,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="14.45">
+    <row r="181" ht="14.4" spans="1:4">
       <c r="A181" s="2" t="s">
         <v>406</v>
       </c>
@@ -9842,7 +10466,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="14.45">
+    <row r="182" ht="14.4" spans="1:4">
       <c r="A182" s="2" t="s">
         <v>408</v>
       </c>
@@ -9856,7 +10480,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="14.45">
+    <row r="183" ht="14.4" spans="1:4">
       <c r="A183" s="2" t="s">
         <v>410</v>
       </c>
@@ -9870,7 +10494,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="14.45">
+    <row r="184" ht="14.4" spans="1:4">
       <c r="A184" s="2" t="s">
         <v>411</v>
       </c>
@@ -9884,7 +10508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="14.45">
+    <row r="185" ht="14.4" spans="1:4">
       <c r="A185" s="2" t="s">
         <v>414</v>
       </c>
@@ -9898,7 +10522,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="14.45">
+    <row r="186" ht="14.4" spans="1:4">
       <c r="A186" s="2" t="s">
         <v>416</v>
       </c>
@@ -9912,7 +10536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="14.45">
+    <row r="187" ht="14.4" spans="1:4">
       <c r="A187" s="2" t="s">
         <v>418</v>
       </c>
@@ -9926,7 +10550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="14.45">
+    <row r="188" ht="14.4" spans="1:4">
       <c r="A188" s="2" t="s">
         <v>421</v>
       </c>
@@ -9940,7 +10564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="14.45">
+    <row r="189" ht="14.4" spans="1:4">
       <c r="A189" s="2" t="s">
         <v>424</v>
       </c>
@@ -9954,7 +10578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="14.45">
+    <row r="190" ht="14.4" spans="1:4">
       <c r="A190" s="2" t="s">
         <v>426</v>
       </c>
@@ -9968,7 +10592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="14.45">
+    <row r="191" ht="14.4" spans="1:4">
       <c r="A191" s="2" t="s">
         <v>428</v>
       </c>
@@ -9982,7 +10606,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="14.45">
+    <row r="192" ht="14.4" spans="1:4">
       <c r="A192" s="2" t="s">
         <v>431</v>
       </c>
@@ -9996,7 +10620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="14.45">
+    <row r="193" ht="14.4" spans="1:4">
       <c r="A193" s="2" t="s">
         <v>433</v>
       </c>
@@ -10010,7 +10634,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="14.45">
+    <row r="194" ht="14.4" spans="1:4">
       <c r="A194" s="2" t="s">
         <v>435</v>
       </c>
@@ -10024,7 +10648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="14.45">
+    <row r="195" ht="14.4" spans="1:4">
       <c r="A195" s="2" t="s">
         <v>438</v>
       </c>
@@ -10038,7 +10662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="14.45">
+    <row r="196" ht="14.4" spans="1:4">
       <c r="A196" s="2" t="s">
         <v>440</v>
       </c>
@@ -10052,7 +10676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="14.45">
+    <row r="197" ht="14.4" spans="1:4">
       <c r="A197" s="2" t="s">
         <v>442</v>
       </c>
@@ -10066,7 +10690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="14.45">
+    <row r="198" ht="14.4" spans="1:4">
       <c r="A198" s="2" t="s">
         <v>445</v>
       </c>
@@ -10080,7 +10704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="14.45">
+    <row r="199" ht="14.4" spans="1:4">
       <c r="A199" s="2" t="s">
         <v>448</v>
       </c>
@@ -10094,7 +10718,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="14.45">
+    <row r="200" ht="14.4" spans="1:4">
       <c r="A200" s="2" t="s">
         <v>451</v>
       </c>
@@ -10108,7 +10732,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="14.45">
+    <row r="201" ht="14.4" spans="1:4">
       <c r="A201" s="2" t="s">
         <v>453</v>
       </c>
@@ -10122,7 +10746,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="14.45">
+    <row r="202" ht="14.4" spans="1:4">
       <c r="A202" s="2" t="s">
         <v>456</v>
       </c>
@@ -10136,7 +10760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="14.45">
+    <row r="203" ht="14.4" spans="1:4">
       <c r="A203" s="2" t="s">
         <v>458</v>
       </c>
@@ -10150,7 +10774,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="14.45">
+    <row r="204" ht="14.4" spans="1:4">
       <c r="A204" s="2" t="s">
         <v>460</v>
       </c>
@@ -10164,7 +10788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="14.45">
+    <row r="205" ht="14.4" spans="1:4">
       <c r="A205" s="2" t="s">
         <v>463</v>
       </c>
@@ -10178,7 +10802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="14.45">
+    <row r="206" ht="14.4" spans="1:4">
       <c r="A206" s="2" t="s">
         <v>466</v>
       </c>
@@ -10192,7 +10816,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="14.45">
+    <row r="207" ht="14.4" spans="1:4">
       <c r="A207" s="2" t="s">
         <v>467</v>
       </c>
@@ -10206,7 +10830,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="14.45">
+    <row r="208" ht="14.4" spans="1:4">
       <c r="A208" s="2" t="s">
         <v>469</v>
       </c>
@@ -10220,7 +10844,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="14.45">
+    <row r="209" ht="14.4" spans="1:4">
       <c r="A209" s="2" t="s">
         <v>471</v>
       </c>
@@ -10234,7 +10858,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="14.45">
+    <row r="210" ht="14.4" spans="1:4">
       <c r="A210" s="2" t="s">
         <v>473</v>
       </c>
@@ -10248,7 +10872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="14.45">
+    <row r="211" ht="14.4" spans="1:4">
       <c r="A211" s="2" t="s">
         <v>476</v>
       </c>
@@ -10262,7 +10886,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="14.45">
+    <row r="212" ht="14.4" spans="1:4">
       <c r="A212" s="2" t="s">
         <v>478</v>
       </c>
@@ -10276,7 +10900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="14.45">
+    <row r="213" ht="14.4" spans="1:4">
       <c r="A213" s="2" t="s">
         <v>480</v>
       </c>
@@ -10290,7 +10914,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="14.45">
+    <row r="214" ht="14.4" spans="1:4">
       <c r="A214" s="2" t="s">
         <v>482</v>
       </c>
@@ -10304,7 +10928,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="14.45">
+    <row r="215" ht="14.4" spans="1:4">
       <c r="A215" s="2" t="s">
         <v>484</v>
       </c>
@@ -10318,7 +10942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="14.45">
+    <row r="216" ht="14.4" spans="1:4">
       <c r="A216" s="2" t="s">
         <v>486</v>
       </c>
@@ -10332,7 +10956,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="14.45">
+    <row r="217" ht="14.4" spans="1:4">
       <c r="A217" s="2" t="s">
         <v>488</v>
       </c>
@@ -10346,7 +10970,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="14.45">
+    <row r="218" ht="14.4" spans="1:4">
       <c r="A218" s="2" t="s">
         <v>490</v>
       </c>
@@ -10360,7 +10984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="14.45">
+    <row r="219" ht="14.4" spans="1:4">
       <c r="A219" s="2" t="s">
         <v>492</v>
       </c>
@@ -10374,7 +10998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="14.45">
+    <row r="220" ht="14.4" spans="1:4">
       <c r="A220" s="2" t="s">
         <v>494</v>
       </c>
@@ -10388,7 +11012,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="14.45">
+    <row r="221" ht="14.4" spans="1:4">
       <c r="A221" s="2" t="s">
         <v>496</v>
       </c>
@@ -10402,7 +11026,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="14.45">
+    <row r="222" ht="14.4" spans="1:4">
       <c r="A222" s="2" t="s">
         <v>498</v>
       </c>
@@ -10416,7 +11040,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="14.45">
+    <row r="223" ht="14.4" spans="1:4">
       <c r="A223" s="2" t="s">
         <v>502</v>
       </c>
@@ -10430,7 +11054,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="14.45">
+    <row r="224" ht="14.4" spans="1:4">
       <c r="A224" s="2" t="s">
         <v>504</v>
       </c>
@@ -10444,7 +11068,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="14.45">
+    <row r="225" ht="14.4" spans="1:4">
       <c r="A225" s="2" t="s">
         <v>506</v>
       </c>
@@ -10458,7 +11082,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="14.45">
+    <row r="226" ht="14.4" spans="1:4">
       <c r="A226" s="2" t="s">
         <v>508</v>
       </c>
@@ -10472,7 +11096,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="14.45">
+    <row r="227" ht="14.4" spans="1:4">
       <c r="A227" s="2" t="s">
         <v>510</v>
       </c>
@@ -10486,7 +11110,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="14.45">
+    <row r="228" ht="14.4" spans="1:4">
       <c r="A228" s="2" t="s">
         <v>512</v>
       </c>
@@ -10500,7 +11124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="14.45">
+    <row r="229" ht="14.4" spans="1:4">
       <c r="A229" s="2" t="s">
         <v>514</v>
       </c>
@@ -10514,7 +11138,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="14.45">
+    <row r="230" ht="14.4" spans="1:4">
       <c r="A230" s="2" t="s">
         <v>516</v>
       </c>
@@ -10528,7 +11152,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="14.45">
+    <row r="231" ht="14.4" spans="1:4">
       <c r="A231" s="2" t="s">
         <v>518</v>
       </c>
@@ -10542,7 +11166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="14.45">
+    <row r="232" ht="14.4" spans="1:4">
       <c r="A232" s="2" t="s">
         <v>520</v>
       </c>
@@ -10556,7 +11180,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="14.45">
+    <row r="233" ht="14.4" spans="1:4">
       <c r="A233" s="2" t="s">
         <v>523</v>
       </c>
@@ -10570,7 +11194,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="14.45">
+    <row r="234" ht="14.4" spans="1:4">
       <c r="A234" s="2" t="s">
         <v>524</v>
       </c>
@@ -10584,7 +11208,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="14.45">
+    <row r="235" ht="14.4" spans="1:4">
       <c r="A235" s="2" t="s">
         <v>526</v>
       </c>
@@ -10598,7 +11222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="14.45">
+    <row r="236" ht="14.4" spans="1:4">
       <c r="A236" s="2" t="s">
         <v>528</v>
       </c>
@@ -10612,7 +11236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="14.45">
+    <row r="237" ht="14.4" spans="1:4">
       <c r="A237" s="2" t="s">
         <v>530</v>
       </c>
@@ -10626,7 +11250,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="14.45">
+    <row r="238" ht="14.4" spans="1:4">
       <c r="A238" s="2" t="s">
         <v>532</v>
       </c>
@@ -10640,7 +11264,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="14.45">
+    <row r="239" ht="14.4" spans="1:4">
       <c r="A239" s="2" t="s">
         <v>534</v>
       </c>
@@ -10654,7 +11278,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="14.45">
+    <row r="240" ht="14.4" spans="1:4">
       <c r="A240" s="2" t="s">
         <v>536</v>
       </c>
@@ -10668,7 +11292,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="14.45">
+    <row r="241" ht="14.4" spans="1:4">
       <c r="A241" s="2" t="s">
         <v>538</v>
       </c>
@@ -10682,7 +11306,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="14.45">
+    <row r="242" ht="14.4" spans="1:4">
       <c r="A242" s="2" t="s">
         <v>541</v>
       </c>
@@ -10696,7 +11320,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="14.45">
+    <row r="243" ht="14.4" spans="1:4">
       <c r="A243" s="2" t="s">
         <v>543</v>
       </c>
@@ -10710,7 +11334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="14.45">
+    <row r="244" ht="14.4" spans="1:4">
       <c r="A244" s="2" t="s">
         <v>545</v>
       </c>
@@ -10724,7 +11348,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="14.45">
+    <row r="245" ht="14.4" spans="1:4">
       <c r="A245" s="2" t="s">
         <v>547</v>
       </c>
@@ -10738,7 +11362,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="14.45">
+    <row r="246" ht="14.4" spans="1:4">
       <c r="A246" s="2" t="s">
         <v>548</v>
       </c>
@@ -10752,7 +11376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="14.45">
+    <row r="247" ht="14.4" spans="1:4">
       <c r="A247" s="2" t="s">
         <v>550</v>
       </c>
@@ -10766,7 +11390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="14.45">
+    <row r="248" ht="14.4" spans="1:4">
       <c r="A248" s="2" t="s">
         <v>553</v>
       </c>
@@ -10780,7 +11404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="14.45">
+    <row r="249" ht="14.4" spans="1:4">
       <c r="A249" s="2" t="s">
         <v>556</v>
       </c>
@@ -10794,7 +11418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="14.45">
+    <row r="250" ht="14.4" spans="1:4">
       <c r="A250" s="2" t="s">
         <v>558</v>
       </c>
@@ -10808,7 +11432,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="14.45">
+    <row r="251" ht="14.4" spans="1:4">
       <c r="A251" s="2" t="s">
         <v>562</v>
       </c>
@@ -10822,7 +11446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="14.45">
+    <row r="252" ht="14.4" spans="1:4">
       <c r="A252" s="2" t="s">
         <v>564</v>
       </c>
@@ -10836,7 +11460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="14.45">
+    <row r="253" ht="14.4" spans="1:4">
       <c r="A253" s="2" t="s">
         <v>567</v>
       </c>
@@ -10850,7 +11474,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="14.45">
+    <row r="254" ht="14.4" spans="1:4">
       <c r="A254" s="2" t="s">
         <v>570</v>
       </c>
@@ -10864,7 +11488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="14.45">
+    <row r="255" ht="14.4" spans="1:4">
       <c r="A255" s="2" t="s">
         <v>573</v>
       </c>
@@ -10878,7 +11502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="14.45">
+    <row r="256" ht="14.4" spans="1:4">
       <c r="A256" s="2" t="s">
         <v>575</v>
       </c>
@@ -10892,7 +11516,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="14.45">
+    <row r="257" ht="14.4" spans="1:4">
       <c r="A257" s="2" t="s">
         <v>577</v>
       </c>
@@ -10906,7 +11530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="14.45">
+    <row r="258" ht="14.4" spans="1:4">
       <c r="A258" s="2" t="s">
         <v>579</v>
       </c>
@@ -10920,7 +11544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="14.45">
+    <row r="259" ht="14.4" spans="1:4">
       <c r="A259" s="2" t="s">
         <v>581</v>
       </c>
@@ -10934,7 +11558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="14.45">
+    <row r="260" ht="14.4" spans="1:4">
       <c r="A260" s="2" t="s">
         <v>583</v>
       </c>
@@ -10948,7 +11572,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="14.45">
+    <row r="261" ht="14.4" spans="1:4">
       <c r="A261" s="2" t="s">
         <v>584</v>
       </c>
@@ -10962,7 +11586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="14.45">
+    <row r="262" ht="14.4" spans="1:4">
       <c r="A262" s="2" t="s">
         <v>586</v>
       </c>
@@ -10976,7 +11600,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="14.45">
+    <row r="263" ht="14.4" spans="1:4">
       <c r="A263" s="2" t="s">
         <v>588</v>
       </c>
@@ -10990,7 +11614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="14.45">
+    <row r="264" ht="14.4" spans="1:4">
       <c r="A264" s="2" t="s">
         <v>590</v>
       </c>
@@ -11004,7 +11628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="14.45">
+    <row r="265" ht="14.4" spans="1:4">
       <c r="A265" s="2" t="s">
         <v>592</v>
       </c>
@@ -11018,7 +11642,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="14.45">
+    <row r="266" ht="14.4" spans="1:4">
       <c r="A266" s="2" t="s">
         <v>594</v>
       </c>
@@ -11032,7 +11656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="14.45">
+    <row r="267" ht="14.4" spans="1:4">
       <c r="A267" s="2" t="s">
         <v>597</v>
       </c>
@@ -11046,7 +11670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="14.45">
+    <row r="268" ht="14.4" spans="1:4">
       <c r="A268" s="2" t="s">
         <v>600</v>
       </c>
@@ -11060,7 +11684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="14.45">
+    <row r="269" ht="14.4" spans="1:4">
       <c r="A269" s="2" t="s">
         <v>602</v>
       </c>
@@ -11074,7 +11698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="14.45">
+    <row r="270" ht="14.4" spans="1:4">
       <c r="A270" s="2" t="s">
         <v>605</v>
       </c>
@@ -11088,7 +11712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="14.45">
+    <row r="271" ht="14.4" spans="1:4">
       <c r="A271" s="2" t="s">
         <v>608</v>
       </c>
@@ -11102,7 +11726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="14.45">
+    <row r="272" ht="14.4" spans="1:4">
       <c r="A272" s="2" t="s">
         <v>610</v>
       </c>
@@ -11116,7 +11740,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="14.45">
+    <row r="273" ht="14.4" spans="1:4">
       <c r="A273" s="2" t="s">
         <v>612</v>
       </c>
@@ -11130,7 +11754,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="14.45">
+    <row r="274" ht="14.4" spans="1:4">
       <c r="A274" s="2" t="s">
         <v>615</v>
       </c>
@@ -11144,7 +11768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="14.45">
+    <row r="275" ht="14.4" spans="1:4">
       <c r="A275" s="2" t="s">
         <v>617</v>
       </c>
@@ -11158,7 +11782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="14.45">
+    <row r="276" ht="14.4" spans="1:4">
       <c r="A276" s="2" t="s">
         <v>620</v>
       </c>
@@ -11172,7 +11796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="14.45">
+    <row r="277" ht="14.4" spans="1:4">
       <c r="A277" s="2" t="s">
         <v>622</v>
       </c>
@@ -11186,7 +11810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="14.45">
+    <row r="278" ht="14.4" spans="1:4">
       <c r="A278" s="2" t="s">
         <v>624</v>
       </c>
@@ -11200,7 +11824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="14.45">
+    <row r="279" ht="14.4" spans="1:4">
       <c r="A279" s="2" t="s">
         <v>626</v>
       </c>
@@ -11214,7 +11838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="14.45">
+    <row r="280" ht="14.4" spans="1:4">
       <c r="A280" s="2" t="s">
         <v>628</v>
       </c>
@@ -11228,7 +11852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="14.45">
+    <row r="281" ht="14.4" spans="1:4">
       <c r="A281" s="2" t="s">
         <v>631</v>
       </c>
@@ -11242,7 +11866,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="14.45">
+    <row r="282" ht="14.4" spans="1:4">
       <c r="A282" s="2" t="s">
         <v>634</v>
       </c>
@@ -11256,7 +11880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="14.45">
+    <row r="283" ht="14.4" spans="1:4">
       <c r="A283" s="2" t="s">
         <v>636</v>
       </c>
@@ -11270,7 +11894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="14.45">
+    <row r="284" ht="14.4" spans="1:4">
       <c r="A284" s="2" t="s">
         <v>638</v>
       </c>
@@ -11284,7 +11908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="14.45">
+    <row r="285" ht="14.4" spans="1:4">
       <c r="A285" s="2" t="s">
         <v>641</v>
       </c>
@@ -11298,7 +11922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="14.45">
+    <row r="286" ht="14.4" spans="1:4">
       <c r="A286" s="2" t="s">
         <v>643</v>
       </c>
@@ -11312,7 +11936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="14.45">
+    <row r="287" ht="14.4" spans="1:4">
       <c r="A287" s="2" t="s">
         <v>645</v>
       </c>
@@ -11326,7 +11950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="14.45">
+    <row r="288" ht="14.4" spans="1:4">
       <c r="A288" s="2" t="s">
         <v>647</v>
       </c>
@@ -11340,7 +11964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="14.45">
+    <row r="289" ht="14.4" spans="1:4">
       <c r="A289" s="2" t="s">
         <v>649</v>
       </c>
@@ -11354,7 +11978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="14.45">
+    <row r="290" ht="14.4" spans="1:4">
       <c r="A290" s="2" t="s">
         <v>651</v>
       </c>
@@ -11368,7 +11992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="14.45">
+    <row r="291" ht="14.4" spans="1:4">
       <c r="A291" s="2" t="s">
         <v>653</v>
       </c>
@@ -11382,7 +12006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="14.45">
+    <row r="292" ht="14.4" spans="1:4">
       <c r="A292" s="2" t="s">
         <v>655</v>
       </c>
@@ -11396,7 +12020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="14.45">
+    <row r="293" ht="14.4" spans="1:4">
       <c r="A293" s="2" t="s">
         <v>657</v>
       </c>
@@ -11410,7 +12034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="14.45">
+    <row r="294" ht="14.4" spans="1:4">
       <c r="A294" s="2" t="s">
         <v>659</v>
       </c>
@@ -11424,7 +12048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="14.45">
+    <row r="295" ht="14.4" spans="1:4">
       <c r="A295" s="2" t="s">
         <v>661</v>
       </c>
@@ -11438,7 +12062,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="14.45">
+    <row r="296" ht="14.4" spans="1:4">
       <c r="A296" s="2" t="s">
         <v>663</v>
       </c>
@@ -11452,7 +12076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="14.45">
+    <row r="297" ht="14.4" spans="1:4">
       <c r="A297" s="2" t="s">
         <v>665</v>
       </c>
@@ -11466,7 +12090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="14.45">
+    <row r="298" ht="14.4" spans="1:4">
       <c r="A298" s="2" t="s">
         <v>667</v>
       </c>
@@ -11480,7 +12104,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="14.45">
+    <row r="299" ht="14.4" spans="1:4">
       <c r="A299" s="2" t="s">
         <v>669</v>
       </c>
@@ -11494,7 +12118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="14.45">
+    <row r="300" ht="14.4" spans="1:4">
       <c r="A300" s="2" t="s">
         <v>672</v>
       </c>
@@ -11508,7 +12132,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="14.45">
+    <row r="301" ht="14.4" spans="1:4">
       <c r="A301" s="2" t="s">
         <v>675</v>
       </c>
@@ -11522,7 +12146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="14.45">
+    <row r="302" ht="14.4" spans="1:4">
       <c r="A302" s="2" t="s">
         <v>677</v>
       </c>
@@ -11536,7 +12160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="14.45">
+    <row r="303" ht="14.4" spans="1:4">
       <c r="A303" s="2" t="s">
         <v>679</v>
       </c>
@@ -11550,7 +12174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="14.45">
+    <row r="304" ht="14.4" spans="1:4">
       <c r="A304" s="2" t="s">
         <v>681</v>
       </c>
@@ -11564,7 +12188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="14.45">
+    <row r="305" ht="14.4" spans="1:4">
       <c r="A305" s="2" t="s">
         <v>683</v>
       </c>
@@ -11578,7 +12202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="14.45">
+    <row r="306" ht="14.4" spans="1:4">
       <c r="A306" s="2" t="s">
         <v>685</v>
       </c>
@@ -11592,7 +12216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="14.45">
+    <row r="307" ht="14.4" spans="1:4">
       <c r="A307" s="2" t="s">
         <v>687</v>
       </c>
@@ -11606,7 +12230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="14.45">
+    <row r="308" ht="14.4" spans="1:4">
       <c r="A308" s="2" t="s">
         <v>689</v>
       </c>
@@ -11620,7 +12244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="14.45">
+    <row r="309" ht="14.4" spans="1:4">
       <c r="A309" s="2" t="s">
         <v>691</v>
       </c>
@@ -11634,7 +12258,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="14.45">
+    <row r="310" ht="14.4" spans="1:4">
       <c r="A310" s="2" t="s">
         <v>694</v>
       </c>
@@ -11648,7 +12272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="14.45">
+    <row r="311" ht="14.4" spans="1:4">
       <c r="A311" s="2" t="s">
         <v>696</v>
       </c>
@@ -11662,7 +12286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="14.45">
+    <row r="312" ht="14.4" spans="1:4">
       <c r="A312" s="2" t="s">
         <v>698</v>
       </c>
@@ -11676,7 +12300,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="14.45">
+    <row r="313" ht="14.4" spans="1:4">
       <c r="A313" s="2" t="s">
         <v>700</v>
       </c>
@@ -11690,7 +12314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="14.45">
+    <row r="314" ht="14.4" spans="1:4">
       <c r="A314" s="2" t="s">
         <v>702</v>
       </c>
@@ -11704,7 +12328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="14.45">
+    <row r="315" ht="14.4" spans="1:4">
       <c r="A315" s="2" t="s">
         <v>705</v>
       </c>
@@ -11718,7 +12342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="14.45">
+    <row r="316" ht="14.4" spans="1:4">
       <c r="A316" s="2" t="s">
         <v>708</v>
       </c>
@@ -11732,7 +12356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="14.45">
+    <row r="317" ht="14.4" spans="1:4">
       <c r="A317" s="2" t="s">
         <v>711</v>
       </c>
@@ -11746,7 +12370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="14.45">
+    <row r="318" ht="14.4" spans="1:4">
       <c r="A318" s="2" t="s">
         <v>714</v>
       </c>
@@ -11760,7 +12384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="14.45">
+    <row r="319" ht="14.4" spans="1:4">
       <c r="A319" s="2" t="s">
         <v>716</v>
       </c>
@@ -11774,7 +12398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="14.45">
+    <row r="320" ht="14.4" spans="1:4">
       <c r="A320" s="2" t="s">
         <v>718</v>
       </c>
@@ -11788,7 +12412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="14.45">
+    <row r="321" ht="14.4" spans="1:4">
       <c r="A321" s="2" t="s">
         <v>720</v>
       </c>
@@ -11802,7 +12426,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="14.45">
+    <row r="322" ht="14.4" spans="1:4">
       <c r="A322" s="2" t="s">
         <v>722</v>
       </c>
@@ -11816,7 +12440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="14.45">
+    <row r="323" ht="14.4" spans="1:4">
       <c r="A323" s="2" t="s">
         <v>724</v>
       </c>
@@ -11830,7 +12454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="14.45">
+    <row r="324" ht="14.4" spans="1:4">
       <c r="A324" s="2" t="s">
         <v>726</v>
       </c>
@@ -11844,7 +12468,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="14.45">
+    <row r="325" ht="14.4" spans="1:4">
       <c r="A325" s="2" t="s">
         <v>729</v>
       </c>
@@ -11858,7 +12482,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="14.45">
+    <row r="326" ht="14.4" spans="1:4">
       <c r="A326" s="2" t="s">
         <v>732</v>
       </c>
@@ -11872,7 +12496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="14.45">
+    <row r="327" ht="14.4" spans="1:4">
       <c r="A327" s="2" t="s">
         <v>734</v>
       </c>
@@ -11886,7 +12510,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="14.45">
+    <row r="328" ht="14.4" spans="1:4">
       <c r="A328" s="2" t="s">
         <v>737</v>
       </c>
@@ -11900,7 +12524,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="14.45">
+    <row r="329" ht="14.4" spans="1:4">
       <c r="A329" s="2" t="s">
         <v>739</v>
       </c>
@@ -11914,7 +12538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="14.45">
+    <row r="330" ht="14.4" spans="1:4">
       <c r="A330" s="2" t="s">
         <v>741</v>
       </c>
@@ -11928,7 +12552,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="14.45">
+    <row r="331" ht="14.4" spans="1:4">
       <c r="A331" s="2" t="s">
         <v>743</v>
       </c>
@@ -11942,7 +12566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="14.45">
+    <row r="332" ht="14.4" spans="1:4">
       <c r="A332" s="2" t="s">
         <v>745</v>
       </c>
@@ -11956,7 +12580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="14.45">
+    <row r="333" ht="14.4" spans="1:4">
       <c r="A333" s="2" t="s">
         <v>747</v>
       </c>
@@ -11970,7 +12594,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="14.45">
+    <row r="334" ht="14.4" spans="1:4">
       <c r="A334" s="2" t="s">
         <v>749</v>
       </c>
@@ -11984,7 +12608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="14.45">
+    <row r="335" ht="14.4" spans="1:4">
       <c r="A335" s="2" t="s">
         <v>751</v>
       </c>
@@ -11998,7 +12622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="14.45">
+    <row r="336" ht="14.4" spans="1:4">
       <c r="A336" s="2" t="s">
         <v>753</v>
       </c>
@@ -12012,7 +12636,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="14.45">
+    <row r="337" ht="14.4" spans="1:4">
       <c r="A337" s="2" t="s">
         <v>755</v>
       </c>
@@ -12026,7 +12650,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="14.45">
+    <row r="338" ht="14.4" spans="1:4">
       <c r="A338" s="2" t="s">
         <v>759</v>
       </c>
@@ -12040,7 +12664,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="14.45">
+    <row r="339" ht="14.4" spans="1:4">
       <c r="A339" s="2" t="s">
         <v>763</v>
       </c>
@@ -12054,7 +12678,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="14.45">
+    <row r="340" ht="14.4" spans="1:4">
       <c r="A340" s="2" t="s">
         <v>767</v>
       </c>
@@ -12068,7 +12692,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="14.45">
+    <row r="341" ht="14.4" spans="1:4">
       <c r="A341" s="2" t="s">
         <v>771</v>
       </c>
@@ -12082,7 +12706,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="14.45">
+    <row r="342" ht="14.4" spans="1:4">
       <c r="A342" s="2" t="s">
         <v>774</v>
       </c>
@@ -12096,7 +12720,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="14.45">
+    <row r="343" ht="14.4" spans="1:4">
       <c r="A343" s="2" t="s">
         <v>777</v>
       </c>
@@ -12110,7 +12734,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="14.45">
+    <row r="344" ht="14.4" spans="1:4">
       <c r="A344" s="2" t="s">
         <v>780</v>
       </c>
@@ -12124,7 +12748,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="14.45">
+    <row r="345" ht="14.4" spans="1:4">
       <c r="A345" s="2" t="s">
         <v>783</v>
       </c>
@@ -12138,7 +12762,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="14.45">
+    <row r="346" ht="14.4" spans="1:4">
       <c r="A346" s="2" t="s">
         <v>785</v>
       </c>
@@ -12152,7 +12776,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="14.45">
+    <row r="347" ht="14.4" spans="1:4">
       <c r="A347" s="2" t="s">
         <v>788</v>
       </c>
@@ -12166,7 +12790,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="14.45">
+    <row r="348" ht="14.4" spans="1:4">
       <c r="A348" s="2" t="s">
         <v>791</v>
       </c>
@@ -12180,7 +12804,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="14.45">
+    <row r="349" ht="14.4" spans="1:4">
       <c r="A349" s="2" t="s">
         <v>794</v>
       </c>
@@ -12194,7 +12818,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="14.45">
+    <row r="350" ht="14.4" spans="1:4">
       <c r="A350" s="2" t="s">
         <v>796</v>
       </c>
@@ -12208,7 +12832,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="14.45">
+    <row r="351" ht="14.4" spans="1:4">
       <c r="A351" s="2" t="s">
         <v>799</v>
       </c>
@@ -12222,7 +12846,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="14.45">
+    <row r="352" ht="14.4" spans="1:4">
       <c r="A352" s="2" t="s">
         <v>801</v>
       </c>
@@ -12236,7 +12860,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="14.45">
+    <row r="353" ht="14.4" spans="1:4">
       <c r="A353" s="2" t="s">
         <v>803</v>
       </c>
@@ -12250,7 +12874,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="14.45">
+    <row r="354" ht="14.4" spans="1:4">
       <c r="A354" s="2" t="s">
         <v>805</v>
       </c>
@@ -12264,7 +12888,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="14.45">
+    <row r="355" ht="14.4" spans="1:4">
       <c r="A355" s="2" t="s">
         <v>808</v>
       </c>
@@ -12278,7 +12902,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="14.45">
+    <row r="356" ht="14.4" spans="1:4">
       <c r="A356" s="2" t="s">
         <v>811</v>
       </c>
@@ -12292,7 +12916,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="14.45">
+    <row r="357" ht="14.4" spans="1:4">
       <c r="A357" s="2" t="s">
         <v>813</v>
       </c>
@@ -12306,7 +12930,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="14.45">
+    <row r="358" ht="14.4" spans="1:4">
       <c r="A358" s="2" t="s">
         <v>815</v>
       </c>
@@ -12320,7 +12944,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="14.45">
+    <row r="359" ht="14.4" spans="1:4">
       <c r="A359" s="2" t="s">
         <v>817</v>
       </c>
@@ -12334,7 +12958,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="14.45">
+    <row r="360" ht="14.4" spans="1:4">
       <c r="A360" s="2" t="s">
         <v>820</v>
       </c>
@@ -12348,7 +12972,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="14.45">
+    <row r="361" ht="14.4" spans="1:4">
       <c r="A361" s="2" t="s">
         <v>823</v>
       </c>
@@ -12362,7 +12986,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="14.45">
+    <row r="362" ht="14.4" spans="1:4">
       <c r="A362" s="2" t="s">
         <v>826</v>
       </c>
@@ -12376,7 +13000,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="14.45">
+    <row r="363" ht="14.4" spans="1:4">
       <c r="A363" s="2" t="s">
         <v>829</v>
       </c>
@@ -12390,7 +13014,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="14.45">
+    <row r="364" ht="14.4" spans="1:4">
       <c r="A364" s="2" t="s">
         <v>831</v>
       </c>
@@ -12404,7 +13028,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="14.45">
+    <row r="365" ht="14.4" spans="1:4">
       <c r="A365" s="2" t="s">
         <v>833</v>
       </c>
@@ -12418,7 +13042,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="14.45">
+    <row r="366" ht="14.4" spans="1:4">
       <c r="A366" s="2" t="s">
         <v>836</v>
       </c>
@@ -12432,7 +13056,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="14.45">
+    <row r="367" ht="14.4" spans="1:4">
       <c r="A367" s="2" t="s">
         <v>839</v>
       </c>
@@ -12446,7 +13070,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="14.45">
+    <row r="368" ht="14.4" spans="1:4">
       <c r="A368" s="2" t="s">
         <v>841</v>
       </c>
@@ -12460,7 +13084,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="14.45">
+    <row r="369" ht="14.4" spans="1:4">
       <c r="A369" s="2" t="s">
         <v>844</v>
       </c>
@@ -12474,7 +13098,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="14.45">
+    <row r="370" ht="14.4" spans="1:4">
       <c r="A370" s="2" t="s">
         <v>846</v>
       </c>
@@ -12488,7 +13112,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="14.45">
+    <row r="371" ht="14.4" spans="1:4">
       <c r="A371" s="2" t="s">
         <v>848</v>
       </c>
@@ -12502,7 +13126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="14.45">
+    <row r="372" ht="14.4" spans="1:4">
       <c r="A372" s="2" t="s">
         <v>850</v>
       </c>
@@ -12516,7 +13140,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="14.45">
+    <row r="373" ht="14.4" spans="1:4">
       <c r="A373" s="2" t="s">
         <v>853</v>
       </c>
@@ -12530,7 +13154,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="14.45">
+    <row r="374" ht="14.4" spans="1:4">
       <c r="A374" s="2" t="s">
         <v>856</v>
       </c>
@@ -12544,7 +13168,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="14.45">
+    <row r="375" ht="14.4" spans="1:4">
       <c r="A375" s="2" t="s">
         <v>859</v>
       </c>
@@ -12558,7 +13182,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="14.45">
+    <row r="376" ht="14.4" spans="1:4">
       <c r="A376" s="2" t="s">
         <v>861</v>
       </c>
@@ -12572,7 +13196,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="14.45">
+    <row r="377" ht="14.4" spans="1:4">
       <c r="A377" s="2" t="s">
         <v>864</v>
       </c>
@@ -12586,7 +13210,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="14.45">
+    <row r="378" ht="14.4" spans="1:4">
       <c r="A378" s="2" t="s">
         <v>866</v>
       </c>
@@ -12600,7 +13224,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="14.45">
+    <row r="379" ht="14.4" spans="1:4">
       <c r="A379" s="2" t="s">
         <v>870</v>
       </c>
@@ -12614,7 +13238,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="14.45">
+    <row r="380" ht="14.4" spans="1:4">
       <c r="A380" s="2" t="s">
         <v>872</v>
       </c>
@@ -12628,7 +13252,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="14.45">
+    <row r="381" ht="14.4" spans="1:4">
       <c r="A381" s="2" t="s">
         <v>874</v>
       </c>
@@ -12642,7 +13266,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="14.45">
+    <row r="382" ht="14.4" spans="1:4">
       <c r="A382" s="2" t="s">
         <v>877</v>
       </c>
@@ -12656,7 +13280,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="14.45">
+    <row r="383" ht="14.4" spans="1:4">
       <c r="A383" s="2" t="s">
         <v>880</v>
       </c>
@@ -12670,7 +13294,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="14.45">
+    <row r="384" ht="14.4" spans="1:4">
       <c r="A384" s="2" t="s">
         <v>882</v>
       </c>
@@ -12684,7 +13308,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="14.45">
+    <row r="385" ht="14.4" spans="1:4">
       <c r="A385" s="2" t="s">
         <v>884</v>
       </c>
@@ -12698,7 +13322,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="14.45">
+    <row r="386" ht="14.4" spans="1:4">
       <c r="A386" s="2" t="s">
         <v>886</v>
       </c>
@@ -12712,7 +13336,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="14.45">
+    <row r="387" ht="14.4" spans="1:4">
       <c r="A387" s="2" t="s">
         <v>888</v>
       </c>
@@ -12726,7 +13350,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="14.45">
+    <row r="388" ht="14.4" spans="1:4">
       <c r="A388" s="2" t="s">
         <v>891</v>
       </c>
@@ -12740,7 +13364,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="14.45">
+    <row r="389" ht="14.4" spans="1:4">
       <c r="A389" s="2" t="s">
         <v>893</v>
       </c>
@@ -12754,7 +13378,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="14.45">
+    <row r="390" ht="14.4" spans="1:4">
       <c r="A390" s="2" t="s">
         <v>896</v>
       </c>
@@ -12768,7 +13392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="14.45">
+    <row r="391" ht="14.4" spans="1:4">
       <c r="A391" s="2" t="s">
         <v>897</v>
       </c>
@@ -12782,7 +13406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="14.45">
+    <row r="392" ht="14.4" spans="1:4">
       <c r="A392" s="2" t="s">
         <v>900</v>
       </c>
@@ -12796,7 +13420,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="14.45">
+    <row r="393" ht="14.4" spans="1:4">
       <c r="A393" s="2" t="s">
         <v>902</v>
       </c>
@@ -12810,7 +13434,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="14.45">
+    <row r="394" ht="14.4" spans="1:4">
       <c r="A394" s="2" t="s">
         <v>905</v>
       </c>
@@ -12824,7 +13448,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="14.45">
+    <row r="395" ht="14.4" spans="1:4">
       <c r="A395" s="2" t="s">
         <v>909</v>
       </c>
@@ -12838,7 +13462,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="14.45">
+    <row r="396" ht="14.4" spans="1:4">
       <c r="A396" s="2" t="s">
         <v>913</v>
       </c>
@@ -12852,7 +13476,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="14.45">
+    <row r="397" ht="14.4" spans="1:4">
       <c r="A397" s="2" t="s">
         <v>916</v>
       </c>
@@ -12866,7 +13490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="14.45">
+    <row r="398" ht="14.4" spans="1:4">
       <c r="A398" s="2" t="s">
         <v>919</v>
       </c>
@@ -12880,7 +13504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="14.45">
+    <row r="399" ht="14.4" spans="1:4">
       <c r="A399" s="2" t="s">
         <v>922</v>
       </c>
@@ -12894,7 +13518,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="14.45">
+    <row r="400" ht="14.4" spans="1:4">
       <c r="A400" s="2" t="s">
         <v>925</v>
       </c>
@@ -12908,7 +13532,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="14.45">
+    <row r="401" ht="14.4" spans="1:4">
       <c r="A401" s="2" t="s">
         <v>928</v>
       </c>
@@ -12922,7 +13546,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="14.45">
+    <row r="402" ht="14.4" spans="1:4">
       <c r="A402" s="2" t="s">
         <v>931</v>
       </c>
@@ -12936,7 +13560,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="14.45">
+    <row r="403" ht="14.4" spans="1:4">
       <c r="A403" s="2" t="s">
         <v>935</v>
       </c>
@@ -12950,7 +13574,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="14.45">
+    <row r="404" ht="14.4" spans="1:4">
       <c r="A404" s="2" t="s">
         <v>938</v>
       </c>
@@ -12964,7 +13588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="14.45">
+    <row r="405" ht="14.4" spans="1:4">
       <c r="A405" s="2" t="s">
         <v>940</v>
       </c>
@@ -12978,7 +13602,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="14.45">
+    <row r="406" ht="14.4" spans="1:4">
       <c r="A406" s="2" t="s">
         <v>942</v>
       </c>
@@ -12992,7 +13616,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="14.45">
+    <row r="407" ht="14.4" spans="1:4">
       <c r="A407" s="2" t="s">
         <v>945</v>
       </c>
@@ -13006,7 +13630,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="14.45">
+    <row r="408" ht="14.4" spans="1:4">
       <c r="A408" s="2" t="s">
         <v>947</v>
       </c>
@@ -13020,7 +13644,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="14.45">
+    <row r="409" ht="14.4" spans="1:4">
       <c r="A409" s="2" t="s">
         <v>949</v>
       </c>
@@ -13034,7 +13658,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="14.45">
+    <row r="410" ht="14.4" spans="1:4">
       <c r="A410" s="2" t="s">
         <v>951</v>
       </c>
@@ -13048,7 +13672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="14.45">
+    <row r="411" ht="14.4" spans="1:4">
       <c r="A411" s="2" t="s">
         <v>953</v>
       </c>
@@ -13062,7 +13686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="14.45">
+    <row r="412" ht="14.4" spans="1:4">
       <c r="A412" s="2" t="s">
         <v>955</v>
       </c>
@@ -13076,7 +13700,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="14.45">
+    <row r="413" ht="14.4" spans="1:4">
       <c r="A413" s="2" t="s">
         <v>958</v>
       </c>
@@ -13090,7 +13714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="14.45">
+    <row r="414" ht="14.4" spans="1:4">
       <c r="A414" s="2" t="s">
         <v>961</v>
       </c>
@@ -13104,7 +13728,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="14.45">
+    <row r="415" ht="14.4" spans="1:4">
       <c r="A415" s="2" t="s">
         <v>963</v>
       </c>
@@ -13118,7 +13742,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="14.45">
+    <row r="416" ht="14.4" spans="1:4">
       <c r="A416" s="2" t="s">
         <v>965</v>
       </c>
@@ -13132,7 +13756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="14.45">
+    <row r="417" ht="14.4" spans="1:4">
       <c r="A417" s="2" t="s">
         <v>967</v>
       </c>
@@ -13146,7 +13770,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="14.45">
+    <row r="418" ht="14.4" spans="1:4">
       <c r="A418" s="2" t="s">
         <v>969</v>
       </c>
@@ -13160,7 +13784,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="14.45">
+    <row r="419" ht="14.4" spans="1:4">
       <c r="A419" s="2" t="s">
         <v>972</v>
       </c>
@@ -13174,7 +13798,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="14.45">
+    <row r="420" ht="14.4" spans="1:4">
       <c r="A420" s="2" t="s">
         <v>975</v>
       </c>
@@ -13188,7 +13812,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="14.45">
+    <row r="421" ht="14.4" spans="1:4">
       <c r="A421" s="2" t="s">
         <v>977</v>
       </c>
@@ -13202,7 +13826,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="14.45">
+    <row r="422" ht="14.4" spans="1:4">
       <c r="A422" s="2" t="s">
         <v>979</v>
       </c>
@@ -13216,7 +13840,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="14.45">
+    <row r="423" ht="14.4" spans="1:4">
       <c r="A423" s="2" t="s">
         <v>981</v>
       </c>
@@ -13230,7 +13854,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="14.45">
+    <row r="424" ht="14.4" spans="1:4">
       <c r="A424" s="2" t="s">
         <v>983</v>
       </c>
@@ -13244,7 +13868,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="14.45">
+    <row r="425" ht="14.4" spans="1:4">
       <c r="A425" s="2" t="s">
         <v>985</v>
       </c>
@@ -13258,7 +13882,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="14.45">
+    <row r="426" ht="14.4" spans="1:4">
       <c r="A426" s="2" t="s">
         <v>988</v>
       </c>
@@ -13272,7 +13896,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="14.45">
+    <row r="427" ht="14.4" spans="1:4">
       <c r="A427" s="2" t="s">
         <v>991</v>
       </c>
@@ -13286,7 +13910,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="14.45">
+    <row r="428" ht="14.4" spans="1:4">
       <c r="A428" s="2" t="s">
         <v>994</v>
       </c>
@@ -13300,7 +13924,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="14.45">
+    <row r="429" ht="14.4" spans="1:4">
       <c r="A429" s="2" t="s">
         <v>996</v>
       </c>
@@ -13314,7 +13938,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="14.45">
+    <row r="430" ht="14.4" spans="1:4">
       <c r="A430" s="2" t="s">
         <v>998</v>
       </c>
@@ -13328,7 +13952,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="14.45">
+    <row r="431" ht="14.4" spans="1:4">
       <c r="A431" s="2" t="s">
         <v>1000</v>
       </c>
@@ -13342,7 +13966,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="14.45">
+    <row r="432" ht="14.4" spans="1:4">
       <c r="A432" s="2" t="s">
         <v>1002</v>
       </c>
@@ -13356,7 +13980,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="14.45">
+    <row r="433" ht="14.4" spans="1:4">
       <c r="A433" s="2" t="s">
         <v>1005</v>
       </c>
@@ -13370,7 +13994,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="14.45">
+    <row r="434" ht="14.4" spans="1:4">
       <c r="A434" s="2" t="s">
         <v>1008</v>
       </c>
@@ -13384,7 +14008,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="14.45">
+    <row r="435" ht="14.4" spans="1:4">
       <c r="A435" s="2" t="s">
         <v>1011</v>
       </c>
@@ -13398,7 +14022,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="14.45">
+    <row r="436" ht="14.4" spans="1:4">
       <c r="A436" s="2" t="s">
         <v>1013</v>
       </c>
@@ -13412,7 +14036,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="14.45">
+    <row r="437" ht="14.4" spans="1:4">
       <c r="A437" s="2" t="s">
         <v>1015</v>
       </c>
@@ -13426,7 +14050,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="14.45">
+    <row r="438" ht="14.4" spans="1:4">
       <c r="A438" s="2" t="s">
         <v>1017</v>
       </c>
@@ -13440,7 +14064,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="14.45">
+    <row r="439" ht="14.4" spans="1:4">
       <c r="A439" s="2" t="s">
         <v>1020</v>
       </c>
@@ -13454,7 +14078,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="14.45">
+    <row r="440" ht="14.4" spans="1:4">
       <c r="A440" s="2" t="s">
         <v>1023</v>
       </c>
@@ -13468,7 +14092,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="14.45">
+    <row r="441" ht="14.4" spans="1:4">
       <c r="A441" s="2" t="s">
         <v>1025</v>
       </c>
@@ -13482,7 +14106,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="14.45">
+    <row r="442" ht="14.4" spans="1:4">
       <c r="A442" s="2" t="s">
         <v>1027</v>
       </c>
@@ -13496,7 +14120,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="14.45">
+    <row r="443" ht="14.4" spans="1:4">
       <c r="A443" s="2" t="s">
         <v>1029</v>
       </c>
@@ -13510,7 +14134,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="14.45">
+    <row r="444" ht="14.4" spans="1:4">
       <c r="A444" s="2" t="s">
         <v>1032</v>
       </c>
@@ -13524,7 +14148,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="14.45">
+    <row r="445" ht="14.4" spans="1:4">
       <c r="A445" s="2" t="s">
         <v>1035</v>
       </c>
@@ -13538,7 +14162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="14.45">
+    <row r="446" ht="14.4" spans="1:4">
       <c r="A446" s="2" t="s">
         <v>1037</v>
       </c>
@@ -13552,7 +14176,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="14.45">
+    <row r="447" ht="14.4" spans="1:4">
       <c r="A447" s="2" t="s">
         <v>1039</v>
       </c>
@@ -13566,7 +14190,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="14.45">
+    <row r="448" ht="14.4" spans="1:4">
       <c r="A448" s="2" t="s">
         <v>1041</v>
       </c>
@@ -13580,7 +14204,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="14.45">
+    <row r="449" ht="14.4" spans="1:4">
       <c r="A449" s="2" t="s">
         <v>1043</v>
       </c>
@@ -13594,7 +14218,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="14.45">
+    <row r="450" ht="14.4" spans="1:4">
       <c r="A450" s="2" t="s">
         <v>1045</v>
       </c>
@@ -13608,7 +14232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="14.45">
+    <row r="451" ht="14.4" spans="1:4">
       <c r="A451" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13622,7 +14246,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="14.45">
+    <row r="452" ht="14.4" spans="1:4">
       <c r="A452" s="2" t="s">
         <v>1049</v>
       </c>
@@ -13636,7 +14260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="14.45">
+    <row r="453" ht="14.4" spans="1:4">
       <c r="A453" s="2" t="s">
         <v>1051</v>
       </c>
@@ -13650,7 +14274,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="14.45">
+    <row r="454" ht="14.4" spans="1:4">
       <c r="A454" s="2" t="s">
         <v>1053</v>
       </c>
@@ -13664,7 +14288,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="14.45">
+    <row r="455" ht="14.4" spans="1:4">
       <c r="A455" s="2" t="s">
         <v>1055</v>
       </c>
@@ -13678,7 +14302,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="14.45">
+    <row r="456" ht="14.4" spans="1:4">
       <c r="A456" s="2" t="s">
         <v>1058</v>
       </c>
@@ -13692,7 +14316,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="14.45">
+    <row r="457" ht="14.4" spans="1:4">
       <c r="A457" s="2" t="s">
         <v>1061</v>
       </c>
@@ -13706,7 +14330,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="14.45">
+    <row r="458" ht="14.4" spans="1:4">
       <c r="A458" s="2" t="s">
         <v>1064</v>
       </c>
@@ -13720,7 +14344,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="14.45">
+    <row r="459" ht="14.4" spans="1:4">
       <c r="A459" s="2" t="s">
         <v>1067</v>
       </c>
@@ -13734,7 +14358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="14.45">
+    <row r="460" ht="14.4" spans="1:4">
       <c r="A460" s="2" t="s">
         <v>1069</v>
       </c>
@@ -13748,7 +14372,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="14.45">
+    <row r="461" ht="14.4" spans="1:4">
       <c r="A461" s="2" t="s">
         <v>1071</v>
       </c>
@@ -13762,7 +14386,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="14.45">
+    <row r="462" ht="14.4" spans="1:4">
       <c r="A462" s="2" t="s">
         <v>1073</v>
       </c>
@@ -13776,7 +14400,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="14.45">
+    <row r="463" ht="14.4" spans="1:4">
       <c r="A463" s="2" t="s">
         <v>1075</v>
       </c>
@@ -13790,7 +14414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="14.45">
+    <row r="464" ht="14.4" spans="1:4">
       <c r="A464" s="2" t="s">
         <v>1077</v>
       </c>
@@ -13804,7 +14428,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="14.45">
+    <row r="465" ht="14.4" spans="1:4">
       <c r="A465" s="2" t="s">
         <v>1080</v>
       </c>
@@ -13818,7 +14442,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="14.45">
+    <row r="466" ht="14.4" spans="1:4">
       <c r="A466" s="2" t="s">
         <v>1082</v>
       </c>
@@ -13832,7 +14456,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="14.45">
+    <row r="467" ht="14.4" spans="1:4">
       <c r="A467" s="2" t="s">
         <v>1084</v>
       </c>
@@ -13846,7 +14470,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="14.45">
+    <row r="468" ht="14.4" spans="1:4">
       <c r="A468" s="2" t="s">
         <v>1086</v>
       </c>
@@ -13860,7 +14484,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="14.45">
+    <row r="469" ht="14.4" spans="1:4">
       <c r="A469" s="2" t="s">
         <v>1088</v>
       </c>
@@ -13874,7 +14498,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="14.45">
+    <row r="470" ht="14.4" spans="1:4">
       <c r="A470" s="2" t="s">
         <v>1090</v>
       </c>
@@ -13888,7 +14512,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="14.45">
+    <row r="471" ht="14.4" spans="1:4">
       <c r="A471" s="2" t="s">
         <v>1092</v>
       </c>
@@ -13902,7 +14526,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="14.45">
+    <row r="472" ht="14.4" spans="1:4">
       <c r="A472" s="2" t="s">
         <v>1094</v>
       </c>
@@ -13916,7 +14540,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="14.45">
+    <row r="473" ht="14.4" spans="1:4">
       <c r="A473" s="2" t="s">
         <v>1096</v>
       </c>
@@ -13930,7 +14554,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="14.45">
+    <row r="474" ht="14.4" spans="1:4">
       <c r="A474" s="2" t="s">
         <v>1098</v>
       </c>
@@ -13944,7 +14568,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="14.45">
+    <row r="475" ht="14.4" spans="1:4">
       <c r="A475" s="2" t="s">
         <v>1100</v>
       </c>
@@ -13958,7 +14582,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="14.45">
+    <row r="476" ht="14.4" spans="1:4">
       <c r="A476" s="2" t="s">
         <v>1102</v>
       </c>
@@ -13972,7 +14596,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="14.45">
+    <row r="477" ht="14.4" spans="1:4">
       <c r="A477" s="2" t="s">
         <v>1104</v>
       </c>
@@ -13986,7 +14610,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="14.45">
+    <row r="478" ht="14.4" spans="1:4">
       <c r="A478" s="2" t="s">
         <v>1106</v>
       </c>
@@ -14000,7 +14624,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="14.45">
+    <row r="479" ht="14.4" spans="1:4">
       <c r="A479" s="2" t="s">
         <v>1108</v>
       </c>
@@ -14014,7 +14638,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="14.45">
+    <row r="480" ht="14.4" spans="1:4">
       <c r="A480" s="2" t="s">
         <v>1110</v>
       </c>
@@ -14028,7 +14652,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="14.45">
+    <row r="481" ht="14.4" spans="1:4">
       <c r="A481" s="2" t="s">
         <v>1113</v>
       </c>
@@ -14042,7 +14666,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="14.45">
+    <row r="482" ht="14.4" spans="1:4">
       <c r="A482" s="2" t="s">
         <v>1115</v>
       </c>
@@ -14056,7 +14680,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="14.45">
+    <row r="483" ht="14.4" spans="1:4">
       <c r="A483" s="2" t="s">
         <v>1117</v>
       </c>
@@ -14070,7 +14694,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="14.45">
+    <row r="484" ht="14.4" spans="1:4">
       <c r="A484" s="2" t="s">
         <v>1119</v>
       </c>
@@ -14084,7 +14708,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="14.45">
+    <row r="485" ht="14.4" spans="1:4">
       <c r="A485" s="2" t="s">
         <v>1121</v>
       </c>
@@ -14098,7 +14722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="14.45">
+    <row r="486" ht="14.4" spans="1:4">
       <c r="A486" s="2" t="s">
         <v>1123</v>
       </c>
@@ -14112,7 +14736,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="14.45">
+    <row r="487" ht="14.4" spans="1:4">
       <c r="A487" s="2" t="s">
         <v>1125</v>
       </c>
@@ -14126,7 +14750,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="14.45">
+    <row r="488" ht="14.4" spans="1:4">
       <c r="A488" s="2" t="s">
         <v>1128</v>
       </c>
@@ -14140,7 +14764,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="14.45">
+    <row r="489" ht="14.4" spans="1:4">
       <c r="A489" s="2" t="s">
         <v>1131</v>
       </c>
@@ -14154,7 +14778,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="14.45">
+    <row r="490" ht="14.4" spans="1:4">
       <c r="A490" s="2" t="s">
         <v>1134</v>
       </c>
@@ -14168,7 +14792,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="14.45">
+    <row r="491" ht="14.4" spans="1:4">
       <c r="A491" s="2" t="s">
         <v>1137</v>
       </c>
@@ -14182,7 +14806,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="14.45">
+    <row r="492" ht="14.4" spans="1:4">
       <c r="A492" s="2" t="s">
         <v>1140</v>
       </c>
@@ -14196,7 +14820,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="14.45">
+    <row r="493" ht="14.4" spans="1:4">
       <c r="A493" s="2" t="s">
         <v>1142</v>
       </c>
@@ -14210,7 +14834,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="14.45">
+    <row r="494" ht="14.4" spans="1:4">
       <c r="A494" s="2" t="s">
         <v>1144</v>
       </c>
@@ -14224,7 +14848,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="14.45">
+    <row r="495" ht="14.4" spans="1:4">
       <c r="A495" s="2" t="s">
         <v>1146</v>
       </c>
@@ -14238,7 +14862,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="14.45">
+    <row r="496" ht="14.4" spans="1:4">
       <c r="A496" s="2" t="s">
         <v>1148</v>
       </c>
@@ -14252,7 +14876,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="14.45">
+    <row r="497" ht="14.4" spans="1:4">
       <c r="A497" s="2" t="s">
         <v>1150</v>
       </c>
@@ -14266,7 +14890,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="14.45">
+    <row r="498" ht="14.4" spans="1:4">
       <c r="A498" s="2" t="s">
         <v>1153</v>
       </c>
@@ -14280,7 +14904,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="14.45">
+    <row r="499" ht="14.4" spans="1:4">
       <c r="A499" s="2" t="s">
         <v>1155</v>
       </c>
@@ -14294,7 +14918,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="14.45">
+    <row r="500" ht="14.4" spans="1:4">
       <c r="A500" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14308,7 +14932,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="14.45">
+    <row r="501" ht="14.4" spans="1:4">
       <c r="A501" s="2" t="s">
         <v>1162</v>
       </c>
@@ -14322,7 +14946,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="14.45">
+    <row r="502" ht="14.4" spans="1:4">
       <c r="A502" s="2" t="s">
         <v>1165</v>
       </c>
@@ -14336,7 +14960,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="14.45">
+    <row r="503" ht="14.4" spans="1:4">
       <c r="A503" s="2" t="s">
         <v>1169</v>
       </c>
@@ -14350,7 +14974,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="14.45">
+    <row r="504" ht="14.4" spans="1:4">
       <c r="A504" s="2" t="s">
         <v>1173</v>
       </c>
@@ -14364,7 +14988,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="14.45">
+    <row r="505" ht="14.4" spans="1:4">
       <c r="A505" s="2" t="s">
         <v>1176</v>
       </c>
@@ -14378,7 +15002,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="14.45">
+    <row r="506" ht="14.4" spans="1:4">
       <c r="A506" s="2" t="s">
         <v>1180</v>
       </c>
@@ -14392,7 +15016,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="14.45">
+    <row r="507" ht="14.4" spans="1:4">
       <c r="A507" s="2" t="s">
         <v>1183</v>
       </c>
@@ -14406,7 +15030,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="14.45">
+    <row r="508" ht="14.4" spans="1:4">
       <c r="A508" s="2" t="s">
         <v>1186</v>
       </c>
@@ -14420,7 +15044,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="14.45">
+    <row r="509" ht="14.4" spans="1:4">
       <c r="A509" s="2" t="s">
         <v>1190</v>
       </c>
@@ -14434,7 +15058,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="14.45">
+    <row r="510" ht="14.4" spans="1:4">
       <c r="A510" s="2" t="s">
         <v>1193</v>
       </c>
@@ -14448,7 +15072,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="14.45">
+    <row r="511" ht="14.4" spans="1:4">
       <c r="A511" s="2" t="s">
         <v>1195</v>
       </c>
@@ -14462,7 +15086,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="14.45">
+    <row r="512" ht="14.4" spans="1:4">
       <c r="A512" s="2" t="s">
         <v>1198</v>
       </c>
@@ -14476,7 +15100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="14.45">
+    <row r="513" ht="14.4" spans="1:4">
       <c r="A513" s="2" t="s">
         <v>1201</v>
       </c>
@@ -14490,7 +15114,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="14.45">
+    <row r="514" ht="14.4" spans="1:4">
       <c r="A514" s="2" t="s">
         <v>1205</v>
       </c>
@@ -14504,7 +15128,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="14.45">
+    <row r="515" ht="14.4" spans="1:4">
       <c r="A515" s="2" t="s">
         <v>1207</v>
       </c>
@@ -14518,7 +15142,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="14.45">
+    <row r="516" ht="14.4" spans="1:4">
       <c r="A516" s="2" t="s">
         <v>1210</v>
       </c>
@@ -14532,7 +15156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="14.45">
+    <row r="517" ht="14.4" spans="1:4">
       <c r="A517" s="2" t="s">
         <v>1212</v>
       </c>
@@ -14546,7 +15170,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="14.45">
+    <row r="518" ht="14.4" spans="1:4">
       <c r="A518" s="2" t="s">
         <v>1215</v>
       </c>
@@ -14560,7 +15184,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="14.45">
+    <row r="519" ht="14.4" spans="1:4">
       <c r="A519" s="2" t="s">
         <v>1218</v>
       </c>
@@ -14574,7 +15198,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="14.45">
+    <row r="520" ht="14.4" spans="1:4">
       <c r="A520" s="2" t="s">
         <v>1220</v>
       </c>
@@ -14588,7 +15212,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="14.45">
+    <row r="521" ht="14.4" spans="1:4">
       <c r="A521" s="2" t="s">
         <v>1222</v>
       </c>
@@ -14602,7 +15226,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="14.45">
+    <row r="522" ht="14.4" spans="1:4">
       <c r="A522" s="2" t="s">
         <v>1224</v>
       </c>
@@ -14616,7 +15240,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="14.45">
+    <row r="523" ht="14.4" spans="1:4">
       <c r="A523" s="2" t="s">
         <v>1226</v>
       </c>
@@ -14630,7 +15254,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="14.45">
+    <row r="524" ht="14.4" spans="1:4">
       <c r="A524" s="2" t="s">
         <v>1229</v>
       </c>
@@ -14644,7 +15268,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="14.45">
+    <row r="525" ht="14.4" spans="1:4">
       <c r="A525" s="2" t="s">
         <v>1232</v>
       </c>
@@ -14658,7 +15282,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="14.45">
+    <row r="526" ht="14.4" spans="1:4">
       <c r="A526" s="2" t="s">
         <v>1235</v>
       </c>
@@ -14672,7 +15296,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="14.45">
+    <row r="527" ht="14.4" spans="1:4">
       <c r="A527" s="2" t="s">
         <v>1238</v>
       </c>
@@ -14686,7 +15310,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="14.45">
+    <row r="528" ht="14.4" spans="1:4">
       <c r="A528" s="2" t="s">
         <v>1241</v>
       </c>
@@ -14700,7 +15324,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="14.45">
+    <row r="529" ht="14.4" spans="1:4">
       <c r="A529" s="2" t="s">
         <v>1243</v>
       </c>
@@ -14714,7 +15338,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="14.45">
+    <row r="530" ht="14.4" spans="1:4">
       <c r="A530" s="2" t="s">
         <v>1246</v>
       </c>
@@ -14728,7 +15352,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="14.45">
+    <row r="531" ht="14.4" spans="1:4">
       <c r="A531" s="2" t="s">
         <v>1248</v>
       </c>
@@ -14742,7 +15366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="14.45">
+    <row r="532" ht="14.4" spans="1:4">
       <c r="A532" s="2" t="s">
         <v>1250</v>
       </c>
@@ -14756,7 +15380,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="14.45">
+    <row r="533" ht="14.4" spans="1:4">
       <c r="A533" s="2" t="s">
         <v>1252</v>
       </c>
@@ -14770,7 +15394,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="14.45">
+    <row r="534" ht="14.4" spans="1:4">
       <c r="A534" s="2" t="s">
         <v>1254</v>
       </c>
@@ -14784,7 +15408,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="14.45">
+    <row r="535" ht="14.4" spans="1:4">
       <c r="A535" s="2" t="s">
         <v>1256</v>
       </c>
@@ -14798,7 +15422,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="14.45">
+    <row r="536" ht="14.4" spans="1:4">
       <c r="A536" s="2" t="s">
         <v>1259</v>
       </c>
@@ -14812,7 +15436,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="14.45">
+    <row r="537" ht="14.4" spans="1:4">
       <c r="A537" s="2" t="s">
         <v>1261</v>
       </c>
@@ -14826,7 +15450,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="14.45">
+    <row r="538" ht="14.4" spans="1:4">
       <c r="A538" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14840,7 +15464,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="14.45">
+    <row r="539" ht="14.4" spans="1:4">
       <c r="A539" s="2" t="s">
         <v>1265</v>
       </c>
@@ -14854,7 +15478,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="14.45">
+    <row r="540" ht="14.4" spans="1:4">
       <c r="A540" s="2" t="s">
         <v>1268</v>
       </c>
@@ -14868,7 +15492,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="14.45">
+    <row r="541" ht="14.4" spans="1:4">
       <c r="A541" s="2" t="s">
         <v>1271</v>
       </c>
@@ -14882,7 +15506,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="14.45">
+    <row r="542" ht="14.4" spans="1:4">
       <c r="A542" s="2" t="s">
         <v>1273</v>
       </c>
@@ -14896,7 +15520,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="14.45">
+    <row r="543" ht="14.4" spans="1:4">
       <c r="A543" s="2" t="s">
         <v>1276</v>
       </c>
@@ -14910,7 +15534,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="14.45">
+    <row r="544" ht="14.4" spans="1:4">
       <c r="A544" s="2" t="s">
         <v>1279</v>
       </c>
@@ -14924,7 +15548,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="14.45">
+    <row r="545" ht="14.4" spans="1:4">
       <c r="A545" s="2" t="s">
         <v>1281</v>
       </c>
@@ -14938,7 +15562,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="14.45">
+    <row r="546" ht="14.4" spans="1:4">
       <c r="A546" s="2" t="s">
         <v>1284</v>
       </c>
@@ -14952,7 +15576,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="14.45">
+    <row r="547" ht="14.4" spans="1:4">
       <c r="A547" s="2" t="s">
         <v>1287</v>
       </c>
@@ -14966,7 +15590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="14.45">
+    <row r="548" ht="14.4" spans="1:4">
       <c r="A548" s="2" t="s">
         <v>1290</v>
       </c>
@@ -14980,7 +15604,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="14.45">
+    <row r="549" ht="14.4" spans="1:4">
       <c r="A549" s="2" t="s">
         <v>1292</v>
       </c>
@@ -14994,7 +15618,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="14.45">
+    <row r="550" ht="14.4" spans="1:4">
       <c r="A550" s="2" t="s">
         <v>1294</v>
       </c>
@@ -15008,7 +15632,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="14.45">
+    <row r="551" ht="14.4" spans="1:4">
       <c r="A551" s="2" t="s">
         <v>1296</v>
       </c>
@@ -15022,7 +15646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="14.45">
+    <row r="552" ht="14.4" spans="1:4">
       <c r="A552" s="2" t="s">
         <v>1298</v>
       </c>
@@ -15036,7 +15660,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="14.45">
+    <row r="553" ht="14.4" spans="1:4">
       <c r="A553" s="2" t="s">
         <v>1300</v>
       </c>
@@ -15050,7 +15674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="14.45">
+    <row r="554" ht="14.4" spans="1:4">
       <c r="A554" s="2" t="s">
         <v>1302</v>
       </c>
@@ -15064,7 +15688,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="14.45">
+    <row r="555" ht="14.4" spans="1:4">
       <c r="A555" s="2" t="s">
         <v>1304</v>
       </c>
@@ -15078,7 +15702,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="14.45">
+    <row r="556" ht="14.4" spans="1:4">
       <c r="A556" s="2" t="s">
         <v>1307</v>
       </c>
@@ -15092,7 +15716,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="14.45">
+    <row r="557" ht="14.4" spans="1:4">
       <c r="A557" s="2" t="s">
         <v>1310</v>
       </c>
@@ -15106,7 +15730,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="14.45">
+    <row r="558" ht="14.4" spans="1:4">
       <c r="A558" s="2" t="s">
         <v>1313</v>
       </c>
@@ -15120,7 +15744,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="14.45">
+    <row r="559" ht="14.4" spans="1:4">
       <c r="A559" s="2" t="s">
         <v>1316</v>
       </c>
@@ -15134,7 +15758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="14.45">
+    <row r="560" ht="14.4" spans="1:4">
       <c r="A560" s="2" t="s">
         <v>1318</v>
       </c>
@@ -15148,7 +15772,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="14.45">
+    <row r="561" ht="14.4" spans="1:4">
       <c r="A561" s="2" t="s">
         <v>1320</v>
       </c>
@@ -15162,7 +15786,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="14.45">
+    <row r="562" ht="14.4" spans="1:4">
       <c r="A562" s="2" t="s">
         <v>1323</v>
       </c>
@@ -15176,7 +15800,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="14.45">
+    <row r="563" ht="14.4" spans="1:4">
       <c r="A563" s="2" t="s">
         <v>1325</v>
       </c>
@@ -15190,7 +15814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="14.45">
+    <row r="564" ht="14.4" spans="1:4">
       <c r="A564" s="2" t="s">
         <v>1327</v>
       </c>
@@ -15204,7 +15828,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="14.45">
+    <row r="565" ht="14.4" spans="1:4">
       <c r="A565" s="2" t="s">
         <v>1330</v>
       </c>
@@ -15218,7 +15842,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="14.45">
+    <row r="566" ht="14.4" spans="1:4">
       <c r="A566" s="2" t="s">
         <v>1333</v>
       </c>
@@ -15232,7 +15856,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="14.45">
+    <row r="567" ht="14.4" spans="1:4">
       <c r="A567" s="2" t="s">
         <v>1335</v>
       </c>
@@ -15246,7 +15870,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="14.45">
+    <row r="568" ht="14.4" spans="1:4">
       <c r="A568" s="2" t="s">
         <v>1337</v>
       </c>
@@ -15260,7 +15884,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="14.45">
+    <row r="569" ht="14.4" spans="1:4">
       <c r="A569" s="2" t="s">
         <v>1339</v>
       </c>
@@ -15274,7 +15898,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="14.45">
+    <row r="570" ht="14.4" spans="1:4">
       <c r="A570" s="2" t="s">
         <v>1341</v>
       </c>
@@ -15288,7 +15912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="14.45">
+    <row r="571" ht="14.4" spans="1:4">
       <c r="A571" s="2" t="s">
         <v>1343</v>
       </c>
@@ -15302,7 +15926,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="14.45">
+    <row r="572" ht="14.4" spans="1:4">
       <c r="A572" s="2" t="s">
         <v>1346</v>
       </c>
@@ -15316,7 +15940,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="14.45">
+    <row r="573" ht="14.4" spans="1:4">
       <c r="A573" s="2" t="s">
         <v>1349</v>
       </c>
@@ -15330,7 +15954,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="14.45">
+    <row r="574" ht="14.4" spans="1:4">
       <c r="A574" s="2" t="s">
         <v>1352</v>
       </c>
@@ -15344,7 +15968,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="14.45">
+    <row r="575" ht="14.4" spans="1:4">
       <c r="A575" s="2" t="s">
         <v>1355</v>
       </c>
@@ -15358,7 +15982,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="14.45">
+    <row r="576" ht="14.4" spans="1:4">
       <c r="A576" s="2" t="s">
         <v>1358</v>
       </c>
@@ -15372,7 +15996,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="14.45">
+    <row r="577" ht="14.4" spans="1:4">
       <c r="A577" s="2" t="s">
         <v>1361</v>
       </c>
@@ -15386,7 +16010,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="14.45">
+    <row r="578" ht="14.4" spans="1:4">
       <c r="A578" s="2" t="s">
         <v>1363</v>
       </c>
@@ -15400,7 +16024,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="14.45">
+    <row r="579" ht="14.4" spans="1:4">
       <c r="A579" s="2" t="s">
         <v>1365</v>
       </c>
@@ -15414,7 +16038,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="14.45">
+    <row r="580" ht="14.4" spans="1:4">
       <c r="A580" s="2" t="s">
         <v>1367</v>
       </c>
@@ -15428,7 +16052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="14.45">
+    <row r="581" ht="14.4" spans="1:4">
       <c r="A581" s="2" t="s">
         <v>1369</v>
       </c>
@@ -15442,7 +16066,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="14.45">
+    <row r="582" ht="14.4" spans="1:4">
       <c r="A582" s="2" t="s">
         <v>1372</v>
       </c>
@@ -15456,7 +16080,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="14.45">
+    <row r="583" ht="14.4" spans="1:4">
       <c r="A583" s="2" t="s">
         <v>1374</v>
       </c>
@@ -15470,7 +16094,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="14.45">
+    <row r="584" ht="14.4" spans="1:4">
       <c r="A584" s="2" t="s">
         <v>1377</v>
       </c>
@@ -15484,7 +16108,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="14.45">
+    <row r="585" ht="14.4" spans="1:4">
       <c r="A585" s="2" t="s">
         <v>1380</v>
       </c>
@@ -15498,7 +16122,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="14.45">
+    <row r="586" ht="14.4" spans="1:4">
       <c r="A586" s="2" t="s">
         <v>1382</v>
       </c>
@@ -15512,7 +16136,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="14.45">
+    <row r="587" ht="14.4" spans="1:4">
       <c r="A587" s="2" t="s">
         <v>1384</v>
       </c>
@@ -15526,7 +16150,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="14.45">
+    <row r="588" ht="14.4" spans="1:4">
       <c r="A588" s="2" t="s">
         <v>1386</v>
       </c>
@@ -15540,7 +16164,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="14.45">
+    <row r="589" ht="14.4" spans="1:4">
       <c r="A589" s="2" t="s">
         <v>1388</v>
       </c>
@@ -15554,7 +16178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="14.45">
+    <row r="590" ht="14.4" spans="1:4">
       <c r="A590" s="2" t="s">
         <v>1390</v>
       </c>
@@ -15568,7 +16192,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="14.45">
+    <row r="591" ht="14.4" spans="1:4">
       <c r="A591" s="2" t="s">
         <v>1392</v>
       </c>
@@ -15582,7 +16206,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="14.45">
+    <row r="592" ht="14.4" spans="1:4">
       <c r="A592" s="2" t="s">
         <v>1394</v>
       </c>
@@ -15596,7 +16220,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="14.45">
+    <row r="593" ht="14.4" spans="1:4">
       <c r="A593" s="2" t="s">
         <v>1397</v>
       </c>
@@ -15610,7 +16234,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="14.45">
+    <row r="594" ht="14.4" spans="1:4">
       <c r="A594" s="2" t="s">
         <v>1399</v>
       </c>
@@ -15624,7 +16248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="14.45">
+    <row r="595" ht="14.4" spans="1:4">
       <c r="A595" s="2" t="s">
         <v>1401</v>
       </c>
@@ -15638,7 +16262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="14.45">
+    <row r="596" ht="14.4" spans="1:4">
       <c r="A596" s="2" t="s">
         <v>1403</v>
       </c>
@@ -15652,7 +16276,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="14.45">
+    <row r="597" ht="14.4" spans="1:4">
       <c r="A597" s="2" t="s">
         <v>1405</v>
       </c>
@@ -15666,7 +16290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="14.45">
+    <row r="598" ht="14.4" spans="1:4">
       <c r="A598" s="2" t="s">
         <v>1407</v>
       </c>
@@ -15680,7 +16304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="14.45">
+    <row r="599" ht="14.4" spans="1:4">
       <c r="A599" s="2" t="s">
         <v>1410</v>
       </c>
@@ -15694,7 +16318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="14.45">
+    <row r="600" ht="14.4" spans="1:4">
       <c r="A600" s="2" t="s">
         <v>1413</v>
       </c>
@@ -15708,7 +16332,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="14.45">
+    <row r="601" ht="14.4" spans="1:4">
       <c r="A601" s="2" t="s">
         <v>1416</v>
       </c>
@@ -15722,7 +16346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="14.45">
+    <row r="602" ht="14.4" spans="1:4">
       <c r="A602" s="2" t="s">
         <v>1418</v>
       </c>
@@ -15736,7 +16360,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="14.45">
+    <row r="603" ht="14.4" spans="1:4">
       <c r="A603" s="2" t="s">
         <v>1421</v>
       </c>
@@ -15750,7 +16374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="14.45">
+    <row r="604" ht="14.4" spans="1:4">
       <c r="A604" s="2" t="s">
         <v>1424</v>
       </c>
@@ -15764,7 +16388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="14.45">
+    <row r="605" ht="14.4" spans="1:4">
       <c r="A605" s="2" t="s">
         <v>1426</v>
       </c>
@@ -15778,7 +16402,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="14.45">
+    <row r="606" ht="14.4" spans="1:4">
       <c r="A606" s="2" t="s">
         <v>1429</v>
       </c>
@@ -15792,7 +16416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="14.45">
+    <row r="607" ht="14.4" spans="1:4">
       <c r="A607" s="2" t="s">
         <v>1431</v>
       </c>
@@ -15806,7 +16430,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="14.45">
+    <row r="608" ht="14.4" spans="1:4">
       <c r="A608" s="2" t="s">
         <v>1434</v>
       </c>
@@ -15820,7 +16444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="14.45">
+    <row r="609" ht="14.4" spans="1:4">
       <c r="A609" s="2" t="s">
         <v>1437</v>
       </c>
@@ -15834,7 +16458,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="14.45">
+    <row r="610" ht="14.4" spans="1:4">
       <c r="A610" s="2" t="s">
         <v>1440</v>
       </c>
@@ -15848,7 +16472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="14.45">
+    <row r="611" ht="14.4" spans="1:4">
       <c r="A611" s="2" t="s">
         <v>1442</v>
       </c>
@@ -15862,7 +16486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="14.45">
+    <row r="612" ht="14.4" spans="1:4">
       <c r="A612" s="2" t="s">
         <v>1443</v>
       </c>
@@ -15876,7 +16500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="14.45">
+    <row r="613" ht="14.4" spans="1:4">
       <c r="A613" s="2" t="s">
         <v>1446</v>
       </c>
@@ -15890,7 +16514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="14.45">
+    <row r="614" ht="14.4" spans="1:4">
       <c r="A614" s="2" t="s">
         <v>1448</v>
       </c>
@@ -15904,7 +16528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="14.45">
+    <row r="615" ht="14.4" spans="1:4">
       <c r="A615" s="2" t="s">
         <v>1450</v>
       </c>
@@ -15918,7 +16542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="14.45">
+    <row r="616" ht="14.4" spans="1:4">
       <c r="A616" s="2" t="s">
         <v>1452</v>
       </c>
@@ -15932,7 +16556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="14.45">
+    <row r="617" ht="14.4" spans="1:4">
       <c r="A617" s="2" t="s">
         <v>1454</v>
       </c>
@@ -15946,7 +16570,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="14.45">
+    <row r="618" ht="14.4" spans="1:4">
       <c r="A618" s="2" t="s">
         <v>1456</v>
       </c>
@@ -15960,7 +16584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="14.45">
+    <row r="619" ht="14.4" spans="1:4">
       <c r="A619" s="2" t="s">
         <v>1458</v>
       </c>
@@ -15974,7 +16598,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="14.45">
+    <row r="620" ht="14.4" spans="1:4">
       <c r="A620" s="2" t="s">
         <v>1460</v>
       </c>
@@ -15988,7 +16612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="14.45">
+    <row r="621" ht="14.4" spans="1:4">
       <c r="A621" s="2" t="s">
         <v>1462</v>
       </c>
@@ -16002,7 +16626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="14.45">
+    <row r="622" ht="14.4" spans="1:4">
       <c r="A622" s="2" t="s">
         <v>1464</v>
       </c>
@@ -16016,7 +16640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="14.45">
+    <row r="623" ht="14.4" spans="1:4">
       <c r="A623" s="2" t="s">
         <v>1466</v>
       </c>
@@ -16030,7 +16654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="14.45">
+    <row r="624" ht="14.4" spans="1:4">
       <c r="A624" s="2" t="s">
         <v>1468</v>
       </c>
@@ -16044,7 +16668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="14.45">
+    <row r="625" ht="14.4" spans="1:4">
       <c r="A625" s="2" t="s">
         <v>1470</v>
       </c>
@@ -16058,7 +16682,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="14.45">
+    <row r="626" ht="14.4" spans="1:4">
       <c r="A626" s="2" t="s">
         <v>1472</v>
       </c>
@@ -16072,7 +16696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="14.45">
+    <row r="627" ht="14.4" spans="1:4">
       <c r="A627" s="2" t="s">
         <v>1474</v>
       </c>
@@ -16086,7 +16710,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="14.45">
+    <row r="628" ht="14.4" spans="1:4">
       <c r="A628" s="2" t="s">
         <v>1475</v>
       </c>
@@ -16100,7 +16724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="14.45">
+    <row r="629" ht="14.4" spans="1:4">
       <c r="A629" s="2" t="s">
         <v>1477</v>
       </c>
@@ -16114,7 +16738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="14.45">
+    <row r="630" ht="14.4" spans="1:4">
       <c r="A630" s="2" t="s">
         <v>1479</v>
       </c>
@@ -16128,7 +16752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="14.45">
+    <row r="631" ht="14.4" spans="1:4">
       <c r="A631" s="2" t="s">
         <v>1481</v>
       </c>
@@ -16142,7 +16766,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="14.45">
+    <row r="632" ht="14.4" spans="1:4">
       <c r="A632" s="2" t="s">
         <v>1484</v>
       </c>
@@ -16156,7 +16780,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="14.45">
+    <row r="633" ht="14.4" spans="1:4">
       <c r="A633" s="2" t="s">
         <v>1487</v>
       </c>
@@ -16170,7 +16794,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="14.45">
+    <row r="634" ht="14.4" spans="1:4">
       <c r="A634" s="2" t="s">
         <v>1489</v>
       </c>
@@ -16184,7 +16808,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="14.45">
+    <row r="635" ht="14.4" spans="1:4">
       <c r="A635" s="2" t="s">
         <v>1491</v>
       </c>
@@ -16198,7 +16822,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="14.45">
+    <row r="636" ht="14.4" spans="1:4">
       <c r="A636" s="2" t="s">
         <v>1493</v>
       </c>
@@ -16212,7 +16836,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="14.45">
+    <row r="637" ht="14.4" spans="1:4">
       <c r="A637" s="2" t="s">
         <v>1496</v>
       </c>
@@ -16226,7 +16850,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="14.45">
+    <row r="638" ht="14.4" spans="1:4">
       <c r="A638" s="2" t="s">
         <v>1498</v>
       </c>
@@ -16240,7 +16864,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="14.45">
+    <row r="639" ht="14.4" spans="1:4">
       <c r="A639" s="2" t="s">
         <v>1500</v>
       </c>
@@ -16254,7 +16878,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="14.45">
+    <row r="640" ht="14.4" spans="1:4">
       <c r="A640" s="2" t="s">
         <v>1502</v>
       </c>
@@ -16268,7 +16892,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="14.45">
+    <row r="641" ht="14.4" spans="1:4">
       <c r="A641" s="2" t="s">
         <v>1504</v>
       </c>
@@ -16282,7 +16906,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="14.45">
+    <row r="642" ht="14.4" spans="1:4">
       <c r="A642" s="2" t="s">
         <v>1506</v>
       </c>
@@ -16296,7 +16920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="14.45">
+    <row r="643" ht="14.4" spans="1:4">
       <c r="A643" s="2" t="s">
         <v>1508</v>
       </c>
@@ -16310,7 +16934,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="14.45">
+    <row r="644" ht="14.4" spans="1:4">
       <c r="A644" s="2" t="s">
         <v>1510</v>
       </c>
@@ -16324,7 +16948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="14.45">
+    <row r="645" ht="14.4" spans="1:4">
       <c r="A645" s="2" t="s">
         <v>1513</v>
       </c>
@@ -16338,7 +16962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="14.45">
+    <row r="646" ht="14.4" spans="1:4">
       <c r="A646" s="2" t="s">
         <v>1515</v>
       </c>
@@ -16352,7 +16976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="14.45">
+    <row r="647" ht="14.4" spans="1:4">
       <c r="A647" s="2" t="s">
         <v>1517</v>
       </c>
@@ -16366,7 +16990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="14.45">
+    <row r="648" ht="14.4" spans="1:4">
       <c r="A648" s="2" t="s">
         <v>1519</v>
       </c>
@@ -16380,7 +17004,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="14.45">
+    <row r="649" ht="14.4" spans="1:4">
       <c r="A649" s="2" t="s">
         <v>1521</v>
       </c>
@@ -16394,7 +17018,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="14.45">
+    <row r="650" ht="14.4" spans="1:4">
       <c r="A650" s="2" t="s">
         <v>1523</v>
       </c>
@@ -16408,7 +17032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="14.45">
+    <row r="651" ht="14.4" spans="1:4">
       <c r="A651" s="2" t="s">
         <v>1525</v>
       </c>
@@ -16422,7 +17046,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="14.45">
+    <row r="652" ht="14.4" spans="1:4">
       <c r="A652" s="2" t="s">
         <v>1527</v>
       </c>
@@ -16436,7 +17060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="14.45">
+    <row r="653" ht="14.4" spans="1:4">
       <c r="A653" s="2" t="s">
         <v>1529</v>
       </c>
@@ -16450,7 +17074,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="14.45">
+    <row r="654" ht="14.4" spans="1:4">
       <c r="A654" s="2" t="s">
         <v>1533</v>
       </c>
@@ -16464,7 +17088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="14.45">
+    <row r="655" ht="14.4" spans="1:4">
       <c r="A655" s="2" t="s">
         <v>1535</v>
       </c>
@@ -16478,7 +17102,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="14.45">
+    <row r="656" ht="14.4" spans="1:4">
       <c r="A656" s="2" t="s">
         <v>1537</v>
       </c>
@@ -16492,7 +17116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="14.45">
+    <row r="657" ht="14.4" spans="1:4">
       <c r="A657" s="2" t="s">
         <v>1540</v>
       </c>
@@ -16506,7 +17130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="14.45">
+    <row r="658" ht="14.4" spans="1:4">
       <c r="A658" s="2" t="s">
         <v>1542</v>
       </c>
@@ -16520,7 +17144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="14.45">
+    <row r="659" ht="14.4" spans="1:4">
       <c r="A659" s="2" t="s">
         <v>1544</v>
       </c>
@@ -16534,7 +17158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="14.45">
+    <row r="660" ht="14.4" spans="1:4">
       <c r="A660" s="2" t="s">
         <v>1546</v>
       </c>
@@ -16548,7 +17172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="14.45">
+    <row r="661" ht="14.4" spans="1:4">
       <c r="A661" s="2" t="s">
         <v>1548</v>
       </c>
@@ -16562,7 +17186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="14.45">
+    <row r="662" ht="14.4" spans="1:4">
       <c r="A662" s="2" t="s">
         <v>1550</v>
       </c>
@@ -16576,7 +17200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="14.45">
+    <row r="663" ht="14.4" spans="1:4">
       <c r="A663" s="2" t="s">
         <v>1552</v>
       </c>
@@ -16590,7 +17214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="14.45">
+    <row r="664" ht="14.4" spans="1:4">
       <c r="A664" s="2" t="s">
         <v>1555</v>
       </c>
@@ -16604,7 +17228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="14.45">
+    <row r="665" ht="14.4" spans="1:4">
       <c r="A665" s="2" t="s">
         <v>1557</v>
       </c>
@@ -16618,7 +17242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="14.45">
+    <row r="666" ht="14.4" spans="1:4">
       <c r="A666" s="2" t="s">
         <v>1559</v>
       </c>
@@ -16632,7 +17256,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="14.45">
+    <row r="667" ht="14.4" spans="1:4">
       <c r="A667" s="2" t="s">
         <v>1562</v>
       </c>
@@ -16646,7 +17270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="14.45">
+    <row r="668" ht="14.4" spans="1:4">
       <c r="A668" s="2" t="s">
         <v>1565</v>
       </c>
@@ -16660,7 +17284,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="14.45">
+    <row r="669" ht="14.4" spans="1:4">
       <c r="A669" s="2" t="s">
         <v>1567</v>
       </c>
@@ -16674,7 +17298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="14.45">
+    <row r="670" ht="14.4" spans="1:4">
       <c r="A670" s="2" t="s">
         <v>1569</v>
       </c>
@@ -16688,7 +17312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="14.45">
+    <row r="671" ht="14.4" spans="1:4">
       <c r="A671" s="2" t="s">
         <v>1571</v>
       </c>
@@ -16702,7 +17326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="14.45">
+    <row r="672" ht="14.4" spans="1:4">
       <c r="A672" s="2" t="s">
         <v>1573</v>
       </c>
@@ -16716,7 +17340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="14.45">
+    <row r="673" ht="14.4" spans="1:4">
       <c r="A673" s="2" t="s">
         <v>1575</v>
       </c>
@@ -16730,7 +17354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="14.45">
+    <row r="674" ht="14.4" spans="1:4">
       <c r="A674" s="2" t="s">
         <v>1577</v>
       </c>
@@ -16744,7 +17368,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="14.45">
+    <row r="675" ht="14.4" spans="1:4">
       <c r="A675" s="2" t="s">
         <v>1579</v>
       </c>
@@ -16758,7 +17382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="14.45">
+    <row r="676" ht="14.4" spans="1:4">
       <c r="A676" s="2" t="s">
         <v>1580</v>
       </c>
@@ -16772,7 +17396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="14.45">
+    <row r="677" ht="14.4" spans="1:4">
       <c r="A677" s="2" t="s">
         <v>1582</v>
       </c>
@@ -16786,7 +17410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="14.45">
+    <row r="678" ht="14.4" spans="1:4">
       <c r="A678" s="2" t="s">
         <v>1584</v>
       </c>
@@ -16800,7 +17424,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="14.45">
+    <row r="679" ht="14.4" spans="1:4">
       <c r="A679" s="2" t="s">
         <v>1586</v>
       </c>
@@ -16814,7 +17438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="14.45">
+    <row r="680" ht="14.4" spans="1:4">
       <c r="A680" s="2" t="s">
         <v>1588</v>
       </c>
@@ -16828,7 +17452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="14.45">
+    <row r="681" ht="14.4" spans="1:4">
       <c r="A681" s="2" t="s">
         <v>1590</v>
       </c>
@@ -16842,7 +17466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="14.45">
+    <row r="682" ht="14.4" spans="1:4">
       <c r="A682" s="2" t="s">
         <v>1591</v>
       </c>
@@ -16856,7 +17480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="14.45">
+    <row r="683" ht="14.4" spans="1:4">
       <c r="A683" s="2" t="s">
         <v>1592</v>
       </c>
@@ -16870,7 +17494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="14.45">
+    <row r="684" ht="14.4" spans="1:4">
       <c r="A684" s="2" t="s">
         <v>1593</v>
       </c>
@@ -16884,7 +17508,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="14.45">
+    <row r="685" ht="14.4" spans="1:4">
       <c r="A685" s="2" t="s">
         <v>1596</v>
       </c>
@@ -16898,7 +17522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="14.45">
+    <row r="686" ht="14.4" spans="1:4">
       <c r="A686" s="2" t="s">
         <v>1598</v>
       </c>
@@ -16912,7 +17536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="14.45">
+    <row r="687" ht="14.4" spans="1:4">
       <c r="A687" s="2" t="s">
         <v>1600</v>
       </c>
@@ -16926,7 +17550,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="14.45">
+    <row r="688" ht="14.4" spans="1:4">
       <c r="A688" s="2" t="s">
         <v>1604</v>
       </c>
@@ -16940,7 +17564,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="14.45">
+    <row r="689" ht="14.4" spans="1:4">
       <c r="A689" s="2" t="s">
         <v>1606</v>
       </c>
@@ -16954,7 +17578,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="14.45">
+    <row r="690" ht="14.4" spans="1:4">
       <c r="A690" s="2" t="s">
         <v>1610</v>
       </c>
@@ -16968,7 +17592,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="14.45">
+    <row r="691" ht="14.4" spans="1:4">
       <c r="A691" s="2" t="s">
         <v>1613</v>
       </c>
@@ -16982,7 +17606,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="14.45">
+    <row r="692" ht="14.4" spans="1:4">
       <c r="A692" s="2" t="s">
         <v>1616</v>
       </c>
@@ -16996,7 +17620,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="14.45">
+    <row r="693" ht="14.4" spans="1:4">
       <c r="A693" s="2" t="s">
         <v>1618</v>
       </c>
@@ -17010,7 +17634,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="14.45">
+    <row r="694" ht="14.4" spans="1:4">
       <c r="A694" s="2" t="s">
         <v>1620</v>
       </c>
@@ -17024,7 +17648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="14.45">
+    <row r="695" ht="14.4" spans="1:4">
       <c r="A695" s="2" t="s">
         <v>1622</v>
       </c>
@@ -17038,7 +17662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="14.45">
+    <row r="696" ht="14.4" spans="1:4">
       <c r="A696" s="2" t="s">
         <v>1624</v>
       </c>
@@ -17052,7 +17676,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="14.45">
+    <row r="697" ht="14.4" spans="1:4">
       <c r="A697" s="2" t="s">
         <v>1626</v>
       </c>
@@ -17066,7 +17690,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="14.45">
+    <row r="698" ht="14.4" spans="1:4">
       <c r="A698" s="2" t="s">
         <v>1629</v>
       </c>
@@ -17080,7 +17704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="14.45">
+    <row r="699" ht="14.4" spans="1:4">
       <c r="A699" s="2" t="s">
         <v>1631</v>
       </c>
@@ -17094,7 +17718,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="700" spans="1:4" ht="14.45">
+    <row r="700" ht="14.4" spans="1:4">
       <c r="A700" s="2" t="s">
         <v>1633</v>
       </c>
@@ -17108,7 +17732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="701" spans="1:4" ht="14.45">
+    <row r="701" ht="14.4" spans="1:4">
       <c r="A701" s="2" t="s">
         <v>1636</v>
       </c>
@@ -17122,7 +17746,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="702" spans="1:4" ht="14.45">
+    <row r="702" ht="14.4" spans="1:4">
       <c r="A702" s="2" t="s">
         <v>1639</v>
       </c>
@@ -17136,7 +17760,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="703" spans="1:4" ht="14.45">
+    <row r="703" ht="14.4" spans="1:4">
       <c r="A703" s="2" t="s">
         <v>1642</v>
       </c>
@@ -17150,7 +17774,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="14.45">
+    <row r="704" ht="14.4" spans="1:4">
       <c r="A704" s="2" t="s">
         <v>1645</v>
       </c>
@@ -17164,7 +17788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="705" spans="1:4" ht="14.45">
+    <row r="705" ht="14.4" spans="1:4">
       <c r="A705" s="2" t="s">
         <v>1647</v>
       </c>
@@ -17178,7 +17802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="14.45">
+    <row r="706" ht="14.4" spans="1:4">
       <c r="A706" s="2" t="s">
         <v>1650</v>
       </c>
@@ -17192,7 +17816,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="707" spans="1:4" ht="14.45">
+    <row r="707" ht="14.4" spans="1:4">
       <c r="A707" s="2" t="s">
         <v>1654</v>
       </c>
@@ -17206,7 +17830,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="14.45">
+    <row r="708" ht="14.4" spans="1:4">
       <c r="A708" s="2" t="s">
         <v>1658</v>
       </c>
@@ -17220,7 +17844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="709" spans="1:4" ht="14.45">
+    <row r="709" ht="14.4" spans="1:4">
       <c r="A709" s="2" t="s">
         <v>1660</v>
       </c>
@@ -17234,7 +17858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="710" spans="1:4" ht="14.45">
+    <row r="710" ht="14.4" spans="1:4">
       <c r="A710" s="2" t="s">
         <v>1662</v>
       </c>
@@ -17248,7 +17872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="711" spans="1:4" ht="14.45">
+    <row r="711" ht="14.4" spans="1:4">
       <c r="A711" s="2" t="s">
         <v>1664</v>
       </c>
@@ -17262,7 +17886,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="14.45">
+    <row r="712" ht="14.4" spans="1:4">
       <c r="A712" s="2" t="s">
         <v>1666</v>
       </c>
@@ -17276,7 +17900,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="14.45">
+    <row r="713" ht="14.4" spans="1:4">
       <c r="A713" s="2" t="s">
         <v>1669</v>
       </c>
@@ -17290,7 +17914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="714" spans="1:4" ht="14.45">
+    <row r="714" ht="14.4" spans="1:4">
       <c r="A714" s="2" t="s">
         <v>1671</v>
       </c>
@@ -17304,7 +17928,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="715" spans="1:4" ht="14.45">
+    <row r="715" ht="14.4" spans="1:4">
       <c r="A715" s="2" t="s">
         <v>1673</v>
       </c>
@@ -17318,7 +17942,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="716" spans="1:4" ht="14.45">
+    <row r="716" ht="14.4" spans="1:4">
       <c r="A716" s="2" t="s">
         <v>1675</v>
       </c>
@@ -17332,7 +17956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="717" spans="1:4" ht="14.45">
+    <row r="717" ht="14.4" spans="1:4">
       <c r="A717" s="2" t="s">
         <v>1677</v>
       </c>
@@ -17346,7 +17970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="718" spans="1:4" ht="14.45">
+    <row r="718" ht="14.4" spans="1:4">
       <c r="A718" s="2" t="s">
         <v>1679</v>
       </c>
@@ -17360,7 +17984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="719" spans="1:4" ht="14.45">
+    <row r="719" ht="14.4" spans="1:4">
       <c r="A719" s="2" t="s">
         <v>1681</v>
       </c>
@@ -17374,7 +17998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="720" spans="1:4" ht="14.45">
+    <row r="720" ht="14.4" spans="1:4">
       <c r="A720" s="2" t="s">
         <v>1684</v>
       </c>
@@ -17388,7 +18012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="721" spans="1:4" ht="14.45">
+    <row r="721" ht="14.4" spans="1:4">
       <c r="A721" s="2" t="s">
         <v>1686</v>
       </c>
@@ -17402,7 +18026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="722" spans="1:4" ht="14.45">
+    <row r="722" ht="14.4" spans="1:4">
       <c r="A722" s="2" t="s">
         <v>1688</v>
       </c>
@@ -17416,7 +18040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="723" spans="1:4" ht="14.45">
+    <row r="723" ht="14.4" spans="1:4">
       <c r="A723" s="2" t="s">
         <v>1690</v>
       </c>
@@ -17430,7 +18054,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="724" spans="1:4" ht="14.45">
+    <row r="724" ht="14.4" spans="1:4">
       <c r="A724" s="2" t="s">
         <v>1692</v>
       </c>
@@ -17444,7 +18068,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="725" spans="1:4" ht="14.45">
+    <row r="725" ht="14.4" spans="1:4">
       <c r="A725" s="2" t="s">
         <v>1695</v>
       </c>
@@ -17458,7 +18082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="726" spans="1:4" ht="14.45">
+    <row r="726" ht="14.4" spans="1:4">
       <c r="A726" s="2" t="s">
         <v>1697</v>
       </c>
@@ -17472,7 +18096,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="727" spans="1:4" ht="14.45">
+    <row r="727" ht="14.4" spans="1:4">
       <c r="A727" s="2" t="s">
         <v>1699</v>
       </c>
@@ -17486,7 +18110,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="728" spans="1:4" ht="14.45">
+    <row r="728" ht="14.4" spans="1:4">
       <c r="A728" s="2" t="s">
         <v>1701</v>
       </c>
@@ -17500,7 +18124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="729" spans="1:4" ht="14.45">
+    <row r="729" ht="14.4" spans="1:4">
       <c r="A729" s="2" t="s">
         <v>1703</v>
       </c>
@@ -17514,7 +18138,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="730" spans="1:4" ht="14.45">
+    <row r="730" ht="14.4" spans="1:4">
       <c r="A730" s="2" t="s">
         <v>1705</v>
       </c>
@@ -17528,7 +18152,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="731" spans="1:4" ht="14.45">
+    <row r="731" ht="14.4" spans="1:4">
       <c r="A731" s="2" t="s">
         <v>1707</v>
       </c>
@@ -17542,7 +18166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="732" spans="1:4" ht="14.45">
+    <row r="732" ht="14.4" spans="1:4">
       <c r="A732" s="2" t="s">
         <v>1709</v>
       </c>
@@ -17556,7 +18180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="733" spans="1:4" ht="14.45">
+    <row r="733" ht="14.4" spans="1:4">
       <c r="A733" s="2" t="s">
         <v>1711</v>
       </c>
@@ -17570,7 +18194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="734" spans="1:4" ht="14.45">
+    <row r="734" ht="14.4" spans="1:4">
       <c r="A734" s="2" t="s">
         <v>1713</v>
       </c>
@@ -17584,7 +18208,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="735" spans="1:4" ht="14.45">
+    <row r="735" ht="14.4" spans="1:4">
       <c r="A735" s="2" t="s">
         <v>1715</v>
       </c>
@@ -17598,7 +18222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="14.45">
+    <row r="736" ht="14.4" spans="1:4">
       <c r="A736" s="2" t="s">
         <v>1717</v>
       </c>
@@ -17612,7 +18236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="14.45">
+    <row r="737" ht="14.4" spans="1:4">
       <c r="A737" s="2" t="s">
         <v>1719</v>
       </c>
@@ -17626,7 +18250,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="14.45">
+    <row r="738" ht="14.4" spans="1:4">
       <c r="A738" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17640,7 +18264,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="739" spans="1:4" ht="14.45">
+    <row r="739" ht="14.4" spans="1:4">
       <c r="A739" s="2" t="s">
         <v>1724</v>
       </c>
@@ -17654,7 +18278,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="740" spans="1:4" ht="14.45">
+    <row r="740" ht="14.4" spans="1:4">
       <c r="A740" s="2" t="s">
         <v>1726</v>
       </c>
@@ -17668,7 +18292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="741" spans="1:4" ht="14.45">
+    <row r="741" ht="14.4" spans="1:4">
       <c r="A741" s="2" t="s">
         <v>1729</v>
       </c>
@@ -17682,7 +18306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="742" spans="1:4" ht="14.45">
+    <row r="742" ht="14.4" spans="1:4">
       <c r="A742" s="2" t="s">
         <v>1732</v>
       </c>
@@ -17696,7 +18320,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="743" spans="1:4" ht="14.45">
+    <row r="743" ht="14.4" spans="1:4">
       <c r="A743" s="2" t="s">
         <v>1735</v>
       </c>
@@ -17710,7 +18334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="744" spans="1:4" ht="14.45">
+    <row r="744" ht="14.4" spans="1:4">
       <c r="A744" s="2" t="s">
         <v>1737</v>
       </c>
@@ -17724,7 +18348,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="745" spans="1:4" ht="14.45">
+    <row r="745" ht="14.4" spans="1:4">
       <c r="A745" s="2" t="s">
         <v>1739</v>
       </c>
@@ -17738,7 +18362,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="746" spans="1:4" ht="14.45">
+    <row r="746" ht="14.4" spans="1:4">
       <c r="A746" s="2" t="s">
         <v>1742</v>
       </c>
@@ -17752,7 +18376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="747" spans="1:4" ht="14.45">
+    <row r="747" ht="14.4" spans="1:4">
       <c r="A747" s="2" t="s">
         <v>1744</v>
       </c>
@@ -17766,7 +18390,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="748" spans="1:4" ht="14.45">
+    <row r="748" ht="14.4" spans="1:4">
       <c r="A748" s="2" t="s">
         <v>1746</v>
       </c>
@@ -17780,7 +18404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="749" spans="1:4" ht="14.45">
+    <row r="749" ht="14.4" spans="1:4">
       <c r="A749" s="2" t="s">
         <v>1748</v>
       </c>
@@ -17794,7 +18418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="750" spans="1:4" ht="14.45">
+    <row r="750" ht="14.4" spans="1:4">
       <c r="A750" s="2" t="s">
         <v>1750</v>
       </c>
@@ -17808,7 +18432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="751" spans="1:4" ht="14.45">
+    <row r="751" ht="14.4" spans="1:4">
       <c r="A751" s="2" t="s">
         <v>1752</v>
       </c>
@@ -17822,7 +18446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="14.45">
+    <row r="752" ht="14.4" spans="1:4">
       <c r="A752" s="2" t="s">
         <v>1754</v>
       </c>
@@ -17836,7 +18460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="753" spans="1:4" ht="14.45">
+    <row r="753" ht="14.4" spans="1:4">
       <c r="A753" s="2" t="s">
         <v>1756</v>
       </c>
@@ -17850,7 +18474,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="14.45">
+    <row r="754" ht="14.4" spans="1:4">
       <c r="A754" s="2" t="s">
         <v>1758</v>
       </c>
@@ -17864,7 +18488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="14.45">
+    <row r="755" ht="14.4" spans="1:4">
       <c r="A755" s="2" t="s">
         <v>1760</v>
       </c>
@@ -17878,7 +18502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="14.45">
+    <row r="756" ht="14.4" spans="1:4">
       <c r="A756" s="2" t="s">
         <v>1763</v>
       </c>
@@ -17892,7 +18516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="14.45">
+    <row r="757" ht="14.4" spans="1:4">
       <c r="A757" s="2" t="s">
         <v>1765</v>
       </c>
@@ -17906,7 +18530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="758" spans="1:4" ht="14.45">
+    <row r="758" ht="14.4" spans="1:4">
       <c r="A758" s="2" t="s">
         <v>1767</v>
       </c>
@@ -17920,7 +18544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="14.45">
+    <row r="759" ht="14.4" spans="1:4">
       <c r="A759" s="2" t="s">
         <v>1769</v>
       </c>
@@ -17934,7 +18558,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="760" spans="1:4" ht="14.45">
+    <row r="760" ht="14.4" spans="1:4">
       <c r="A760" s="2" t="s">
         <v>1771</v>
       </c>
@@ -17948,7 +18572,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="761" spans="1:4" ht="14.45">
+    <row r="761" ht="14.4" spans="1:4">
       <c r="A761" s="2" t="s">
         <v>1773</v>
       </c>
@@ -17962,7 +18586,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="14.45">
+    <row r="762" ht="14.4" spans="1:4">
       <c r="A762" s="2" t="s">
         <v>1775</v>
       </c>
@@ -17976,7 +18600,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="763" spans="1:4" ht="14.45">
+    <row r="763" ht="14.4" spans="1:4">
       <c r="A763" s="2" t="s">
         <v>1777</v>
       </c>
@@ -17990,7 +18614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="764" spans="1:4" ht="14.45">
+    <row r="764" ht="14.4" spans="1:4">
       <c r="A764" s="2" t="s">
         <v>1779</v>
       </c>
@@ -18004,7 +18628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="765" spans="1:4" ht="14.45">
+    <row r="765" ht="14.4" spans="1:4">
       <c r="A765" s="2" t="s">
         <v>1781</v>
       </c>
@@ -18018,7 +18642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="766" spans="1:4" ht="14.45">
+    <row r="766" ht="14.4" spans="1:4">
       <c r="A766" s="2" t="s">
         <v>1783</v>
       </c>
@@ -18032,7 +18656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="767" spans="1:4" ht="14.45">
+    <row r="767" ht="14.4" spans="1:4">
       <c r="A767" s="2" t="s">
         <v>1785</v>
       </c>
@@ -18046,7 +18670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="14.45">
+    <row r="768" ht="14.4" spans="1:4">
       <c r="A768" s="2" t="s">
         <v>1787</v>
       </c>
@@ -18060,7 +18684,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="14.45">
+    <row r="769" ht="14.4" spans="1:4">
       <c r="A769" s="2" t="s">
         <v>1789</v>
       </c>
@@ -18074,7 +18698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="14.45">
+    <row r="770" ht="14.4" spans="1:4">
       <c r="A770" s="2" t="s">
         <v>1792</v>
       </c>
@@ -18088,7 +18712,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="14.45">
+    <row r="771" ht="14.4" spans="1:4">
       <c r="A771" s="2" t="s">
         <v>1795</v>
       </c>
@@ -18102,7 +18726,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="14.45">
+    <row r="772" ht="14.4" spans="1:4">
       <c r="A772" s="2" t="s">
         <v>1798</v>
       </c>
@@ -18116,7 +18740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="14.45">
+    <row r="773" ht="14.4" spans="1:4">
       <c r="A773" s="2" t="s">
         <v>1800</v>
       </c>
@@ -18130,7 +18754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="14.45">
+    <row r="774" ht="14.4" spans="1:4">
       <c r="A774" s="2" t="s">
         <v>1802</v>
       </c>
@@ -18144,7 +18768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="14.45">
+    <row r="775" ht="14.4" spans="1:4">
       <c r="A775" s="2" t="s">
         <v>1805</v>
       </c>
@@ -18158,7 +18782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="14.45">
+    <row r="776" ht="14.4" spans="1:4">
       <c r="A776" s="2" t="s">
         <v>1806</v>
       </c>
@@ -18172,7 +18796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="14.45">
+    <row r="777" ht="14.4" spans="1:4">
       <c r="A777" s="2" t="s">
         <v>1808</v>
       </c>
@@ -18186,7 +18810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="14.45">
+    <row r="778" ht="14.4" spans="1:4">
       <c r="A778" s="2" t="s">
         <v>1810</v>
       </c>
@@ -18200,7 +18824,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="14.45">
+    <row r="779" ht="14.4" spans="1:4">
       <c r="A779" s="2" t="s">
         <v>1812</v>
       </c>
@@ -18214,7 +18838,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="14.45">
+    <row r="780" ht="14.4" spans="1:4">
       <c r="A780" s="2" t="s">
         <v>1814</v>
       </c>
@@ -18228,7 +18852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="14.45">
+    <row r="781" ht="14.4" spans="1:4">
       <c r="A781" s="2" t="s">
         <v>1817</v>
       </c>
@@ -18242,7 +18866,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="14.45">
+    <row r="782" ht="14.4" spans="1:4">
       <c r="A782" s="2" t="s">
         <v>1819</v>
       </c>
@@ -18256,7 +18880,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="14.45">
+    <row r="783" ht="14.4" spans="1:4">
       <c r="A783" s="2" t="s">
         <v>1822</v>
       </c>
@@ -18270,7 +18894,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="14.45">
+    <row r="784" ht="14.4" spans="1:4">
       <c r="A784" s="2" t="s">
         <v>1824</v>
       </c>
@@ -18284,7 +18908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="785" spans="1:4" ht="14.45">
+    <row r="785" ht="14.4" spans="1:4">
       <c r="A785" s="2" t="s">
         <v>1826</v>
       </c>
@@ -18298,7 +18922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="786" spans="1:4" ht="14.45">
+    <row r="786" ht="14.4" spans="1:4">
       <c r="A786" s="2" t="s">
         <v>1828</v>
       </c>
@@ -18312,7 +18936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="787" spans="1:4" ht="14.45">
+    <row r="787" ht="14.4" spans="1:4">
       <c r="A787" s="2" t="s">
         <v>1830</v>
       </c>
@@ -18326,7 +18950,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="788" spans="1:4" ht="14.45">
+    <row r="788" ht="14.4" spans="1:4">
       <c r="A788" s="2" t="s">
         <v>1832</v>
       </c>
@@ -18340,7 +18964,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="789" spans="1:4" ht="14.45">
+    <row r="789" ht="14.4" spans="1:4">
       <c r="A789" s="2" t="s">
         <v>1834</v>
       </c>
@@ -18354,7 +18978,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="790" spans="1:4" ht="14.45">
+    <row r="790" ht="14.4" spans="1:4">
       <c r="A790" s="2" t="s">
         <v>1836</v>
       </c>
@@ -18368,7 +18992,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="791" spans="1:4" ht="14.45">
+    <row r="791" ht="14.4" spans="1:4">
       <c r="A791" s="2" t="s">
         <v>1838</v>
       </c>
@@ -18382,7 +19006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="792" spans="1:4" ht="14.45">
+    <row r="792" ht="14.4" spans="1:4">
       <c r="A792" s="2" t="s">
         <v>1840</v>
       </c>
@@ -18396,7 +19020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="793" spans="1:4" ht="14.45">
+    <row r="793" ht="14.4" spans="1:4">
       <c r="A793" s="2" t="s">
         <v>1841</v>
       </c>
@@ -18410,7 +19034,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="794" spans="1:4" ht="14.45">
+    <row r="794" ht="14.4" spans="1:4">
       <c r="A794" s="2" t="s">
         <v>1844</v>
       </c>
@@ -18424,7 +19048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="795" spans="1:4" ht="14.45">
+    <row r="795" ht="14.4" spans="1:4">
       <c r="A795" s="2" t="s">
         <v>1846</v>
       </c>
@@ -18438,7 +19062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="796" spans="1:4" ht="14.45">
+    <row r="796" ht="14.4" spans="1:4">
       <c r="A796" s="2" t="s">
         <v>1848</v>
       </c>
@@ -18452,7 +19076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="797" spans="1:4" ht="14.45">
+    <row r="797" ht="14.4" spans="1:4">
       <c r="A797" s="2" t="s">
         <v>1850</v>
       </c>
@@ -18466,7 +19090,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="798" spans="1:4" ht="14.45">
+    <row r="798" ht="14.4" spans="1:4">
       <c r="A798" s="2" t="s">
         <v>1852</v>
       </c>
@@ -18480,7 +19104,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="14.45">
+    <row r="799" ht="14.4" spans="1:4">
       <c r="A799" s="2" t="s">
         <v>1854</v>
       </c>
@@ -18494,7 +19118,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="14.45">
+    <row r="800" ht="14.4" spans="1:4">
       <c r="A800" s="2" t="s">
         <v>1856</v>
       </c>
@@ -18508,7 +19132,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="14.45">
+    <row r="801" ht="14.4" spans="1:4">
       <c r="A801" s="2" t="s">
         <v>1858</v>
       </c>
@@ -18522,7 +19146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="14.45">
+    <row r="802" ht="14.4" spans="1:4">
       <c r="A802" s="2" t="s">
         <v>1860</v>
       </c>
@@ -18536,7 +19160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="14.45">
+    <row r="803" ht="14.4" spans="1:4">
       <c r="A803" s="2" t="s">
         <v>1862</v>
       </c>
@@ -18550,7 +19174,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="14.45">
+    <row r="804" ht="14.4" spans="1:4">
       <c r="A804" s="2" t="s">
         <v>1864</v>
       </c>
@@ -18564,7 +19188,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="14.45">
+    <row r="805" ht="14.4" spans="1:4">
       <c r="A805" s="2" t="s">
         <v>1866</v>
       </c>
@@ -18578,7 +19202,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="14.45">
+    <row r="806" ht="14.4" spans="1:4">
       <c r="A806" s="2" t="s">
         <v>1868</v>
       </c>
@@ -18592,7 +19216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="14.45">
+    <row r="807" ht="14.4" spans="1:4">
       <c r="A807" s="2" t="s">
         <v>1870</v>
       </c>
@@ -18606,7 +19230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="808" spans="1:4" ht="14.45">
+    <row r="808" ht="14.4" spans="1:4">
       <c r="A808" s="2" t="s">
         <v>1872</v>
       </c>
@@ -18620,7 +19244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="14.45">
+    <row r="809" ht="14.4" spans="1:4">
       <c r="A809" s="2" t="s">
         <v>1874</v>
       </c>
@@ -18634,7 +19258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="14.45">
+    <row r="810" ht="14.4" spans="1:4">
       <c r="A810" s="2" t="s">
         <v>1877</v>
       </c>
@@ -18648,7 +19272,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="811" spans="1:4" ht="14.45">
+    <row r="811" ht="14.4" spans="1:4">
       <c r="A811" s="2" t="s">
         <v>1879</v>
       </c>
@@ -18662,7 +19286,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="812" spans="1:4" ht="14.45">
+    <row r="812" ht="14.4" spans="1:4">
       <c r="A812" s="2" t="s">
         <v>1881</v>
       </c>
@@ -18676,7 +19300,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="813" spans="1:4" ht="14.45">
+    <row r="813" ht="14.4" spans="1:4">
       <c r="A813" s="2" t="s">
         <v>1883</v>
       </c>
@@ -18690,7 +19314,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="814" spans="1:4" ht="14.45">
+    <row r="814" ht="14.4" spans="1:4">
       <c r="A814" s="2" t="s">
         <v>1885</v>
       </c>
@@ -18704,7 +19328,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="815" spans="1:4" ht="14.45">
+    <row r="815" ht="14.4" spans="1:4">
       <c r="A815" s="2" t="s">
         <v>1887</v>
       </c>
@@ -18718,7 +19342,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="816" spans="1:4" ht="14.45">
+    <row r="816" ht="14.4" spans="1:4">
       <c r="A816" s="2" t="s">
         <v>1889</v>
       </c>
@@ -18732,7 +19356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="817" spans="1:4" ht="14.45">
+    <row r="817" ht="14.4" spans="1:4">
       <c r="A817" s="2" t="s">
         <v>1891</v>
       </c>
@@ -18746,7 +19370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="818" spans="1:4" ht="14.45">
+    <row r="818" ht="14.4" spans="1:4">
       <c r="A818" s="2" t="s">
         <v>1893</v>
       </c>
@@ -18760,7 +19384,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="819" spans="1:4" ht="14.45">
+    <row r="819" ht="14.4" spans="1:4">
       <c r="A819" s="2" t="s">
         <v>1895</v>
       </c>
@@ -18774,7 +19398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="820" spans="1:4" ht="14.45">
+    <row r="820" ht="14.4" spans="1:4">
       <c r="A820" s="2" t="s">
         <v>1896</v>
       </c>
@@ -18788,7 +19412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="821" spans="1:4" ht="14.45">
+    <row r="821" ht="14.4" spans="1:4">
       <c r="A821" s="2" t="s">
         <v>1898</v>
       </c>
@@ -18802,7 +19426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="822" spans="1:4" ht="14.45">
+    <row r="822" ht="14.4" spans="1:4">
       <c r="A822" s="2" t="s">
         <v>1900</v>
       </c>
@@ -18816,7 +19440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="823" spans="1:4" ht="14.45">
+    <row r="823" ht="14.4" spans="1:4">
       <c r="A823" s="2" t="s">
         <v>1902</v>
       </c>
@@ -18830,7 +19454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="824" spans="1:4" ht="14.45">
+    <row r="824" ht="14.4" spans="1:4">
       <c r="A824" s="2" t="s">
         <v>1904</v>
       </c>
@@ -18844,7 +19468,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="825" spans="1:4" ht="14.45">
+    <row r="825" ht="14.4" spans="1:4">
       <c r="A825" s="2" t="s">
         <v>1906</v>
       </c>
@@ -18858,7 +19482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="826" spans="1:4" ht="14.45">
+    <row r="826" ht="14.4" spans="1:4">
       <c r="A826" s="2" t="s">
         <v>1908</v>
       </c>
@@ -18872,7 +19496,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="827" spans="1:4" ht="14.45">
+    <row r="827" ht="14.4" spans="1:4">
       <c r="A827" s="2" t="s">
         <v>1910</v>
       </c>
@@ -18886,7 +19510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="828" spans="1:4" ht="14.45">
+    <row r="828" ht="14.4" spans="1:4">
       <c r="A828" s="2" t="s">
         <v>1913</v>
       </c>
@@ -18900,7 +19524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="829" spans="1:4" ht="14.45">
+    <row r="829" ht="14.4" spans="1:4">
       <c r="A829" s="2" t="s">
         <v>1915</v>
       </c>
@@ -18914,7 +19538,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="830" spans="1:4" ht="14.45">
+    <row r="830" ht="14.4" spans="1:4">
       <c r="A830" s="2" t="s">
         <v>1918</v>
       </c>
@@ -18928,7 +19552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="831" spans="1:4" ht="14.45">
+    <row r="831" ht="14.4" spans="1:4">
       <c r="A831" s="2" t="s">
         <v>1921</v>
       </c>
@@ -18942,7 +19566,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="14.45">
+    <row r="832" ht="14.4" spans="1:4">
       <c r="A832" s="2" t="s">
         <v>1924</v>
       </c>
@@ -18956,7 +19580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="833" spans="1:4" ht="14.45">
+    <row r="833" ht="14.4" spans="1:4">
       <c r="A833" s="2" t="s">
         <v>1926</v>
       </c>
@@ -18970,7 +19594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="834" spans="1:4" ht="14.45">
+    <row r="834" ht="14.4" spans="1:4">
       <c r="A834" s="2" t="s">
         <v>1929</v>
       </c>
@@ -18984,7 +19608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="835" spans="1:4" ht="14.45">
+    <row r="835" ht="14.4" spans="1:4">
       <c r="A835" s="2" t="s">
         <v>1932</v>
       </c>
@@ -18998,7 +19622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="836" spans="1:4" ht="14.45">
+    <row r="836" ht="14.4" spans="1:4">
       <c r="A836" s="2" t="s">
         <v>1934</v>
       </c>
@@ -19012,7 +19636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="14.45">
+    <row r="837" ht="14.4" spans="1:4">
       <c r="A837" s="2" t="s">
         <v>1936</v>
       </c>
@@ -19026,7 +19650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="838" spans="1:4" ht="14.45">
+    <row r="838" ht="14.4" spans="1:4">
       <c r="A838" s="2" t="s">
         <v>1938</v>
       </c>
@@ -19040,7 +19664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="839" spans="1:4" ht="14.45">
+    <row r="839" ht="14.4" spans="1:4">
       <c r="A839" s="2" t="s">
         <v>1940</v>
       </c>
@@ -19054,7 +19678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="840" spans="1:4" ht="14.45">
+    <row r="840" ht="14.4" spans="1:4">
       <c r="A840" s="2" t="s">
         <v>1942</v>
       </c>
@@ -19068,7 +19692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="841" spans="1:4" ht="14.45">
+    <row r="841" ht="14.4" spans="1:4">
       <c r="A841" s="2" t="s">
         <v>1944</v>
       </c>
@@ -19082,7 +19706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="842" spans="1:4" ht="14.45">
+    <row r="842" ht="14.4" spans="1:4">
       <c r="A842" s="2" t="s">
         <v>1947</v>
       </c>
@@ -19096,7 +19720,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="843" spans="1:4" ht="14.45">
+    <row r="843" ht="14.4" spans="1:4">
       <c r="A843" s="2" t="s">
         <v>1950</v>
       </c>
@@ -19110,7 +19734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="844" spans="1:4" ht="14.45">
+    <row r="844" ht="14.4" spans="1:4">
       <c r="A844" s="2" t="s">
         <v>1952</v>
       </c>
@@ -19124,7 +19748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="14.45">
+    <row r="845" ht="14.4" spans="1:4">
       <c r="A845" s="2" t="s">
         <v>1954</v>
       </c>
@@ -19138,7 +19762,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="846" spans="1:4" ht="14.45">
+    <row r="846" ht="14.4" spans="1:4">
       <c r="A846" s="2" t="s">
         <v>1956</v>
       </c>
@@ -19152,7 +19776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="847" spans="1:4" ht="14.45">
+    <row r="847" ht="14.4" spans="1:4">
       <c r="A847" s="2" t="s">
         <v>1958</v>
       </c>
@@ -19166,7 +19790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="848" spans="1:4" ht="14.45">
+    <row r="848" ht="14.4" spans="1:4">
       <c r="A848" s="2" t="s">
         <v>1960</v>
       </c>
@@ -19180,7 +19804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="849" spans="1:4" ht="14.45">
+    <row r="849" ht="14.4" spans="1:4">
       <c r="A849" s="2" t="s">
         <v>1962</v>
       </c>
@@ -19194,7 +19818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="850" spans="1:4" ht="14.45">
+    <row r="850" ht="14.4" spans="1:4">
       <c r="A850" s="2" t="s">
         <v>1964</v>
       </c>
@@ -19208,7 +19832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="851" spans="1:4" ht="14.45">
+    <row r="851" ht="14.4" spans="1:4">
       <c r="A851" s="2" t="s">
         <v>1966</v>
       </c>
@@ -19222,7 +19846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="852" spans="1:4" ht="14.45">
+    <row r="852" ht="14.4" spans="1:4">
       <c r="A852" s="2" t="s">
         <v>1968</v>
       </c>
@@ -19236,7 +19860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="853" spans="1:4" ht="14.45">
+    <row r="853" ht="14.4" spans="1:4">
       <c r="A853" s="2" t="s">
         <v>1970</v>
       </c>
@@ -19250,7 +19874,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="854" spans="1:4" ht="14.45">
+    <row r="854" ht="14.4" spans="1:4">
       <c r="A854" s="2" t="s">
         <v>1973</v>
       </c>
@@ -19264,7 +19888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="855" spans="1:4" ht="14.45">
+    <row r="855" ht="14.4" spans="1:4">
       <c r="A855" s="2" t="s">
         <v>1975</v>
       </c>
@@ -19278,7 +19902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="856" spans="1:4" ht="14.45">
+    <row r="856" ht="14.4" spans="1:4">
       <c r="A856" s="2" t="s">
         <v>1977</v>
       </c>
@@ -19292,7 +19916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="857" spans="1:4" ht="14.45">
+    <row r="857" ht="14.4" spans="1:4">
       <c r="A857" s="2" t="s">
         <v>1979</v>
       </c>
@@ -19306,7 +19930,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="858" spans="1:4" ht="14.45">
+    <row r="858" ht="14.4" spans="1:4">
       <c r="A858" s="2" t="s">
         <v>1983</v>
       </c>
@@ -19320,7 +19944,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="859" spans="1:4" ht="14.45">
+    <row r="859" ht="14.4" spans="1:4">
       <c r="A859" s="2" t="s">
         <v>1985</v>
       </c>
@@ -19334,7 +19958,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="860" spans="1:4" ht="14.45">
+    <row r="860" ht="14.4" spans="1:4">
       <c r="A860" s="2" t="s">
         <v>1988</v>
       </c>
@@ -19348,7 +19972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="861" spans="1:4" ht="14.45">
+    <row r="861" ht="14.4" spans="1:4">
       <c r="A861" s="2" t="s">
         <v>1990</v>
       </c>
@@ -19362,7 +19986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="862" spans="1:4" ht="14.45">
+    <row r="862" ht="14.4" spans="1:4">
       <c r="A862" s="2" t="s">
         <v>1992</v>
       </c>
@@ -19376,7 +20000,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="863" spans="1:4" ht="14.45">
+    <row r="863" ht="14.4" spans="1:4">
       <c r="A863" s="2" t="s">
         <v>1994</v>
       </c>
@@ -19390,7 +20014,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="864" spans="1:4" ht="14.45">
+    <row r="864" ht="14.4" spans="1:4">
       <c r="A864" s="2" t="s">
         <v>1996</v>
       </c>
@@ -19404,7 +20028,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="865" spans="1:4" ht="14.45">
+    <row r="865" ht="14.4" spans="1:4">
       <c r="A865" s="2" t="s">
         <v>1999</v>
       </c>
@@ -19418,7 +20042,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="866" spans="1:4" ht="14.45">
+    <row r="866" ht="14.4" spans="1:4">
       <c r="A866" s="2" t="s">
         <v>2001</v>
       </c>
@@ -19432,7 +20056,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="867" spans="1:4" ht="14.45">
+    <row r="867" ht="14.4" spans="1:4">
       <c r="A867" s="2" t="s">
         <v>2004</v>
       </c>
@@ -19446,7 +20070,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="868" spans="1:4" ht="14.45">
+    <row r="868" ht="14.4" spans="1:4">
       <c r="A868" s="2" t="s">
         <v>2006</v>
       </c>
@@ -19460,7 +20084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="869" spans="1:4" ht="14.45">
+    <row r="869" ht="14.4" spans="1:4">
       <c r="A869" s="2" t="s">
         <v>2008</v>
       </c>
@@ -19474,7 +20098,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="870" spans="1:4" ht="14.45">
+    <row r="870" ht="14.4" spans="1:4">
       <c r="A870" s="2" t="s">
         <v>2010</v>
       </c>
@@ -19488,7 +20112,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="871" spans="1:4" ht="14.45">
+    <row r="871" ht="14.4" spans="1:4">
       <c r="A871" s="2" t="s">
         <v>2012</v>
       </c>
@@ -19502,7 +20126,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="872" spans="1:4" ht="14.45">
+    <row r="872" ht="14.4" spans="1:4">
       <c r="A872" s="2" t="s">
         <v>2014</v>
       </c>
@@ -19516,7 +20140,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="873" spans="1:4" ht="14.45">
+    <row r="873" ht="14.4" spans="1:4">
       <c r="A873" s="2" t="s">
         <v>2016</v>
       </c>
@@ -19530,7 +20154,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="874" spans="1:4" ht="14.45">
+    <row r="874" ht="14.4" spans="1:4">
       <c r="A874" s="2" t="s">
         <v>2018</v>
       </c>
@@ -19544,7 +20168,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="875" spans="1:4" ht="14.45">
+    <row r="875" ht="14.4" spans="1:4">
       <c r="A875" s="2" t="s">
         <v>2020</v>
       </c>
@@ -19558,7 +20182,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="876" spans="1:4" ht="14.45">
+    <row r="876" ht="14.4" spans="1:4">
       <c r="A876" s="2" t="s">
         <v>2023</v>
       </c>
@@ -19572,7 +20196,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="877" spans="1:4" ht="14.45">
+    <row r="877" ht="14.4" spans="1:4">
       <c r="A877" s="2" t="s">
         <v>2025</v>
       </c>
@@ -19586,7 +20210,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="878" spans="1:4" ht="14.45">
+    <row r="878" ht="14.4" spans="1:4">
       <c r="A878" s="2" t="s">
         <v>2027</v>
       </c>
@@ -19600,7 +20224,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="14.45">
+    <row r="879" ht="14.4" spans="1:4">
       <c r="A879" s="2" t="s">
         <v>2030</v>
       </c>
@@ -19614,7 +20238,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="880" spans="1:4" ht="14.45">
+    <row r="880" ht="14.4" spans="1:4">
       <c r="A880" s="2" t="s">
         <v>2032</v>
       </c>
@@ -19628,7 +20252,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="881" spans="1:4" ht="14.45">
+    <row r="881" ht="14.4" spans="1:4">
       <c r="A881" s="2" t="s">
         <v>2034</v>
       </c>
@@ -19642,7 +20266,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="882" spans="1:4" ht="14.45">
+    <row r="882" ht="14.4" spans="1:4">
       <c r="A882" s="2" t="s">
         <v>2036</v>
       </c>
@@ -19656,7 +20280,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="883" spans="1:4" ht="14.45">
+    <row r="883" ht="14.4" spans="1:4">
       <c r="A883" s="2" t="s">
         <v>2038</v>
       </c>
@@ -19670,7 +20294,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="884" spans="1:4" ht="14.45">
+    <row r="884" ht="14.4" spans="1:4">
       <c r="A884" s="2" t="s">
         <v>2040</v>
       </c>
@@ -19684,7 +20308,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="885" spans="1:4" ht="14.45">
+    <row r="885" ht="14.4" spans="1:4">
       <c r="A885" s="2" t="s">
         <v>2042</v>
       </c>
@@ -19698,7 +20322,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="886" spans="1:4" ht="14.45">
+    <row r="886" ht="14.4" spans="1:4">
       <c r="A886" s="2" t="s">
         <v>2044</v>
       </c>
@@ -19712,7 +20336,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="887" spans="1:4" ht="14.45">
+    <row r="887" ht="14.4" spans="1:4">
       <c r="A887" s="2" t="s">
         <v>2048</v>
       </c>
@@ -19726,7 +20350,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="888" spans="1:4" ht="14.45">
+    <row r="888" ht="14.4" spans="1:4">
       <c r="A888" s="2" t="s">
         <v>2050</v>
       </c>
@@ -19740,7 +20364,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="889" spans="1:4" ht="14.45">
+    <row r="889" ht="14.4" spans="1:4">
       <c r="A889" s="2" t="s">
         <v>2054</v>
       </c>
@@ -19754,7 +20378,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="890" spans="1:4" ht="14.45">
+    <row r="890" ht="14.4" spans="1:4">
       <c r="A890" s="2" t="s">
         <v>2057</v>
       </c>
@@ -19768,7 +20392,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="891" spans="1:4" ht="14.45">
+    <row r="891" ht="14.4" spans="1:4">
       <c r="A891" s="2" t="s">
         <v>2059</v>
       </c>
@@ -19782,7 +20406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="892" spans="1:4" ht="14.45">
+    <row r="892" ht="14.4" spans="1:4">
       <c r="A892" s="2" t="s">
         <v>2062</v>
       </c>
@@ -19796,7 +20420,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="893" spans="1:4" ht="14.45">
+    <row r="893" ht="14.4" spans="1:4">
       <c r="A893" s="2" t="s">
         <v>2064</v>
       </c>
@@ -19810,7 +20434,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="894" spans="1:4" ht="14.45">
+    <row r="894" ht="14.4" spans="1:4">
       <c r="A894" s="2" t="s">
         <v>2066</v>
       </c>
@@ -19824,7 +20448,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="895" spans="1:4" ht="14.45">
+    <row r="895" ht="14.4" spans="1:4">
       <c r="A895" s="2" t="s">
         <v>2068</v>
       </c>
@@ -19838,7 +20462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="896" spans="1:4" ht="14.45">
+    <row r="896" ht="14.4" spans="1:4">
       <c r="A896" s="2" t="s">
         <v>2071</v>
       </c>
@@ -19852,7 +20476,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="897" spans="1:4" ht="14.45">
+    <row r="897" ht="14.4" spans="1:4">
       <c r="A897" s="2" t="s">
         <v>2074</v>
       </c>
@@ -19866,7 +20490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="898" spans="1:4" ht="14.45">
+    <row r="898" ht="14.4" spans="1:4">
       <c r="A898" s="2" t="s">
         <v>2076</v>
       </c>
@@ -19880,7 +20504,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="899" spans="1:4" ht="14.45">
+    <row r="899" ht="14.4" spans="1:4">
       <c r="A899" s="2" t="s">
         <v>2078</v>
       </c>
@@ -19894,7 +20518,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="900" spans="1:4" ht="14.45">
+    <row r="900" ht="14.4" spans="1:4">
       <c r="A900" s="2" t="s">
         <v>2081</v>
       </c>
@@ -19908,7 +20532,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="901" spans="1:4" ht="14.45">
+    <row r="901" ht="14.4" spans="1:4">
       <c r="A901" s="2" t="s">
         <v>2083</v>
       </c>
@@ -19922,7 +20546,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="902" spans="1:4" ht="14.45">
+    <row r="902" ht="14.4" spans="1:4">
       <c r="A902" s="2" t="s">
         <v>2085</v>
       </c>
@@ -19936,7 +20560,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="903" spans="1:4" ht="14.45">
+    <row r="903" ht="14.4" spans="1:4">
       <c r="A903" s="2" t="s">
         <v>2088</v>
       </c>
@@ -19950,7 +20574,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="904" spans="1:4" ht="14.45">
+    <row r="904" ht="14.4" spans="1:4">
       <c r="A904" s="2" t="s">
         <v>2090</v>
       </c>
@@ -19964,7 +20588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="905" spans="1:4" ht="14.45">
+    <row r="905" ht="14.4" spans="1:4">
       <c r="A905" s="2" t="s">
         <v>2092</v>
       </c>
@@ -19978,7 +20602,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="906" spans="1:4" ht="14.45">
+    <row r="906" ht="14.4" spans="1:4">
       <c r="A906" s="2" t="s">
         <v>2094</v>
       </c>
@@ -19992,7 +20616,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="907" spans="1:4" ht="14.45">
+    <row r="907" ht="14.4" spans="1:4">
       <c r="A907" s="2" t="s">
         <v>2096</v>
       </c>
@@ -20006,7 +20630,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="908" spans="1:4" ht="14.45">
+    <row r="908" ht="14.4" spans="1:4">
       <c r="A908" s="2" t="s">
         <v>2100</v>
       </c>
@@ -20020,7 +20644,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="909" spans="1:4" ht="14.45">
+    <row r="909" ht="14.4" spans="1:4">
       <c r="A909" s="2" t="s">
         <v>2102</v>
       </c>
@@ -20034,7 +20658,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="910" spans="1:4" ht="14.45">
+    <row r="910" ht="14.4" spans="1:4">
       <c r="A910" s="2" t="s">
         <v>2104</v>
       </c>
@@ -20048,7 +20672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="911" spans="1:4" ht="14.45">
+    <row r="911" ht="14.4" spans="1:4">
       <c r="A911" s="2" t="s">
         <v>2105</v>
       </c>
@@ -20062,7 +20686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="912" spans="1:4" ht="14.45">
+    <row r="912" ht="14.4" spans="1:4">
       <c r="A912" s="2" t="s">
         <v>2107</v>
       </c>
@@ -20076,7 +20700,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="913" spans="1:4" ht="14.45">
+    <row r="913" ht="14.4" spans="1:4">
       <c r="A913" s="2" t="s">
         <v>2109</v>
       </c>
@@ -20090,7 +20714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="914" spans="1:4" ht="14.45">
+    <row r="914" ht="14.4" spans="1:4">
       <c r="A914" s="2" t="s">
         <v>2111</v>
       </c>
@@ -20104,7 +20728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="915" spans="1:4" ht="14.45">
+    <row r="915" ht="14.4" spans="1:4">
       <c r="A915" s="2" t="s">
         <v>2113</v>
       </c>
@@ -20118,7 +20742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="916" spans="1:4" ht="14.45">
+    <row r="916" ht="14.4" spans="1:4">
       <c r="A916" s="2" t="s">
         <v>2115</v>
       </c>
@@ -20132,7 +20756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="917" spans="1:4" ht="14.45">
+    <row r="917" ht="14.4" spans="1:4">
       <c r="A917" s="2" t="s">
         <v>2118</v>
       </c>
@@ -20146,7 +20770,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="918" spans="1:4" ht="14.45">
+    <row r="918" ht="14.4" spans="1:4">
       <c r="A918" s="2" t="s">
         <v>2121</v>
       </c>
@@ -20160,7 +20784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="919" spans="1:4" ht="14.45">
+    <row r="919" ht="14.4" spans="1:4">
       <c r="A919" s="2" t="s">
         <v>2123</v>
       </c>
@@ -20174,7 +20798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="920" spans="1:4" ht="14.45">
+    <row r="920" ht="14.4" spans="1:4">
       <c r="A920" s="2" t="s">
         <v>2125</v>
       </c>
@@ -20188,7 +20812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="921" spans="1:4" ht="14.45">
+    <row r="921" ht="14.4" spans="1:4">
       <c r="A921" s="2" t="s">
         <v>2128</v>
       </c>
@@ -20202,7 +20826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="922" spans="1:4" ht="14.45">
+    <row r="922" ht="14.4" spans="1:4">
       <c r="A922" s="2" t="s">
         <v>2130</v>
       </c>
@@ -20216,7 +20840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="923" spans="1:4" ht="14.45">
+    <row r="923" ht="14.4" spans="1:4">
       <c r="A923" s="2" t="s">
         <v>2133</v>
       </c>
@@ -20230,7 +20854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="924" spans="1:4" ht="14.45">
+    <row r="924" ht="14.4" spans="1:4">
       <c r="A924" s="2" t="s">
         <v>2135</v>
       </c>
@@ -20244,7 +20868,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="925" spans="1:4" ht="14.45">
+    <row r="925" ht="14.4" spans="1:4">
       <c r="A925" s="2" t="s">
         <v>2137</v>
       </c>
@@ -20258,7 +20882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="926" spans="1:4" ht="14.45">
+    <row r="926" ht="14.4" spans="1:4">
       <c r="A926" s="2" t="s">
         <v>2139</v>
       </c>
@@ -20272,7 +20896,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="927" spans="1:4" ht="14.45">
+    <row r="927" ht="14.4" spans="1:4">
       <c r="A927" s="2" t="s">
         <v>2141</v>
       </c>
@@ -20286,7 +20910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="928" spans="1:4" ht="14.45">
+    <row r="928" ht="14.4" spans="1:4">
       <c r="A928" s="2" t="s">
         <v>2143</v>
       </c>
@@ -20300,7 +20924,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="929" spans="1:4" ht="14.45">
+    <row r="929" ht="14.4" spans="1:4">
       <c r="A929" s="2" t="s">
         <v>2145</v>
       </c>
@@ -20314,7 +20938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="930" spans="1:4" ht="14.45">
+    <row r="930" ht="14.4" spans="1:4">
       <c r="A930" s="2" t="s">
         <v>2147</v>
       </c>
@@ -20328,7 +20952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="931" spans="1:4" ht="14.45">
+    <row r="931" ht="14.4" spans="1:4">
       <c r="A931" s="2" t="s">
         <v>2149</v>
       </c>
@@ -20342,7 +20966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="932" spans="1:4" ht="14.45">
+    <row r="932" ht="14.4" spans="1:4">
       <c r="A932" s="2" t="s">
         <v>2152</v>
       </c>
@@ -20356,7 +20980,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="933" spans="1:4" ht="14.45">
+    <row r="933" ht="14.4" spans="1:4">
       <c r="A933" s="2" t="s">
         <v>2155</v>
       </c>
@@ -20370,7 +20994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="934" spans="1:4" ht="14.45">
+    <row r="934" ht="14.4" spans="1:4">
       <c r="A934" s="2" t="s">
         <v>2156</v>
       </c>
@@ -20384,7 +21008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="935" spans="1:4" ht="14.45">
+    <row r="935" ht="14.4" spans="1:4">
       <c r="A935" s="2" t="s">
         <v>2159</v>
       </c>
@@ -20398,7 +21022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="936" spans="1:4" ht="14.45">
+    <row r="936" ht="14.4" spans="1:4">
       <c r="A936" s="2" t="s">
         <v>2162</v>
       </c>
@@ -20412,7 +21036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="937" spans="1:4" ht="14.45">
+    <row r="937" ht="14.4" spans="1:4">
       <c r="A937" s="2" t="s">
         <v>2165</v>
       </c>
@@ -20426,7 +21050,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="938" spans="1:4" ht="14.45">
+    <row r="938" ht="14.4" spans="1:4">
       <c r="A938" s="2" t="s">
         <v>2167</v>
       </c>
@@ -20440,7 +21064,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="939" spans="1:4" ht="14.45">
+    <row r="939" ht="14.4" spans="1:4">
       <c r="A939" s="2" t="s">
         <v>2170</v>
       </c>
@@ -20454,7 +21078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="940" spans="1:4" ht="14.45">
+    <row r="940" ht="14.4" spans="1:4">
       <c r="A940" s="2" t="s">
         <v>2172</v>
       </c>
@@ -20468,7 +21092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="941" spans="1:4" ht="14.45">
+    <row r="941" ht="14.4" spans="1:4">
       <c r="A941" s="2" t="s">
         <v>2174</v>
       </c>
@@ -20482,7 +21106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="942" spans="1:4" ht="14.45">
+    <row r="942" ht="14.4" spans="1:4">
       <c r="A942" s="2" t="s">
         <v>2176</v>
       </c>
@@ -20496,7 +21120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="943" spans="1:4" ht="14.45">
+    <row r="943" ht="14.4" spans="1:4">
       <c r="A943" s="2" t="s">
         <v>2178</v>
       </c>
@@ -20510,7 +21134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="944" spans="1:4" ht="14.45">
+    <row r="944" ht="14.4" spans="1:4">
       <c r="A944" s="2" t="s">
         <v>2181</v>
       </c>
@@ -20524,7 +21148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="945" spans="1:4" ht="14.45">
+    <row r="945" ht="14.4" spans="1:4">
       <c r="A945" s="2" t="s">
         <v>2183</v>
       </c>
@@ -20538,7 +21162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="946" spans="1:4" ht="14.45">
+    <row r="946" ht="14.4" spans="1:4">
       <c r="A946" s="2" t="s">
         <v>2185</v>
       </c>
@@ -20552,7 +21176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="947" spans="1:4" ht="14.45">
+    <row r="947" ht="14.4" spans="1:4">
       <c r="A947" s="2" t="s">
         <v>2187</v>
       </c>
@@ -20566,7 +21190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="948" spans="1:4" ht="14.45">
+    <row r="948" ht="14.4" spans="1:4">
       <c r="A948" s="2" t="s">
         <v>2189</v>
       </c>
@@ -20580,7 +21204,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="949" spans="1:4" ht="14.45">
+    <row r="949" ht="14.4" spans="1:4">
       <c r="A949" s="2" t="s">
         <v>2191</v>
       </c>
@@ -20594,7 +21218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="950" spans="1:4" ht="14.45">
+    <row r="950" ht="14.4" spans="1:4">
       <c r="A950" s="2" t="s">
         <v>2193</v>
       </c>
@@ -20608,7 +21232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="951" spans="1:4" ht="14.45">
+    <row r="951" ht="14.4" spans="1:4">
       <c r="A951" s="2" t="s">
         <v>2195</v>
       </c>
@@ -20622,7 +21246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="952" spans="1:4" ht="14.45">
+    <row r="952" ht="14.4" spans="1:4">
       <c r="A952" s="2" t="s">
         <v>2197</v>
       </c>
@@ -20636,7 +21260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="953" spans="1:4" ht="14.45">
+    <row r="953" ht="14.4" spans="1:4">
       <c r="A953" s="2" t="s">
         <v>2199</v>
       </c>
@@ -20650,7 +21274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="954" spans="1:4" ht="14.45">
+    <row r="954" ht="14.4" spans="1:4">
       <c r="A954" s="2" t="s">
         <v>2201</v>
       </c>
@@ -20664,7 +21288,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="955" spans="1:4" ht="14.45">
+    <row r="955" ht="14.4" spans="1:4">
       <c r="A955" s="2" t="s">
         <v>2203</v>
       </c>
@@ -20678,7 +21302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="956" spans="1:4" ht="14.45">
+    <row r="956" ht="14.4" spans="1:4">
       <c r="A956" s="2" t="s">
         <v>2205</v>
       </c>
@@ -20692,7 +21316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="957" spans="1:4" ht="14.45">
+    <row r="957" ht="14.4" spans="1:4">
       <c r="A957" s="2" t="s">
         <v>2207</v>
       </c>
@@ -20706,7 +21330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="958" spans="1:4" ht="14.45">
+    <row r="958" ht="14.4" spans="1:4">
       <c r="A958" s="2" t="s">
         <v>2209</v>
       </c>
@@ -20720,7 +21344,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="959" spans="1:4" ht="14.45">
+    <row r="959" ht="14.4" spans="1:4">
       <c r="A959" s="2" t="s">
         <v>2212</v>
       </c>
@@ -20734,7 +21358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="960" spans="1:4" ht="14.45">
+    <row r="960" ht="14.4" spans="1:4">
       <c r="A960" s="2" t="s">
         <v>2214</v>
       </c>
@@ -20748,7 +21372,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="961" spans="1:4" ht="14.45">
+    <row r="961" ht="14.4" spans="1:4">
       <c r="A961" s="2" t="s">
         <v>2217</v>
       </c>
@@ -20762,7 +21386,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="962" spans="1:4" ht="14.45">
+    <row r="962" ht="14.4" spans="1:4">
       <c r="A962" s="2" t="s">
         <v>2220</v>
       </c>
@@ -20776,7 +21400,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="963" spans="1:4" ht="14.45">
+    <row r="963" ht="14.4" spans="1:4">
       <c r="A963" s="2" t="s">
         <v>2222</v>
       </c>
@@ -20790,7 +21414,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="964" spans="1:4" ht="14.45">
+    <row r="964" ht="14.4" spans="1:4">
       <c r="A964" s="2" t="s">
         <v>2225</v>
       </c>
@@ -20804,7 +21428,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="965" spans="1:4" ht="14.45">
+    <row r="965" ht="14.4" spans="1:4">
       <c r="A965" s="2" t="s">
         <v>2228</v>
       </c>
@@ -20818,7 +21442,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="966" spans="1:4" ht="14.45">
+    <row r="966" ht="14.4" spans="1:4">
       <c r="A966" s="2" t="s">
         <v>2230</v>
       </c>
@@ -20832,7 +21456,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="967" spans="1:4" ht="14.45">
+    <row r="967" ht="14.4" spans="1:4">
       <c r="A967" s="2" t="s">
         <v>2232</v>
       </c>
@@ -20846,7 +21470,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="968" spans="1:4" ht="14.45">
+    <row r="968" ht="14.4" spans="1:4">
       <c r="A968" s="2" t="s">
         <v>2234</v>
       </c>
@@ -20860,7 +21484,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="969" spans="1:4" ht="14.45">
+    <row r="969" ht="14.4" spans="1:4">
       <c r="A969" s="2" t="s">
         <v>2236</v>
       </c>
@@ -20874,7 +21498,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="970" spans="1:4" ht="14.45">
+    <row r="970" ht="14.4" spans="1:4">
       <c r="A970" s="2" t="s">
         <v>2238</v>
       </c>
@@ -20888,7 +21512,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="971" spans="1:4" ht="14.45">
+    <row r="971" ht="14.4" spans="1:4">
       <c r="A971" s="2" t="s">
         <v>2240</v>
       </c>
@@ -20902,7 +21526,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="972" spans="1:4" ht="14.45">
+    <row r="972" ht="14.4" spans="1:4">
       <c r="A972" s="2" t="s">
         <v>2242</v>
       </c>
@@ -20916,7 +21540,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="973" spans="1:4" ht="14.45">
+    <row r="973" ht="14.4" spans="1:4">
       <c r="A973" s="2" t="s">
         <v>2245</v>
       </c>
@@ -20930,7 +21554,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="974" spans="1:4" ht="14.45">
+    <row r="974" ht="14.4" spans="1:4">
       <c r="A974" s="2" t="s">
         <v>2248</v>
       </c>
@@ -20944,7 +21568,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="975" spans="1:4" ht="14.45">
+    <row r="975" ht="14.4" spans="1:4">
       <c r="A975" s="2" t="s">
         <v>2250</v>
       </c>
@@ -20958,7 +21582,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="976" spans="1:4" ht="14.45">
+    <row r="976" ht="14.4" spans="1:4">
       <c r="A976" s="2" t="s">
         <v>2252</v>
       </c>
@@ -20972,7 +21596,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="977" spans="1:4" ht="14.45">
+    <row r="977" ht="14.4" spans="1:4">
       <c r="A977" s="2" t="s">
         <v>2254</v>
       </c>
@@ -20986,7 +21610,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="978" spans="1:4" ht="14.45">
+    <row r="978" ht="14.4" spans="1:4">
       <c r="A978" s="2" t="s">
         <v>2257</v>
       </c>
@@ -21000,7 +21624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="979" spans="1:4" ht="14.45">
+    <row r="979" ht="14.4" spans="1:4">
       <c r="A979" s="2" t="s">
         <v>2258</v>
       </c>
@@ -21014,7 +21638,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="980" spans="1:4" ht="14.45">
+    <row r="980" ht="14.4" spans="1:4">
       <c r="A980" s="2" t="s">
         <v>2260</v>
       </c>
@@ -21028,7 +21652,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="981" spans="1:4" ht="14.45">
+    <row r="981" ht="14.4" spans="1:4">
       <c r="A981" s="2" t="s">
         <v>2262</v>
       </c>
@@ -21042,7 +21666,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="982" spans="1:4" ht="14.45">
+    <row r="982" ht="14.4" spans="1:4">
       <c r="A982" s="2" t="s">
         <v>2264</v>
       </c>
@@ -21056,7 +21680,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="983" spans="1:4" ht="14.45">
+    <row r="983" ht="14.4" spans="1:4">
       <c r="A983" s="2" t="s">
         <v>2266</v>
       </c>
@@ -21070,7 +21694,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="984" spans="1:4" ht="14.45">
+    <row r="984" ht="14.4" spans="1:4">
       <c r="A984" s="2" t="s">
         <v>2268</v>
       </c>
@@ -21084,7 +21708,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="985" spans="1:4" ht="14.45">
+    <row r="985" ht="14.4" spans="1:4">
       <c r="A985" s="2" t="s">
         <v>2270</v>
       </c>
@@ -21098,7 +21722,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="986" spans="1:4" ht="14.45">
+    <row r="986" ht="14.4" spans="1:4">
       <c r="A986" s="2" t="s">
         <v>2272</v>
       </c>
@@ -21112,7 +21736,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="987" spans="1:4" ht="14.45">
+    <row r="987" ht="14.4" spans="1:4">
       <c r="A987" s="2" t="s">
         <v>2274</v>
       </c>
@@ -21126,7 +21750,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="988" spans="1:4" ht="14.45">
+    <row r="988" ht="14.4" spans="1:4">
       <c r="A988" s="2" t="s">
         <v>2276</v>
       </c>
@@ -21140,7 +21764,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="989" spans="1:4" ht="14.45">
+    <row r="989" ht="14.4" spans="1:4">
       <c r="A989" s="2" t="s">
         <v>2278</v>
       </c>
@@ -21154,7 +21778,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="990" spans="1:4" ht="14.45">
+    <row r="990" ht="14.4" spans="1:4">
       <c r="A990" s="2" t="s">
         <v>2280</v>
       </c>
@@ -21168,7 +21792,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="991" spans="1:4" ht="14.45">
+    <row r="991" ht="14.4" spans="1:4">
       <c r="A991" s="2" t="s">
         <v>2282</v>
       </c>
@@ -21182,7 +21806,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="992" spans="1:4" ht="14.45">
+    <row r="992" ht="14.4" spans="1:4">
       <c r="A992" s="2" t="s">
         <v>2283</v>
       </c>
@@ -21196,7 +21820,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="993" spans="1:4" ht="14.45">
+    <row r="993" ht="14.4" spans="1:4">
       <c r="A993" s="2" t="s">
         <v>2285</v>
       </c>
@@ -21210,7 +21834,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="994" spans="1:4" ht="14.45">
+    <row r="994" ht="14.4" spans="1:4">
       <c r="A994" s="2" t="s">
         <v>2288</v>
       </c>
@@ -21224,7 +21848,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="995" spans="1:4" ht="14.45">
+    <row r="995" ht="14.4" spans="1:4">
       <c r="A995" s="2" t="s">
         <v>2290</v>
       </c>
@@ -21238,7 +21862,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="996" spans="1:4" ht="14.45">
+    <row r="996" ht="14.4" spans="1:4">
       <c r="A996" s="2" t="s">
         <v>2292</v>
       </c>
@@ -21252,7 +21876,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="997" spans="1:4" ht="14.45">
+    <row r="997" ht="14.4" spans="1:4">
       <c r="A997" s="2" t="s">
         <v>2294</v>
       </c>
@@ -21266,7 +21890,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="998" spans="1:4" ht="14.45">
+    <row r="998" ht="14.4" spans="1:4">
       <c r="A998" s="2" t="s">
         <v>2296</v>
       </c>
@@ -21280,7 +21904,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="999" spans="1:4" ht="14.45">
+    <row r="999" ht="14.4" spans="1:4">
       <c r="A999" s="2" t="s">
         <v>2298</v>
       </c>
@@ -21294,7 +21918,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" ht="14.45">
+    <row r="1000" ht="14.4" spans="1:4">
       <c r="A1000" s="2" t="s">
         <v>2300</v>
       </c>
@@ -21308,7 +21932,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" ht="14.45">
+    <row r="1001" ht="14.4" spans="1:4">
       <c r="A1001" s="2" t="s">
         <v>2302</v>
       </c>
@@ -21322,7 +21946,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" ht="14.45">
+    <row r="1002" ht="14.4" spans="1:4">
       <c r="A1002" s="2" t="s">
         <v>2304</v>
       </c>
@@ -21336,7 +21960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" ht="14.45">
+    <row r="1003" ht="14.4" spans="1:4">
       <c r="A1003" s="2" t="s">
         <v>2306</v>
       </c>
@@ -21350,7 +21974,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" ht="14.45">
+    <row r="1004" ht="14.4" spans="1:4">
       <c r="A1004" s="2" t="s">
         <v>2308</v>
       </c>
@@ -21364,7 +21988,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" ht="14.45">
+    <row r="1005" ht="14.4" spans="1:4">
       <c r="A1005" s="2" t="s">
         <v>2311</v>
       </c>
@@ -21378,7 +22002,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" ht="14.45">
+    <row r="1006" ht="14.4" spans="1:4">
       <c r="A1006" s="2" t="s">
         <v>2313</v>
       </c>
@@ -21392,7 +22016,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" ht="14.45">
+    <row r="1007" ht="14.4" spans="1:4">
       <c r="A1007" s="2" t="s">
         <v>2315</v>
       </c>
@@ -21406,7 +22030,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" ht="14.45">
+    <row r="1008" ht="14.4" spans="1:4">
       <c r="A1008" s="2" t="s">
         <v>2317</v>
       </c>
@@ -21420,7 +22044,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" ht="14.45">
+    <row r="1009" ht="14.4" spans="1:4">
       <c r="A1009" s="2" t="s">
         <v>2320</v>
       </c>
@@ -21434,7 +22058,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" ht="14.45">
+    <row r="1010" ht="14.4" spans="1:4">
       <c r="A1010" s="2" t="s">
         <v>2322</v>
       </c>
@@ -21448,7 +22072,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" ht="14.45">
+    <row r="1011" ht="14.4" spans="1:4">
       <c r="A1011" s="2" t="s">
         <v>2324</v>
       </c>
@@ -21462,7 +22086,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1012" spans="1:4" ht="14.45">
+    <row r="1012" ht="14.4" spans="1:4">
       <c r="A1012" s="2" t="s">
         <v>2326</v>
       </c>
@@ -21478,5 +22102,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/concat_rule.xlsx
+++ b/data/concat_rule.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adarsh\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C992EC68-8FBF-4DEE-BA0C-74C3FF43BF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="Concat Rule" sheetId="3" r:id="rId1"/>
+    <sheet name="Concat Rule" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -7028,12 +7019,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7041,14 +7039,167 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7061,8 +7212,194 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -7070,26 +7407,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7287,28 +7910,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.712962962963" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.1388888888889" customWidth="1"/>
+    <col min="2" max="2" width="32.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="31.4259259259259" customWidth="1"/>
+    <col min="4" max="4" width="46.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7322,7 +7946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -7336,7 +7960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -7350,7 +7974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -7364,7 +7988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -7378,7 +8002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -7392,7 +8016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -7406,7 +8030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -7420,7 +8044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -7434,7 +8058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -7448,7 +8072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -7462,7 +8086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -7476,7 +8100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -7490,7 +8114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -7504,7 +8128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -7518,7 +8142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -7532,7 +8156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -7546,7 +8170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+    <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -7560,7 +8184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+    <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -7574,7 +8198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+    <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -7588,7 +8212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+    <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -7602,7 +8226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+    <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -7616,7 +8240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+    <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
@@ -7630,7 +8254,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+    <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -7644,7 +8268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+    <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -7658,7 +8282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+    <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>65</v>
       </c>
@@ -7672,7 +8296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -7686,7 +8310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.45">
+    <row r="28" ht="14.4" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
@@ -7700,7 +8324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.45">
+    <row r="29" ht="14.4" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -7714,7 +8338,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.45">
+    <row r="30" ht="14.4" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
@@ -7728,7 +8352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.45">
+    <row r="31" ht="14.4" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>78</v>
       </c>
@@ -7742,7 +8366,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.45">
+    <row r="32" ht="14.4" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>80</v>
       </c>
@@ -7756,7 +8380,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45">
+    <row r="33" ht="14.4" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
@@ -7770,7 +8394,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.45">
+    <row r="34" ht="14.4" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -7784,7 +8408,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45">
+    <row r="35" ht="14.4" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
@@ -7798,7 +8422,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.45">
+    <row r="36" ht="14.4" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -7812,7 +8436,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.45">
+    <row r="37" ht="14.4" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>94</v>
       </c>
@@ -7826,7 +8450,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.45">
+    <row r="38" ht="14.4" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>96</v>
       </c>
@@ -7840,7 +8464,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.45">
+    <row r="39" ht="14.4" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
@@ -7854,7 +8478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.45">
+    <row r="40" ht="14.4" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>102</v>
       </c>
@@ -7868,7 +8492,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.45">
+    <row r="41" ht="14.4" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>104</v>
       </c>
@@ -7882,7 +8506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.45">
+    <row r="42" ht="14.4" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>106</v>
       </c>
@@ -7896,7 +8520,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.45">
+    <row r="43" ht="14.4" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>109</v>
       </c>
@@ -7910,7 +8534,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.45">
+    <row r="44" ht="14.4" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
@@ -7924,7 +8548,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.45">
+    <row r="45" ht="14.4" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>113</v>
       </c>
@@ -7938,7 +8562,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.45">
+    <row r="46" ht="14.4" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>115</v>
       </c>
@@ -7952,7 +8576,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.45">
+    <row r="47" ht="14.4" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>118</v>
       </c>
@@ -7966,7 +8590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.45">
+    <row r="48" ht="14.4" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>120</v>
       </c>
@@ -7980,7 +8604,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.45">
+    <row r="49" ht="14.4" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>122</v>
       </c>
@@ -7994,7 +8618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.45">
+    <row r="50" ht="14.4" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>124</v>
       </c>
@@ -8008,7 +8632,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.45">
+    <row r="51" ht="14.4" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>126</v>
       </c>
@@ -8022,7 +8646,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.45">
+    <row r="52" ht="14.4" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>128</v>
       </c>
@@ -8036,7 +8660,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.45">
+    <row r="53" ht="14.4" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>130</v>
       </c>
@@ -8050,7 +8674,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.45">
+    <row r="54" ht="14.4" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>132</v>
       </c>
@@ -8064,7 +8688,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.45">
+    <row r="55" ht="14.4" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>133</v>
       </c>
@@ -8078,7 +8702,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.45">
+    <row r="56" ht="14.4" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>135</v>
       </c>
@@ -8092,7 +8716,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.45">
+    <row r="57" ht="14.4" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>138</v>
       </c>
@@ -8106,7 +8730,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.45">
+    <row r="58" ht="14.4" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>140</v>
       </c>
@@ -8120,7 +8744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.45">
+    <row r="59" ht="14.4" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>142</v>
       </c>
@@ -8134,7 +8758,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.45">
+    <row r="60" ht="14.4" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>144</v>
       </c>
@@ -8148,7 +8772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.45">
+    <row r="61" ht="14.4" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>146</v>
       </c>
@@ -8162,7 +8786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.45">
+    <row r="62" ht="14.4" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>149</v>
       </c>
@@ -8176,7 +8800,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.45">
+    <row r="63" ht="14.4" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>150</v>
       </c>
@@ -8190,7 +8814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.45">
+    <row r="64" ht="14.4" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>153</v>
       </c>
@@ -8204,7 +8828,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.45">
+    <row r="65" ht="14.4" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>155</v>
       </c>
@@ -8218,7 +8842,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.45">
+    <row r="66" ht="14.4" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>157</v>
       </c>
@@ -8232,7 +8856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.45">
+    <row r="67" ht="14.4" spans="1:4">
       <c r="A67" s="2" t="s">
         <v>159</v>
       </c>
@@ -8246,7 +8870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14.45">
+    <row r="68" ht="14.4" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>161</v>
       </c>
@@ -8260,7 +8884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="14.45">
+    <row r="69" ht="14.4" spans="1:4">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -8274,7 +8898,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14.45">
+    <row r="70" ht="14.4" spans="1:4">
       <c r="A70" s="2" t="s">
         <v>164</v>
       </c>
@@ -8288,7 +8912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="14.45">
+    <row r="71" ht="14.4" spans="1:4">
       <c r="A71" s="2" t="s">
         <v>166</v>
       </c>
@@ -8302,7 +8926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14.45">
+    <row r="72" ht="14.4" spans="1:4">
       <c r="A72" s="2" t="s">
         <v>168</v>
       </c>
@@ -8316,7 +8940,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="14.45">
+    <row r="73" ht="14.4" spans="1:4">
       <c r="A73" s="2" t="s">
         <v>172</v>
       </c>
@@ -8330,7 +8954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="14.45">
+    <row r="74" ht="14.4" spans="1:4">
       <c r="A74" s="2" t="s">
         <v>175</v>
       </c>
@@ -8344,7 +8968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="14.45">
+    <row r="75" ht="14.4" spans="1:4">
       <c r="A75" s="2" t="s">
         <v>178</v>
       </c>
@@ -8358,7 +8982,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="14.45">
+    <row r="76" ht="14.4" spans="1:4">
       <c r="A76" s="2" t="s">
         <v>181</v>
       </c>
@@ -8372,7 +8996,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="14.45">
+    <row r="77" ht="14.4" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>182</v>
       </c>
@@ -8386,7 +9010,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="14.45">
+    <row r="78" ht="14.4" spans="1:4">
       <c r="A78" s="2" t="s">
         <v>183</v>
       </c>
@@ -8400,7 +9024,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14.45">
+    <row r="79" ht="14.4" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>187</v>
       </c>
@@ -8414,7 +9038,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="14.45">
+    <row r="80" ht="14.4" spans="1:4">
       <c r="A80" s="2" t="s">
         <v>190</v>
       </c>
@@ -8428,7 +9052,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="14.45">
+    <row r="81" ht="14.4" spans="1:4">
       <c r="A81" s="2" t="s">
         <v>194</v>
       </c>
@@ -8442,7 +9066,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="14.45">
+    <row r="82" ht="14.4" spans="1:4">
       <c r="A82" s="2" t="s">
         <v>197</v>
       </c>
@@ -8456,7 +9080,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="14.45">
+    <row r="83" ht="14.4" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>199</v>
       </c>
@@ -8470,7 +9094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="14.45">
+    <row r="84" ht="14.4" spans="1:4">
       <c r="A84" s="2" t="s">
         <v>201</v>
       </c>
@@ -8484,7 +9108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="14.45">
+    <row r="85" ht="14.4" spans="1:4">
       <c r="A85" s="2" t="s">
         <v>204</v>
       </c>
@@ -8498,7 +9122,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="14.45">
+    <row r="86" ht="14.4" spans="1:4">
       <c r="A86" s="2" t="s">
         <v>206</v>
       </c>
@@ -8512,7 +9136,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="14.45">
+    <row r="87" ht="14.4" spans="1:4">
       <c r="A87" s="2" t="s">
         <v>208</v>
       </c>
@@ -8526,7 +9150,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="14.45">
+    <row r="88" ht="14.4" spans="1:4">
       <c r="A88" s="2" t="s">
         <v>211</v>
       </c>
@@ -8540,7 +9164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="14.45">
+    <row r="89" ht="14.4" spans="1:4">
       <c r="A89" s="2" t="s">
         <v>213</v>
       </c>
@@ -8554,7 +9178,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="14.45">
+    <row r="90" ht="14.4" spans="1:4">
       <c r="A90" s="2" t="s">
         <v>215</v>
       </c>
@@ -8568,7 +9192,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="14.45">
+    <row r="91" ht="14.4" spans="1:4">
       <c r="A91" s="2" t="s">
         <v>216</v>
       </c>
@@ -8582,7 +9206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="14.45">
+    <row r="92" ht="14.4" spans="1:4">
       <c r="A92" s="2" t="s">
         <v>218</v>
       </c>
@@ -8596,7 +9220,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="14.45">
+    <row r="93" ht="14.4" spans="1:4">
       <c r="A93" s="2" t="s">
         <v>221</v>
       </c>
@@ -8610,7 +9234,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="14.45">
+    <row r="94" ht="14.4" spans="1:4">
       <c r="A94" s="2" t="s">
         <v>224</v>
       </c>
@@ -8624,7 +9248,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="14.45">
+    <row r="95" ht="14.4" spans="1:4">
       <c r="A95" s="2" t="s">
         <v>227</v>
       </c>
@@ -8638,7 +9262,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="14.45">
+    <row r="96" ht="14.4" spans="1:4">
       <c r="A96" s="2" t="s">
         <v>229</v>
       </c>
@@ -8652,7 +9276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="14.45">
+    <row r="97" ht="14.4" spans="1:4">
       <c r="A97" s="2" t="s">
         <v>231</v>
       </c>
@@ -8666,7 +9290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="14.45">
+    <row r="98" ht="14.4" spans="1:4">
       <c r="A98" s="2" t="s">
         <v>233</v>
       </c>
@@ -8680,7 +9304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="14.45">
+    <row r="99" ht="14.4" spans="1:4">
       <c r="A99" s="2" t="s">
         <v>235</v>
       </c>
@@ -8694,7 +9318,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14.45">
+    <row r="100" ht="14.4" spans="1:4">
       <c r="A100" s="2" t="s">
         <v>237</v>
       </c>
@@ -8708,7 +9332,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="14.45">
+    <row r="101" ht="14.4" spans="1:4">
       <c r="A101" s="2" t="s">
         <v>239</v>
       </c>
@@ -8722,7 +9346,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="14.45">
+    <row r="102" ht="14.4" spans="1:4">
       <c r="A102" s="2" t="s">
         <v>241</v>
       </c>
@@ -8736,7 +9360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="14.45">
+    <row r="103" ht="14.4" spans="1:4">
       <c r="A103" s="2" t="s">
         <v>243</v>
       </c>
@@ -8750,7 +9374,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="14.45">
+    <row r="104" ht="14.4" spans="1:4">
       <c r="A104" s="2" t="s">
         <v>245</v>
       </c>
@@ -8764,7 +9388,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="14.45">
+    <row r="105" ht="14.4" spans="1:4">
       <c r="A105" s="2" t="s">
         <v>247</v>
       </c>
@@ -8778,7 +9402,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="14.45">
+    <row r="106" ht="14.4" spans="1:4">
       <c r="A106" s="2" t="s">
         <v>249</v>
       </c>
@@ -8792,7 +9416,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="14.45">
+    <row r="107" ht="14.4" spans="1:4">
       <c r="A107" s="2" t="s">
         <v>251</v>
       </c>
@@ -8806,7 +9430,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="14.45">
+    <row r="108" ht="14.4" spans="1:4">
       <c r="A108" s="2" t="s">
         <v>254</v>
       </c>
@@ -8820,7 +9444,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="14.45">
+    <row r="109" ht="14.4" spans="1:4">
       <c r="A109" s="2" t="s">
         <v>256</v>
       </c>
@@ -8834,7 +9458,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="14.45">
+    <row r="110" ht="14.4" spans="1:4">
       <c r="A110" s="2" t="s">
         <v>258</v>
       </c>
@@ -8848,7 +9472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="14.45">
+    <row r="111" ht="14.4" spans="1:4">
       <c r="A111" s="2" t="s">
         <v>260</v>
       </c>
@@ -8862,7 +9486,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="14.45">
+    <row r="112" ht="14.4" spans="1:4">
       <c r="A112" s="2" t="s">
         <v>261</v>
       </c>
@@ -8876,7 +9500,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="14.45">
+    <row r="113" ht="14.4" spans="1:4">
       <c r="A113" s="2" t="s">
         <v>263</v>
       </c>
@@ -8890,7 +9514,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="14.45">
+    <row r="114" ht="14.4" spans="1:4">
       <c r="A114" s="2" t="s">
         <v>264</v>
       </c>
@@ -8904,7 +9528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="14.45">
+    <row r="115" ht="14.4" spans="1:4">
       <c r="A115" s="2" t="s">
         <v>266</v>
       </c>
@@ -8918,7 +9542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="14.45">
+    <row r="116" ht="14.4" spans="1:4">
       <c r="A116" s="2" t="s">
         <v>268</v>
       </c>
@@ -8932,7 +9556,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="14.45">
+    <row r="117" ht="14.4" spans="1:4">
       <c r="A117" s="2" t="s">
         <v>270</v>
       </c>
@@ -8946,7 +9570,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="14.45">
+    <row r="118" ht="14.4" spans="1:4">
       <c r="A118" s="2" t="s">
         <v>272</v>
       </c>
@@ -8960,7 +9584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="14.45">
+    <row r="119" ht="14.4" spans="1:4">
       <c r="A119" s="2" t="s">
         <v>274</v>
       </c>
@@ -8974,7 +9598,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="14.45">
+    <row r="120" ht="14.4" spans="1:4">
       <c r="A120" s="2" t="s">
         <v>276</v>
       </c>
@@ -8988,7 +9612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="14.45">
+    <row r="121" ht="14.4" spans="1:4">
       <c r="A121" s="2" t="s">
         <v>278</v>
       </c>
@@ -9002,7 +9626,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="14.45">
+    <row r="122" ht="14.4" spans="1:4">
       <c r="A122" s="2" t="s">
         <v>280</v>
       </c>
@@ -9016,7 +9640,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="14.45">
+    <row r="123" ht="14.4" spans="1:4">
       <c r="A123" s="2" t="s">
         <v>282</v>
       </c>
@@ -9030,7 +9654,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="14.45">
+    <row r="124" ht="14.4" spans="1:4">
       <c r="A124" s="2" t="s">
         <v>284</v>
       </c>
@@ -9044,7 +9668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="14.45">
+    <row r="125" ht="14.4" spans="1:4">
       <c r="A125" s="2" t="s">
         <v>286</v>
       </c>
@@ -9058,7 +9682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="14.45">
+    <row r="126" ht="14.4" spans="1:4">
       <c r="A126" s="2" t="s">
         <v>287</v>
       </c>
@@ -9072,7 +9696,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="14.45">
+    <row r="127" ht="14.4" spans="1:4">
       <c r="A127" s="2" t="s">
         <v>289</v>
       </c>
@@ -9086,7 +9710,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="14.45">
+    <row r="128" ht="14.4" spans="1:4">
       <c r="A128" s="2" t="s">
         <v>291</v>
       </c>
@@ -9100,7 +9724,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="14.45">
+    <row r="129" ht="14.4" spans="1:4">
       <c r="A129" s="2" t="s">
         <v>293</v>
       </c>
@@ -9114,7 +9738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="14.45">
+    <row r="130" ht="14.4" spans="1:4">
       <c r="A130" s="2" t="s">
         <v>295</v>
       </c>
@@ -9128,7 +9752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="14.45">
+    <row r="131" ht="14.4" spans="1:4">
       <c r="A131" s="2" t="s">
         <v>297</v>
       </c>
@@ -9142,7 +9766,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="14.45">
+    <row r="132" ht="14.4" spans="1:4">
       <c r="A132" s="2" t="s">
         <v>300</v>
       </c>
@@ -9156,7 +9780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="14.45">
+    <row r="133" ht="14.4" spans="1:4">
       <c r="A133" s="2" t="s">
         <v>302</v>
       </c>
@@ -9170,7 +9794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="14.45">
+    <row r="134" ht="14.4" spans="1:4">
       <c r="A134" s="2" t="s">
         <v>304</v>
       </c>
@@ -9184,7 +9808,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="14.45">
+    <row r="135" ht="14.4" spans="1:4">
       <c r="A135" s="2" t="s">
         <v>306</v>
       </c>
@@ -9198,7 +9822,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="14.45">
+    <row r="136" ht="14.4" spans="1:4">
       <c r="A136" s="2" t="s">
         <v>308</v>
       </c>
@@ -9212,7 +9836,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="14.45">
+    <row r="137" ht="14.4" spans="1:4">
       <c r="A137" s="2" t="s">
         <v>310</v>
       </c>
@@ -9226,7 +9850,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="14.45">
+    <row r="138" ht="14.4" spans="1:4">
       <c r="A138" s="2" t="s">
         <v>312</v>
       </c>
@@ -9240,7 +9864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="14.45">
+    <row r="139" ht="14.4" spans="1:4">
       <c r="A139" s="2" t="s">
         <v>314</v>
       </c>
@@ -9254,7 +9878,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="14.45">
+    <row r="140" ht="14.4" spans="1:4">
       <c r="A140" s="2" t="s">
         <v>317</v>
       </c>
@@ -9268,7 +9892,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="14.45">
+    <row r="141" ht="14.4" spans="1:4">
       <c r="A141" s="2" t="s">
         <v>319</v>
       </c>
@@ -9282,7 +9906,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="14.45">
+    <row r="142" ht="14.4" spans="1:4">
       <c r="A142" s="2" t="s">
         <v>321</v>
       </c>
@@ -9296,7 +9920,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="14.45">
+    <row r="143" ht="14.4" spans="1:4">
       <c r="A143" s="2" t="s">
         <v>325</v>
       </c>
@@ -9310,7 +9934,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="14.45">
+    <row r="144" ht="14.4" spans="1:4">
       <c r="A144" s="2" t="s">
         <v>327</v>
       </c>
@@ -9324,7 +9948,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="14.45">
+    <row r="145" ht="14.4" spans="1:4">
       <c r="A145" s="2" t="s">
         <v>330</v>
       </c>
@@ -9338,7 +9962,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="14.45">
+    <row r="146" ht="14.4" spans="1:4">
       <c r="A146" s="2" t="s">
         <v>332</v>
       </c>
@@ -9352,7 +9976,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="14.45">
+    <row r="147" ht="14.4" spans="1:4">
       <c r="A147" s="2" t="s">
         <v>334</v>
       </c>
@@ -9366,7 +9990,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="14.45">
+    <row r="148" ht="14.4" spans="1:4">
       <c r="A148" s="2" t="s">
         <v>338</v>
       </c>
@@ -9380,7 +10004,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="14.45">
+    <row r="149" ht="14.4" spans="1:4">
       <c r="A149" s="2" t="s">
         <v>341</v>
       </c>
@@ -9394,7 +10018,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="14.45">
+    <row r="150" ht="14.4" spans="1:4">
       <c r="A150" s="2" t="s">
         <v>343</v>
       </c>
@@ -9408,7 +10032,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="14.45">
+    <row r="151" ht="14.4" spans="1:4">
       <c r="A151" s="2" t="s">
         <v>345</v>
       </c>
@@ -9422,7 +10046,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="14.45">
+    <row r="152" ht="14.4" spans="1:4">
       <c r="A152" s="2" t="s">
         <v>347</v>
       </c>
@@ -9436,7 +10060,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="14.45">
+    <row r="153" ht="14.4" spans="1:4">
       <c r="A153" s="2" t="s">
         <v>349</v>
       </c>
@@ -9450,7 +10074,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="14.45">
+    <row r="154" ht="14.4" spans="1:4">
       <c r="A154" s="2" t="s">
         <v>351</v>
       </c>
@@ -9464,7 +10088,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="14.45">
+    <row r="155" ht="14.4" spans="1:4">
       <c r="A155" s="2" t="s">
         <v>353</v>
       </c>
@@ -9478,7 +10102,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="14.45">
+    <row r="156" ht="14.4" spans="1:4">
       <c r="A156" s="2" t="s">
         <v>355</v>
       </c>
@@ -9492,7 +10116,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="14.45">
+    <row r="157" ht="14.4" spans="1:4">
       <c r="A157" s="2" t="s">
         <v>357</v>
       </c>
@@ -9506,7 +10130,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="14.45">
+    <row r="158" ht="14.4" spans="1:4">
       <c r="A158" s="2" t="s">
         <v>359</v>
       </c>
@@ -9520,7 +10144,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="14.45">
+    <row r="159" ht="14.4" spans="1:4">
       <c r="A159" s="2" t="s">
         <v>361</v>
       </c>
@@ -9534,7 +10158,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="14.45">
+    <row r="160" ht="14.4" spans="1:4">
       <c r="A160" s="2" t="s">
         <v>364</v>
       </c>
@@ -9548,7 +10172,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="14.45">
+    <row r="161" ht="14.4" spans="1:4">
       <c r="A161" s="2" t="s">
         <v>366</v>
       </c>
@@ -9562,7 +10186,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="14.45">
+    <row r="162" ht="14.4" spans="1:4">
       <c r="A162" s="2" t="s">
         <v>368</v>
       </c>
@@ -9576,7 +10200,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="14.45">
+    <row r="163" ht="14.4" spans="1:4">
       <c r="A163" s="2" t="s">
         <v>370</v>
       </c>
@@ -9590,7 +10214,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="14.45">
+    <row r="164" ht="14.4" spans="1:4">
       <c r="A164" s="2" t="s">
         <v>372</v>
       </c>
@@ -9604,7 +10228,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="14.45">
+    <row r="165" ht="14.4" spans="1:4">
       <c r="A165" s="2" t="s">
         <v>373</v>
       </c>
@@ -9618,7 +10242,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="14.45">
+    <row r="166" ht="14.4" spans="1:4">
       <c r="A166" s="2" t="s">
         <v>375</v>
       </c>
@@ -9632,7 +10256,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="14.45">
+    <row r="167" ht="14.4" spans="1:4">
       <c r="A167" s="2" t="s">
         <v>377</v>
       </c>
@@ -9646,7 +10270,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="14.45">
+    <row r="168" ht="14.4" spans="1:4">
       <c r="A168" s="2" t="s">
         <v>379</v>
       </c>
@@ -9660,7 +10284,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="14.45">
+    <row r="169" ht="14.4" spans="1:4">
       <c r="A169" s="2" t="s">
         <v>381</v>
       </c>
@@ -9674,7 +10298,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="14.45">
+    <row r="170" ht="14.4" spans="1:4">
       <c r="A170" s="2" t="s">
         <v>383</v>
       </c>
@@ -9688,7 +10312,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="14.45">
+    <row r="171" ht="14.4" spans="1:4">
       <c r="A171" s="2" t="s">
         <v>385</v>
       </c>
@@ -9702,7 +10326,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="14.45">
+    <row r="172" ht="14.4" spans="1:4">
       <c r="A172" s="2" t="s">
         <v>387</v>
       </c>
@@ -9716,7 +10340,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="14.45">
+    <row r="173" ht="14.4" spans="1:4">
       <c r="A173" s="2" t="s">
         <v>389</v>
       </c>
@@ -9730,7 +10354,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="14.45">
+    <row r="174" ht="14.4" spans="1:4">
       <c r="A174" s="2" t="s">
         <v>391</v>
       </c>
@@ -9744,7 +10368,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="14.45">
+    <row r="175" ht="14.4" spans="1:4">
       <c r="A175" s="2" t="s">
         <v>394</v>
       </c>
@@ -9758,7 +10382,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="14.45">
+    <row r="176" ht="14.4" spans="1:4">
       <c r="A176" s="2" t="s">
         <v>396</v>
       </c>
@@ -9772,7 +10396,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="14.45">
+    <row r="177" ht="14.4" spans="1:4">
       <c r="A177" s="2" t="s">
         <v>398</v>
       </c>
@@ -9786,7 +10410,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="14.45">
+    <row r="178" ht="14.4" spans="1:4">
       <c r="A178" s="2" t="s">
         <v>400</v>
       </c>
@@ -9800,7 +10424,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="14.45">
+    <row r="179" ht="14.4" spans="1:4">
       <c r="A179" s="2" t="s">
         <v>402</v>
       </c>
@@ -9814,7 +10438,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="14.45">
+    <row r="180" ht="14.4" spans="1:4">
       <c r="A180" s="2" t="s">
         <v>404</v>
       </c>
@@ -9828,7 +10452,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="14.45">
+    <row r="181" ht="14.4" spans="1:4">
       <c r="A181" s="2" t="s">
         <v>406</v>
       </c>
@@ -9842,7 +10466,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="14.45">
+    <row r="182" ht="14.4" spans="1:4">
       <c r="A182" s="2" t="s">
         <v>408</v>
       </c>
@@ -9856,7 +10480,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="14.45">
+    <row r="183" ht="14.4" spans="1:4">
       <c r="A183" s="2" t="s">
         <v>410</v>
       </c>
@@ -9870,7 +10494,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="14.45">
+    <row r="184" ht="14.4" spans="1:4">
       <c r="A184" s="2" t="s">
         <v>411</v>
       </c>
@@ -9884,7 +10508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="14.45">
+    <row r="185" ht="14.4" spans="1:4">
       <c r="A185" s="2" t="s">
         <v>414</v>
       </c>
@@ -9898,7 +10522,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="14.45">
+    <row r="186" ht="14.4" spans="1:4">
       <c r="A186" s="2" t="s">
         <v>416</v>
       </c>
@@ -9912,7 +10536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="14.45">
+    <row r="187" ht="14.4" spans="1:4">
       <c r="A187" s="2" t="s">
         <v>418</v>
       </c>
@@ -9926,7 +10550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="14.45">
+    <row r="188" ht="14.4" spans="1:4">
       <c r="A188" s="2" t="s">
         <v>421</v>
       </c>
@@ -9940,7 +10564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="14.45">
+    <row r="189" ht="14.4" spans="1:4">
       <c r="A189" s="2" t="s">
         <v>424</v>
       </c>
@@ -9954,7 +10578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="14.45">
+    <row r="190" ht="14.4" spans="1:4">
       <c r="A190" s="2" t="s">
         <v>426</v>
       </c>
@@ -9968,7 +10592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="14.45">
+    <row r="191" ht="14.4" spans="1:4">
       <c r="A191" s="2" t="s">
         <v>428</v>
       </c>
@@ -9982,7 +10606,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="14.45">
+    <row r="192" ht="14.4" spans="1:4">
       <c r="A192" s="2" t="s">
         <v>431</v>
       </c>
@@ -9996,7 +10620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="14.45">
+    <row r="193" ht="14.4" spans="1:4">
       <c r="A193" s="2" t="s">
         <v>433</v>
       </c>
@@ -10010,7 +10634,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="14.45">
+    <row r="194" ht="14.4" spans="1:4">
       <c r="A194" s="2" t="s">
         <v>435</v>
       </c>
@@ -10024,7 +10648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="14.45">
+    <row r="195" ht="14.4" spans="1:4">
       <c r="A195" s="2" t="s">
         <v>438</v>
       </c>
@@ -10038,7 +10662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="14.45">
+    <row r="196" ht="14.4" spans="1:4">
       <c r="A196" s="2" t="s">
         <v>440</v>
       </c>
@@ -10052,7 +10676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="14.45">
+    <row r="197" ht="14.4" spans="1:4">
       <c r="A197" s="2" t="s">
         <v>442</v>
       </c>
@@ -10066,7 +10690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="14.45">
+    <row r="198" ht="14.4" spans="1:4">
       <c r="A198" s="2" t="s">
         <v>445</v>
       </c>
@@ -10080,7 +10704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="14.45">
+    <row r="199" ht="14.4" spans="1:4">
       <c r="A199" s="2" t="s">
         <v>448</v>
       </c>
@@ -10094,7 +10718,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="14.45">
+    <row r="200" ht="14.4" spans="1:4">
       <c r="A200" s="2" t="s">
         <v>451</v>
       </c>
@@ -10108,7 +10732,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="14.45">
+    <row r="201" ht="14.4" spans="1:4">
       <c r="A201" s="2" t="s">
         <v>453</v>
       </c>
@@ -10122,7 +10746,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="14.45">
+    <row r="202" ht="14.4" spans="1:4">
       <c r="A202" s="2" t="s">
         <v>456</v>
       </c>
@@ -10136,7 +10760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="14.45">
+    <row r="203" ht="14.4" spans="1:4">
       <c r="A203" s="2" t="s">
         <v>458</v>
       </c>
@@ -10150,7 +10774,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="14.45">
+    <row r="204" ht="14.4" spans="1:4">
       <c r="A204" s="2" t="s">
         <v>460</v>
       </c>
@@ -10164,7 +10788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="14.45">
+    <row r="205" ht="14.4" spans="1:4">
       <c r="A205" s="2" t="s">
         <v>463</v>
       </c>
@@ -10178,7 +10802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="14.45">
+    <row r="206" ht="14.4" spans="1:4">
       <c r="A206" s="2" t="s">
         <v>466</v>
       </c>
@@ -10192,7 +10816,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="14.45">
+    <row r="207" ht="14.4" spans="1:4">
       <c r="A207" s="2" t="s">
         <v>467</v>
       </c>
@@ -10206,7 +10830,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="14.45">
+    <row r="208" ht="14.4" spans="1:4">
       <c r="A208" s="2" t="s">
         <v>469</v>
       </c>
@@ -10220,7 +10844,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="14.45">
+    <row r="209" ht="14.4" spans="1:4">
       <c r="A209" s="2" t="s">
         <v>471</v>
       </c>
@@ -10234,7 +10858,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="14.45">
+    <row r="210" ht="14.4" spans="1:4">
       <c r="A210" s="2" t="s">
         <v>473</v>
       </c>
@@ -10248,7 +10872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="14.45">
+    <row r="211" ht="14.4" spans="1:4">
       <c r="A211" s="2" t="s">
         <v>476</v>
       </c>
@@ -10262,7 +10886,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="14.45">
+    <row r="212" ht="14.4" spans="1:4">
       <c r="A212" s="2" t="s">
         <v>478</v>
       </c>
@@ -10276,7 +10900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="14.45">
+    <row r="213" ht="14.4" spans="1:4">
       <c r="A213" s="2" t="s">
         <v>480</v>
       </c>
@@ -10290,7 +10914,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="14.45">
+    <row r="214" ht="14.4" spans="1:4">
       <c r="A214" s="2" t="s">
         <v>482</v>
       </c>
@@ -10304,7 +10928,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="14.45">
+    <row r="215" ht="14.4" spans="1:4">
       <c r="A215" s="2" t="s">
         <v>484</v>
       </c>
@@ -10318,7 +10942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="14.45">
+    <row r="216" ht="14.4" spans="1:4">
       <c r="A216" s="2" t="s">
         <v>486</v>
       </c>
@@ -10332,7 +10956,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="14.45">
+    <row r="217" ht="14.4" spans="1:4">
       <c r="A217" s="2" t="s">
         <v>488</v>
       </c>
@@ -10346,7 +10970,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="14.45">
+    <row r="218" ht="14.4" spans="1:4">
       <c r="A218" s="2" t="s">
         <v>490</v>
       </c>
@@ -10360,7 +10984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="14.45">
+    <row r="219" ht="14.4" spans="1:4">
       <c r="A219" s="2" t="s">
         <v>492</v>
       </c>
@@ -10374,7 +10998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="14.45">
+    <row r="220" ht="14.4" spans="1:4">
       <c r="A220" s="2" t="s">
         <v>494</v>
       </c>
@@ -10388,7 +11012,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="14.45">
+    <row r="221" ht="14.4" spans="1:4">
       <c r="A221" s="2" t="s">
         <v>496</v>
       </c>
@@ -10402,7 +11026,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="14.45">
+    <row r="222" ht="14.4" spans="1:4">
       <c r="A222" s="2" t="s">
         <v>498</v>
       </c>
@@ -10416,7 +11040,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="14.45">
+    <row r="223" ht="14.4" spans="1:4">
       <c r="A223" s="2" t="s">
         <v>502</v>
       </c>
@@ -10430,7 +11054,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="14.45">
+    <row r="224" ht="14.4" spans="1:4">
       <c r="A224" s="2" t="s">
         <v>504</v>
       </c>
@@ -10444,7 +11068,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="14.45">
+    <row r="225" ht="14.4" spans="1:4">
       <c r="A225" s="2" t="s">
         <v>506</v>
       </c>
@@ -10458,7 +11082,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="14.45">
+    <row r="226" ht="14.4" spans="1:4">
       <c r="A226" s="2" t="s">
         <v>508</v>
       </c>
@@ -10472,7 +11096,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="14.45">
+    <row r="227" ht="14.4" spans="1:4">
       <c r="A227" s="2" t="s">
         <v>510</v>
       </c>
@@ -10486,7 +11110,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="14.45">
+    <row r="228" ht="14.4" spans="1:4">
       <c r="A228" s="2" t="s">
         <v>512</v>
       </c>
@@ -10500,7 +11124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="14.45">
+    <row r="229" ht="14.4" spans="1:4">
       <c r="A229" s="2" t="s">
         <v>514</v>
       </c>
@@ -10514,7 +11138,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="14.45">
+    <row r="230" ht="14.4" spans="1:4">
       <c r="A230" s="2" t="s">
         <v>516</v>
       </c>
@@ -10528,7 +11152,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="14.45">
+    <row r="231" ht="14.4" spans="1:4">
       <c r="A231" s="2" t="s">
         <v>518</v>
       </c>
@@ -10542,7 +11166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="14.45">
+    <row r="232" ht="14.4" spans="1:4">
       <c r="A232" s="2" t="s">
         <v>520</v>
       </c>
@@ -10556,7 +11180,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="14.45">
+    <row r="233" ht="14.4" spans="1:4">
       <c r="A233" s="2" t="s">
         <v>523</v>
       </c>
@@ -10570,7 +11194,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="14.45">
+    <row r="234" ht="14.4" spans="1:4">
       <c r="A234" s="2" t="s">
         <v>524</v>
       </c>
@@ -10584,7 +11208,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="14.45">
+    <row r="235" ht="14.4" spans="1:4">
       <c r="A235" s="2" t="s">
         <v>526</v>
       </c>
@@ -10598,7 +11222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="14.45">
+    <row r="236" ht="14.4" spans="1:4">
       <c r="A236" s="2" t="s">
         <v>528</v>
       </c>
@@ -10612,7 +11236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="14.45">
+    <row r="237" ht="14.4" spans="1:4">
       <c r="A237" s="2" t="s">
         <v>530</v>
       </c>
@@ -10626,7 +11250,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="14.45">
+    <row r="238" ht="14.4" spans="1:4">
       <c r="A238" s="2" t="s">
         <v>532</v>
       </c>
@@ -10640,7 +11264,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="14.45">
+    <row r="239" ht="14.4" spans="1:4">
       <c r="A239" s="2" t="s">
         <v>534</v>
       </c>
@@ -10654,7 +11278,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="14.45">
+    <row r="240" ht="14.4" spans="1:4">
       <c r="A240" s="2" t="s">
         <v>536</v>
       </c>
@@ -10668,7 +11292,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="14.45">
+    <row r="241" ht="14.4" spans="1:4">
       <c r="A241" s="2" t="s">
         <v>538</v>
       </c>
@@ -10682,7 +11306,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="14.45">
+    <row r="242" ht="14.4" spans="1:4">
       <c r="A242" s="2" t="s">
         <v>541</v>
       </c>
@@ -10696,7 +11320,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="14.45">
+    <row r="243" ht="14.4" spans="1:4">
       <c r="A243" s="2" t="s">
         <v>543</v>
       </c>
@@ -10710,7 +11334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="14.45">
+    <row r="244" ht="14.4" spans="1:4">
       <c r="A244" s="2" t="s">
         <v>545</v>
       </c>
@@ -10724,7 +11348,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="14.45">
+    <row r="245" ht="14.4" spans="1:4">
       <c r="A245" s="2" t="s">
         <v>547</v>
       </c>
@@ -10738,7 +11362,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="14.45">
+    <row r="246" ht="14.4" spans="1:4">
       <c r="A246" s="2" t="s">
         <v>548</v>
       </c>
@@ -10752,7 +11376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="14.45">
+    <row r="247" ht="14.4" spans="1:4">
       <c r="A247" s="2" t="s">
         <v>550</v>
       </c>
@@ -10766,7 +11390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="14.45">
+    <row r="248" ht="14.4" spans="1:4">
       <c r="A248" s="2" t="s">
         <v>553</v>
       </c>
@@ -10780,7 +11404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="14.45">
+    <row r="249" ht="14.4" spans="1:4">
       <c r="A249" s="2" t="s">
         <v>556</v>
       </c>
@@ -10794,7 +11418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="14.45">
+    <row r="250" ht="14.4" spans="1:4">
       <c r="A250" s="2" t="s">
         <v>558</v>
       </c>
@@ -10808,7 +11432,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="14.45">
+    <row r="251" ht="14.4" spans="1:4">
       <c r="A251" s="2" t="s">
         <v>562</v>
       </c>
@@ -10822,7 +11446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="14.45">
+    <row r="252" ht="14.4" spans="1:4">
       <c r="A252" s="2" t="s">
         <v>564</v>
       </c>
@@ -10836,7 +11460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="14.45">
+    <row r="253" ht="14.4" spans="1:4">
       <c r="A253" s="2" t="s">
         <v>567</v>
       </c>
@@ -10850,7 +11474,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="14.45">
+    <row r="254" ht="14.4" spans="1:4">
       <c r="A254" s="2" t="s">
         <v>570</v>
       </c>
@@ -10864,7 +11488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="14.45">
+    <row r="255" ht="14.4" spans="1:4">
       <c r="A255" s="2" t="s">
         <v>573</v>
       </c>
@@ -10878,7 +11502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="14.45">
+    <row r="256" ht="14.4" spans="1:4">
       <c r="A256" s="2" t="s">
         <v>575</v>
       </c>
@@ -10892,7 +11516,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="14.45">
+    <row r="257" ht="14.4" spans="1:4">
       <c r="A257" s="2" t="s">
         <v>577</v>
       </c>
@@ -10906,7 +11530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="14.45">
+    <row r="258" ht="14.4" spans="1:4">
       <c r="A258" s="2" t="s">
         <v>579</v>
       </c>
@@ -10920,7 +11544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="14.45">
+    <row r="259" ht="14.4" spans="1:4">
       <c r="A259" s="2" t="s">
         <v>581</v>
       </c>
@@ -10934,7 +11558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="14.45">
+    <row r="260" ht="14.4" spans="1:4">
       <c r="A260" s="2" t="s">
         <v>583</v>
       </c>
@@ -10948,7 +11572,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="14.45">
+    <row r="261" ht="14.4" spans="1:4">
       <c r="A261" s="2" t="s">
         <v>584</v>
       </c>
@@ -10962,7 +11586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="14.45">
+    <row r="262" ht="14.4" spans="1:4">
       <c r="A262" s="2" t="s">
         <v>586</v>
       </c>
@@ -10976,7 +11600,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="14.45">
+    <row r="263" ht="14.4" spans="1:4">
       <c r="A263" s="2" t="s">
         <v>588</v>
       </c>
@@ -10990,7 +11614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="14.45">
+    <row r="264" ht="14.4" spans="1:4">
       <c r="A264" s="2" t="s">
         <v>590</v>
       </c>
@@ -11004,7 +11628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="14.45">
+    <row r="265" ht="14.4" spans="1:4">
       <c r="A265" s="2" t="s">
         <v>592</v>
       </c>
@@ -11018,7 +11642,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="14.45">
+    <row r="266" ht="14.4" spans="1:4">
       <c r="A266" s="2" t="s">
         <v>594</v>
       </c>
@@ -11032,7 +11656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="14.45">
+    <row r="267" ht="14.4" spans="1:4">
       <c r="A267" s="2" t="s">
         <v>597</v>
       </c>
@@ -11046,7 +11670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="14.45">
+    <row r="268" ht="14.4" spans="1:4">
       <c r="A268" s="2" t="s">
         <v>600</v>
       </c>
@@ -11060,7 +11684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="14.45">
+    <row r="269" ht="14.4" spans="1:4">
       <c r="A269" s="2" t="s">
         <v>602</v>
       </c>
@@ -11074,7 +11698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="14.45">
+    <row r="270" ht="14.4" spans="1:4">
       <c r="A270" s="2" t="s">
         <v>605</v>
       </c>
@@ -11088,7 +11712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="14.45">
+    <row r="271" ht="14.4" spans="1:4">
       <c r="A271" s="2" t="s">
         <v>608</v>
       </c>
@@ -11102,7 +11726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="14.45">
+    <row r="272" ht="14.4" spans="1:4">
       <c r="A272" s="2" t="s">
         <v>610</v>
       </c>
@@ -11116,7 +11740,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="14.45">
+    <row r="273" ht="14.4" spans="1:4">
       <c r="A273" s="2" t="s">
         <v>612</v>
       </c>
@@ -11130,7 +11754,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="14.45">
+    <row r="274" ht="14.4" spans="1:4">
       <c r="A274" s="2" t="s">
         <v>615</v>
       </c>
@@ -11144,7 +11768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="14.45">
+    <row r="275" ht="14.4" spans="1:4">
       <c r="A275" s="2" t="s">
         <v>617</v>
       </c>
@@ -11158,7 +11782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="14.45">
+    <row r="276" ht="14.4" spans="1:4">
       <c r="A276" s="2" t="s">
         <v>620</v>
       </c>
@@ -11172,7 +11796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="14.45">
+    <row r="277" ht="14.4" spans="1:4">
       <c r="A277" s="2" t="s">
         <v>622</v>
       </c>
@@ -11186,7 +11810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="14.45">
+    <row r="278" ht="14.4" spans="1:4">
       <c r="A278" s="2" t="s">
         <v>624</v>
       </c>
@@ -11200,7 +11824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="14.45">
+    <row r="279" ht="14.4" spans="1:4">
       <c r="A279" s="2" t="s">
         <v>626</v>
       </c>
@@ -11214,7 +11838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="14.45">
+    <row r="280" ht="14.4" spans="1:4">
       <c r="A280" s="2" t="s">
         <v>628</v>
       </c>
@@ -11228,7 +11852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="14.45">
+    <row r="281" ht="14.4" spans="1:4">
       <c r="A281" s="2" t="s">
         <v>631</v>
       </c>
@@ -11242,7 +11866,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="14.45">
+    <row r="282" ht="14.4" spans="1:4">
       <c r="A282" s="2" t="s">
         <v>634</v>
       </c>
@@ -11256,7 +11880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="14.45">
+    <row r="283" ht="14.4" spans="1:4">
       <c r="A283" s="2" t="s">
         <v>636</v>
       </c>
@@ -11270,7 +11894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="14.45">
+    <row r="284" ht="14.4" spans="1:4">
       <c r="A284" s="2" t="s">
         <v>638</v>
       </c>
@@ -11284,7 +11908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="14.45">
+    <row r="285" ht="14.4" spans="1:4">
       <c r="A285" s="2" t="s">
         <v>641</v>
       </c>
@@ -11298,7 +11922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="14.45">
+    <row r="286" ht="14.4" spans="1:4">
       <c r="A286" s="2" t="s">
         <v>643</v>
       </c>
@@ -11312,7 +11936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="14.45">
+    <row r="287" ht="14.4" spans="1:4">
       <c r="A287" s="2" t="s">
         <v>645</v>
       </c>
@@ -11326,7 +11950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="14.45">
+    <row r="288" ht="14.4" spans="1:4">
       <c r="A288" s="2" t="s">
         <v>647</v>
       </c>
@@ -11340,7 +11964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="14.45">
+    <row r="289" ht="14.4" spans="1:4">
       <c r="A289" s="2" t="s">
         <v>649</v>
       </c>
@@ -11354,7 +11978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="14.45">
+    <row r="290" ht="14.4" spans="1:4">
       <c r="A290" s="2" t="s">
         <v>651</v>
       </c>
@@ -11368,7 +11992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="14.45">
+    <row r="291" ht="14.4" spans="1:4">
       <c r="A291" s="2" t="s">
         <v>653</v>
       </c>
@@ -11382,7 +12006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="14.45">
+    <row r="292" ht="14.4" spans="1:4">
       <c r="A292" s="2" t="s">
         <v>655</v>
       </c>
@@ -11396,7 +12020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="14.45">
+    <row r="293" ht="14.4" spans="1:4">
       <c r="A293" s="2" t="s">
         <v>657</v>
       </c>
@@ -11410,7 +12034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="14.45">
+    <row r="294" ht="14.4" spans="1:4">
       <c r="A294" s="2" t="s">
         <v>659</v>
       </c>
@@ -11424,7 +12048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="14.45">
+    <row r="295" ht="14.4" spans="1:4">
       <c r="A295" s="2" t="s">
         <v>661</v>
       </c>
@@ -11438,7 +12062,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="14.45">
+    <row r="296" ht="14.4" spans="1:4">
       <c r="A296" s="2" t="s">
         <v>663</v>
       </c>
@@ -11452,7 +12076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="14.45">
+    <row r="297" ht="14.4" spans="1:4">
       <c r="A297" s="2" t="s">
         <v>665</v>
       </c>
@@ -11466,7 +12090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="14.45">
+    <row r="298" ht="14.4" spans="1:4">
       <c r="A298" s="2" t="s">
         <v>667</v>
       </c>
@@ -11480,7 +12104,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="14.45">
+    <row r="299" ht="14.4" spans="1:4">
       <c r="A299" s="2" t="s">
         <v>669</v>
       </c>
@@ -11494,7 +12118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="14.45">
+    <row r="300" ht="14.4" spans="1:4">
       <c r="A300" s="2" t="s">
         <v>672</v>
       </c>
@@ -11508,7 +12132,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="14.45">
+    <row r="301" ht="14.4" spans="1:4">
       <c r="A301" s="2" t="s">
         <v>675</v>
       </c>
@@ -11522,7 +12146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="14.45">
+    <row r="302" ht="14.4" spans="1:4">
       <c r="A302" s="2" t="s">
         <v>677</v>
       </c>
@@ -11536,7 +12160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="14.45">
+    <row r="303" ht="14.4" spans="1:4">
       <c r="A303" s="2" t="s">
         <v>679</v>
       </c>
@@ -11550,7 +12174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="14.45">
+    <row r="304" ht="14.4" spans="1:4">
       <c r="A304" s="2" t="s">
         <v>681</v>
       </c>
@@ -11564,7 +12188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="14.45">
+    <row r="305" ht="14.4" spans="1:4">
       <c r="A305" s="2" t="s">
         <v>683</v>
       </c>
@@ -11578,7 +12202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="14.45">
+    <row r="306" ht="14.4" spans="1:4">
       <c r="A306" s="2" t="s">
         <v>685</v>
       </c>
@@ -11592,7 +12216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="14.45">
+    <row r="307" ht="14.4" spans="1:4">
       <c r="A307" s="2" t="s">
         <v>687</v>
       </c>
@@ -11606,7 +12230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="14.45">
+    <row r="308" ht="14.4" spans="1:4">
       <c r="A308" s="2" t="s">
         <v>689</v>
       </c>
@@ -11620,7 +12244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="14.45">
+    <row r="309" ht="14.4" spans="1:4">
       <c r="A309" s="2" t="s">
         <v>691</v>
       </c>
@@ -11634,7 +12258,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="14.45">
+    <row r="310" ht="14.4" spans="1:4">
       <c r="A310" s="2" t="s">
         <v>694</v>
       </c>
@@ -11648,7 +12272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="14.45">
+    <row r="311" ht="14.4" spans="1:4">
       <c r="A311" s="2" t="s">
         <v>696</v>
       </c>
@@ -11662,7 +12286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="14.45">
+    <row r="312" ht="14.4" spans="1:4">
       <c r="A312" s="2" t="s">
         <v>698</v>
       </c>
@@ -11676,7 +12300,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="14.45">
+    <row r="313" ht="14.4" spans="1:4">
       <c r="A313" s="2" t="s">
         <v>700</v>
       </c>
@@ -11690,7 +12314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="14.45">
+    <row r="314" ht="14.4" spans="1:4">
       <c r="A314" s="2" t="s">
         <v>702</v>
       </c>
@@ -11704,7 +12328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="14.45">
+    <row r="315" ht="14.4" spans="1:4">
       <c r="A315" s="2" t="s">
         <v>705</v>
       </c>
@@ -11718,7 +12342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="14.45">
+    <row r="316" ht="14.4" spans="1:4">
       <c r="A316" s="2" t="s">
         <v>708</v>
       </c>
@@ -11732,7 +12356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="14.45">
+    <row r="317" ht="14.4" spans="1:4">
       <c r="A317" s="2" t="s">
         <v>711</v>
       </c>
@@ -11746,7 +12370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="14.45">
+    <row r="318" ht="14.4" spans="1:4">
       <c r="A318" s="2" t="s">
         <v>714</v>
       </c>
@@ -11760,7 +12384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="14.45">
+    <row r="319" ht="14.4" spans="1:4">
       <c r="A319" s="2" t="s">
         <v>716</v>
       </c>
@@ -11774,7 +12398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="14.45">
+    <row r="320" ht="14.4" spans="1:4">
       <c r="A320" s="2" t="s">
         <v>718</v>
       </c>
@@ -11788,7 +12412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="14.45">
+    <row r="321" ht="14.4" spans="1:4">
       <c r="A321" s="2" t="s">
         <v>720</v>
       </c>
@@ -11802,7 +12426,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="14.45">
+    <row r="322" ht="14.4" spans="1:4">
       <c r="A322" s="2" t="s">
         <v>722</v>
       </c>
@@ -11816,7 +12440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="14.45">
+    <row r="323" ht="14.4" spans="1:4">
       <c r="A323" s="2" t="s">
         <v>724</v>
       </c>
@@ -11830,7 +12454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="14.45">
+    <row r="324" ht="14.4" spans="1:4">
       <c r="A324" s="2" t="s">
         <v>726</v>
       </c>
@@ -11844,7 +12468,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="14.45">
+    <row r="325" ht="14.4" spans="1:4">
       <c r="A325" s="2" t="s">
         <v>729</v>
       </c>
@@ -11858,7 +12482,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="14.45">
+    <row r="326" ht="14.4" spans="1:4">
       <c r="A326" s="2" t="s">
         <v>732</v>
       </c>
@@ -11872,7 +12496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="14.45">
+    <row r="327" ht="14.4" spans="1:4">
       <c r="A327" s="2" t="s">
         <v>734</v>
       </c>
@@ -11886,7 +12510,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="14.45">
+    <row r="328" ht="14.4" spans="1:4">
       <c r="A328" s="2" t="s">
         <v>737</v>
       </c>
@@ -11900,7 +12524,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="14.45">
+    <row r="329" ht="14.4" spans="1:4">
       <c r="A329" s="2" t="s">
         <v>739</v>
       </c>
@@ -11914,7 +12538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="14.45">
+    <row r="330" ht="14.4" spans="1:4">
       <c r="A330" s="2" t="s">
         <v>741</v>
       </c>
@@ -11928,7 +12552,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="14.45">
+    <row r="331" ht="14.4" spans="1:4">
       <c r="A331" s="2" t="s">
         <v>743</v>
       </c>
@@ -11942,7 +12566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="14.45">
+    <row r="332" ht="14.4" spans="1:4">
       <c r="A332" s="2" t="s">
         <v>745</v>
       </c>
@@ -11956,7 +12580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="14.45">
+    <row r="333" ht="14.4" spans="1:4">
       <c r="A333" s="2" t="s">
         <v>747</v>
       </c>
@@ -11970,7 +12594,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="14.45">
+    <row r="334" ht="14.4" spans="1:4">
       <c r="A334" s="2" t="s">
         <v>749</v>
       </c>
@@ -11984,7 +12608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="14.45">
+    <row r="335" ht="14.4" spans="1:4">
       <c r="A335" s="2" t="s">
         <v>751</v>
       </c>
@@ -11998,7 +12622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="14.45">
+    <row r="336" ht="14.4" spans="1:4">
       <c r="A336" s="2" t="s">
         <v>753</v>
       </c>
@@ -12012,7 +12636,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="14.45">
+    <row r="337" ht="14.4" spans="1:4">
       <c r="A337" s="2" t="s">
         <v>755</v>
       </c>
@@ -12026,7 +12650,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="14.45">
+    <row r="338" ht="14.4" spans="1:4">
       <c r="A338" s="2" t="s">
         <v>759</v>
       </c>
@@ -12040,7 +12664,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="14.45">
+    <row r="339" ht="14.4" spans="1:4">
       <c r="A339" s="2" t="s">
         <v>763</v>
       </c>
@@ -12054,7 +12678,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="14.45">
+    <row r="340" ht="14.4" spans="1:4">
       <c r="A340" s="2" t="s">
         <v>767</v>
       </c>
@@ -12068,7 +12692,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="14.45">
+    <row r="341" ht="14.4" spans="1:4">
       <c r="A341" s="2" t="s">
         <v>771</v>
       </c>
@@ -12082,7 +12706,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="14.45">
+    <row r="342" ht="14.4" spans="1:4">
       <c r="A342" s="2" t="s">
         <v>774</v>
       </c>
@@ -12096,7 +12720,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="14.45">
+    <row r="343" ht="14.4" spans="1:4">
       <c r="A343" s="2" t="s">
         <v>777</v>
       </c>
@@ -12110,7 +12734,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="14.45">
+    <row r="344" ht="14.4" spans="1:4">
       <c r="A344" s="2" t="s">
         <v>780</v>
       </c>
@@ -12124,7 +12748,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="14.45">
+    <row r="345" ht="14.4" spans="1:4">
       <c r="A345" s="2" t="s">
         <v>783</v>
       </c>
@@ -12138,7 +12762,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="14.45">
+    <row r="346" ht="14.4" spans="1:4">
       <c r="A346" s="2" t="s">
         <v>785</v>
       </c>
@@ -12152,7 +12776,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="14.45">
+    <row r="347" ht="14.4" spans="1:4">
       <c r="A347" s="2" t="s">
         <v>788</v>
       </c>
@@ -12166,7 +12790,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="14.45">
+    <row r="348" ht="14.4" spans="1:4">
       <c r="A348" s="2" t="s">
         <v>791</v>
       </c>
@@ -12180,7 +12804,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="14.45">
+    <row r="349" ht="14.4" spans="1:4">
       <c r="A349" s="2" t="s">
         <v>794</v>
       </c>
@@ -12194,7 +12818,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="14.45">
+    <row r="350" ht="14.4" spans="1:4">
       <c r="A350" s="2" t="s">
         <v>796</v>
       </c>
@@ -12208,7 +12832,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="14.45">
+    <row r="351" ht="14.4" spans="1:4">
       <c r="A351" s="2" t="s">
         <v>799</v>
       </c>
@@ -12222,7 +12846,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="14.45">
+    <row r="352" ht="14.4" spans="1:4">
       <c r="A352" s="2" t="s">
         <v>801</v>
       </c>
@@ -12236,7 +12860,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="14.45">
+    <row r="353" ht="14.4" spans="1:4">
       <c r="A353" s="2" t="s">
         <v>803</v>
       </c>
@@ -12250,7 +12874,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="14.45">
+    <row r="354" ht="14.4" spans="1:4">
       <c r="A354" s="2" t="s">
         <v>805</v>
       </c>
@@ -12264,7 +12888,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="14.45">
+    <row r="355" ht="14.4" spans="1:4">
       <c r="A355" s="2" t="s">
         <v>808</v>
       </c>
@@ -12278,7 +12902,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="14.45">
+    <row r="356" ht="14.4" spans="1:4">
       <c r="A356" s="2" t="s">
         <v>811</v>
       </c>
@@ -12292,7 +12916,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="14.45">
+    <row r="357" ht="14.4" spans="1:4">
       <c r="A357" s="2" t="s">
         <v>813</v>
       </c>
@@ -12306,7 +12930,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="14.45">
+    <row r="358" ht="14.4" spans="1:4">
       <c r="A358" s="2" t="s">
         <v>815</v>
       </c>
@@ -12320,7 +12944,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="14.45">
+    <row r="359" ht="14.4" spans="1:4">
       <c r="A359" s="2" t="s">
         <v>817</v>
       </c>
@@ -12334,7 +12958,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="14.45">
+    <row r="360" ht="14.4" spans="1:4">
       <c r="A360" s="2" t="s">
         <v>820</v>
       </c>
@@ -12348,7 +12972,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="14.45">
+    <row r="361" ht="14.4" spans="1:4">
       <c r="A361" s="2" t="s">
         <v>823</v>
       </c>
@@ -12362,7 +12986,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="14.45">
+    <row r="362" ht="14.4" spans="1:4">
       <c r="A362" s="2" t="s">
         <v>826</v>
       </c>
@@ -12376,7 +13000,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="14.45">
+    <row r="363" ht="14.4" spans="1:4">
       <c r="A363" s="2" t="s">
         <v>829</v>
       </c>
@@ -12390,7 +13014,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="14.45">
+    <row r="364" ht="14.4" spans="1:4">
       <c r="A364" s="2" t="s">
         <v>831</v>
       </c>
@@ -12404,7 +13028,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="14.45">
+    <row r="365" ht="14.4" spans="1:4">
       <c r="A365" s="2" t="s">
         <v>833</v>
       </c>
@@ -12418,7 +13042,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="14.45">
+    <row r="366" ht="14.4" spans="1:4">
       <c r="A366" s="2" t="s">
         <v>836</v>
       </c>
@@ -12432,7 +13056,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="14.45">
+    <row r="367" ht="14.4" spans="1:4">
       <c r="A367" s="2" t="s">
         <v>839</v>
       </c>
@@ -12446,7 +13070,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="14.45">
+    <row r="368" ht="14.4" spans="1:4">
       <c r="A368" s="2" t="s">
         <v>841</v>
       </c>
@@ -12460,7 +13084,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="14.45">
+    <row r="369" ht="14.4" spans="1:4">
       <c r="A369" s="2" t="s">
         <v>844</v>
       </c>
@@ -12474,7 +13098,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="14.45">
+    <row r="370" ht="14.4" spans="1:4">
       <c r="A370" s="2" t="s">
         <v>846</v>
       </c>
@@ -12488,7 +13112,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="14.45">
+    <row r="371" ht="14.4" spans="1:4">
       <c r="A371" s="2" t="s">
         <v>848</v>
       </c>
@@ -12502,7 +13126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="14.45">
+    <row r="372" ht="14.4" spans="1:4">
       <c r="A372" s="2" t="s">
         <v>850</v>
       </c>
@@ -12516,7 +13140,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="14.45">
+    <row r="373" ht="14.4" spans="1:4">
       <c r="A373" s="2" t="s">
         <v>853</v>
       </c>
@@ -12530,7 +13154,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="14.45">
+    <row r="374" ht="14.4" spans="1:4">
       <c r="A374" s="2" t="s">
         <v>856</v>
       </c>
@@ -12544,7 +13168,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="14.45">
+    <row r="375" ht="14.4" spans="1:4">
       <c r="A375" s="2" t="s">
         <v>859</v>
       </c>
@@ -12558,7 +13182,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="14.45">
+    <row r="376" ht="14.4" spans="1:4">
       <c r="A376" s="2" t="s">
         <v>861</v>
       </c>
@@ -12572,7 +13196,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="14.45">
+    <row r="377" ht="14.4" spans="1:4">
       <c r="A377" s="2" t="s">
         <v>864</v>
       </c>
@@ -12586,7 +13210,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="14.45">
+    <row r="378" ht="14.4" spans="1:4">
       <c r="A378" s="2" t="s">
         <v>866</v>
       </c>
@@ -12600,7 +13224,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="14.45">
+    <row r="379" ht="14.4" spans="1:4">
       <c r="A379" s="2" t="s">
         <v>870</v>
       </c>
@@ -12614,7 +13238,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="14.45">
+    <row r="380" ht="14.4" spans="1:4">
       <c r="A380" s="2" t="s">
         <v>872</v>
       </c>
@@ -12628,7 +13252,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="14.45">
+    <row r="381" ht="14.4" spans="1:4">
       <c r="A381" s="2" t="s">
         <v>874</v>
       </c>
@@ -12642,7 +13266,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="14.45">
+    <row r="382" ht="14.4" spans="1:4">
       <c r="A382" s="2" t="s">
         <v>877</v>
       </c>
@@ -12656,7 +13280,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="14.45">
+    <row r="383" ht="14.4" spans="1:4">
       <c r="A383" s="2" t="s">
         <v>880</v>
       </c>
@@ -12670,7 +13294,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="14.45">
+    <row r="384" ht="14.4" spans="1:4">
       <c r="A384" s="2" t="s">
         <v>882</v>
       </c>
@@ -12684,7 +13308,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="14.45">
+    <row r="385" ht="14.4" spans="1:4">
       <c r="A385" s="2" t="s">
         <v>884</v>
       </c>
@@ -12698,7 +13322,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="14.45">
+    <row r="386" ht="14.4" spans="1:4">
       <c r="A386" s="2" t="s">
         <v>886</v>
       </c>
@@ -12712,7 +13336,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="14.45">
+    <row r="387" ht="14.4" spans="1:4">
       <c r="A387" s="2" t="s">
         <v>888</v>
       </c>
@@ -12726,7 +13350,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="14.45">
+    <row r="388" ht="14.4" spans="1:4">
       <c r="A388" s="2" t="s">
         <v>891</v>
       </c>
@@ -12740,7 +13364,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="14.45">
+    <row r="389" ht="14.4" spans="1:4">
       <c r="A389" s="2" t="s">
         <v>893</v>
       </c>
@@ -12754,7 +13378,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="14.45">
+    <row r="390" ht="14.4" spans="1:4">
       <c r="A390" s="2" t="s">
         <v>896</v>
       </c>
@@ -12768,7 +13392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="14.45">
+    <row r="391" ht="14.4" spans="1:4">
       <c r="A391" s="2" t="s">
         <v>897</v>
       </c>
@@ -12782,7 +13406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="14.45">
+    <row r="392" ht="14.4" spans="1:4">
       <c r="A392" s="2" t="s">
         <v>900</v>
       </c>
@@ -12796,7 +13420,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="14.45">
+    <row r="393" ht="14.4" spans="1:4">
       <c r="A393" s="2" t="s">
         <v>902</v>
       </c>
@@ -12810,7 +13434,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="14.45">
+    <row r="394" ht="14.4" spans="1:4">
       <c r="A394" s="2" t="s">
         <v>905</v>
       </c>
@@ -12824,7 +13448,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="14.45">
+    <row r="395" ht="14.4" spans="1:4">
       <c r="A395" s="2" t="s">
         <v>909</v>
       </c>
@@ -12838,7 +13462,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="14.45">
+    <row r="396" ht="14.4" spans="1:4">
       <c r="A396" s="2" t="s">
         <v>913</v>
       </c>
@@ -12852,7 +13476,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="14.45">
+    <row r="397" ht="14.4" spans="1:4">
       <c r="A397" s="2" t="s">
         <v>916</v>
       </c>
@@ -12866,7 +13490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="14.45">
+    <row r="398" ht="14.4" spans="1:4">
       <c r="A398" s="2" t="s">
         <v>919</v>
       </c>
@@ -12880,7 +13504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="14.45">
+    <row r="399" ht="14.4" spans="1:4">
       <c r="A399" s="2" t="s">
         <v>922</v>
       </c>
@@ -12894,7 +13518,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="14.45">
+    <row r="400" ht="14.4" spans="1:4">
       <c r="A400" s="2" t="s">
         <v>925</v>
       </c>
@@ -12908,7 +13532,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="14.45">
+    <row r="401" ht="14.4" spans="1:4">
       <c r="A401" s="2" t="s">
         <v>928</v>
       </c>
@@ -12922,7 +13546,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="14.45">
+    <row r="402" ht="14.4" spans="1:4">
       <c r="A402" s="2" t="s">
         <v>931</v>
       </c>
@@ -12936,7 +13560,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="14.45">
+    <row r="403" ht="14.4" spans="1:4">
       <c r="A403" s="2" t="s">
         <v>935</v>
       </c>
@@ -12950,7 +13574,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="14.45">
+    <row r="404" ht="14.4" spans="1:4">
       <c r="A404" s="2" t="s">
         <v>938</v>
       </c>
@@ -12964,7 +13588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="14.45">
+    <row r="405" ht="14.4" spans="1:4">
       <c r="A405" s="2" t="s">
         <v>940</v>
       </c>
@@ -12978,7 +13602,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="14.45">
+    <row r="406" ht="14.4" spans="1:4">
       <c r="A406" s="2" t="s">
         <v>942</v>
       </c>
@@ -12992,7 +13616,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="14.45">
+    <row r="407" ht="14.4" spans="1:4">
       <c r="A407" s="2" t="s">
         <v>945</v>
       </c>
@@ -13006,7 +13630,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="14.45">
+    <row r="408" ht="14.4" spans="1:4">
       <c r="A408" s="2" t="s">
         <v>947</v>
       </c>
@@ -13020,7 +13644,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="14.45">
+    <row r="409" ht="14.4" spans="1:4">
       <c r="A409" s="2" t="s">
         <v>949</v>
       </c>
@@ -13034,7 +13658,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="14.45">
+    <row r="410" ht="14.4" spans="1:4">
       <c r="A410" s="2" t="s">
         <v>951</v>
       </c>
@@ -13048,7 +13672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="14.45">
+    <row r="411" ht="14.4" spans="1:4">
       <c r="A411" s="2" t="s">
         <v>953</v>
       </c>
@@ -13062,7 +13686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="14.45">
+    <row r="412" ht="14.4" spans="1:4">
       <c r="A412" s="2" t="s">
         <v>955</v>
       </c>
@@ -13076,7 +13700,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="14.45">
+    <row r="413" ht="14.4" spans="1:4">
       <c r="A413" s="2" t="s">
         <v>958</v>
       </c>
@@ -13090,7 +13714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="14.45">
+    <row r="414" ht="14.4" spans="1:4">
       <c r="A414" s="2" t="s">
         <v>961</v>
       </c>
@@ -13104,7 +13728,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="14.45">
+    <row r="415" ht="14.4" spans="1:4">
       <c r="A415" s="2" t="s">
         <v>963</v>
       </c>
@@ -13118,7 +13742,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="14.45">
+    <row r="416" ht="14.4" spans="1:4">
       <c r="A416" s="2" t="s">
         <v>965</v>
       </c>
@@ -13132,7 +13756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="14.45">
+    <row r="417" ht="14.4" spans="1:4">
       <c r="A417" s="2" t="s">
         <v>967</v>
       </c>
@@ -13146,7 +13770,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="14.45">
+    <row r="418" ht="14.4" spans="1:4">
       <c r="A418" s="2" t="s">
         <v>969</v>
       </c>
@@ -13160,7 +13784,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="14.45">
+    <row r="419" ht="14.4" spans="1:4">
       <c r="A419" s="2" t="s">
         <v>972</v>
       </c>
@@ -13174,7 +13798,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="14.45">
+    <row r="420" ht="14.4" spans="1:4">
       <c r="A420" s="2" t="s">
         <v>975</v>
       </c>
@@ -13188,7 +13812,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="14.45">
+    <row r="421" ht="14.4" spans="1:4">
       <c r="A421" s="2" t="s">
         <v>977</v>
       </c>
@@ -13202,7 +13826,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="14.45">
+    <row r="422" ht="14.4" spans="1:4">
       <c r="A422" s="2" t="s">
         <v>979</v>
       </c>
@@ -13216,7 +13840,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="14.45">
+    <row r="423" ht="14.4" spans="1:4">
       <c r="A423" s="2" t="s">
         <v>981</v>
       </c>
@@ -13230,7 +13854,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="14.45">
+    <row r="424" ht="14.4" spans="1:4">
       <c r="A424" s="2" t="s">
         <v>983</v>
       </c>
@@ -13244,7 +13868,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="14.45">
+    <row r="425" ht="14.4" spans="1:4">
       <c r="A425" s="2" t="s">
         <v>985</v>
       </c>
@@ -13258,7 +13882,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="14.45">
+    <row r="426" ht="14.4" spans="1:4">
       <c r="A426" s="2" t="s">
         <v>988</v>
       </c>
@@ -13272,7 +13896,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="14.45">
+    <row r="427" ht="14.4" spans="1:4">
       <c r="A427" s="2" t="s">
         <v>991</v>
       </c>
@@ -13286,7 +13910,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="14.45">
+    <row r="428" ht="14.4" spans="1:4">
       <c r="A428" s="2" t="s">
         <v>994</v>
       </c>
@@ -13300,7 +13924,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="14.45">
+    <row r="429" ht="14.4" spans="1:4">
       <c r="A429" s="2" t="s">
         <v>996</v>
       </c>
@@ -13314,7 +13938,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="14.45">
+    <row r="430" ht="14.4" spans="1:4">
       <c r="A430" s="2" t="s">
         <v>998</v>
       </c>
@@ -13328,7 +13952,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="14.45">
+    <row r="431" ht="14.4" spans="1:4">
       <c r="A431" s="2" t="s">
         <v>1000</v>
       </c>
@@ -13342,7 +13966,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="14.45">
+    <row r="432" ht="14.4" spans="1:4">
       <c r="A432" s="2" t="s">
         <v>1002</v>
       </c>
@@ -13356,7 +13980,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="14.45">
+    <row r="433" ht="14.4" spans="1:4">
       <c r="A433" s="2" t="s">
         <v>1005</v>
       </c>
@@ -13370,7 +13994,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="14.45">
+    <row r="434" ht="14.4" spans="1:4">
       <c r="A434" s="2" t="s">
         <v>1008</v>
       </c>
@@ -13384,7 +14008,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="14.45">
+    <row r="435" ht="14.4" spans="1:4">
       <c r="A435" s="2" t="s">
         <v>1011</v>
       </c>
@@ -13398,7 +14022,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="14.45">
+    <row r="436" ht="14.4" spans="1:4">
       <c r="A436" s="2" t="s">
         <v>1013</v>
       </c>
@@ -13412,7 +14036,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="14.45">
+    <row r="437" ht="14.4" spans="1:4">
       <c r="A437" s="2" t="s">
         <v>1015</v>
       </c>
@@ -13426,7 +14050,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="14.45">
+    <row r="438" ht="14.4" spans="1:4">
       <c r="A438" s="2" t="s">
         <v>1017</v>
       </c>
@@ -13440,7 +14064,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="14.45">
+    <row r="439" ht="14.4" spans="1:4">
       <c r="A439" s="2" t="s">
         <v>1020</v>
       </c>
@@ -13454,7 +14078,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="14.45">
+    <row r="440" ht="14.4" spans="1:4">
       <c r="A440" s="2" t="s">
         <v>1023</v>
       </c>
@@ -13468,7 +14092,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="14.45">
+    <row r="441" ht="14.4" spans="1:4">
       <c r="A441" s="2" t="s">
         <v>1025</v>
       </c>
@@ -13482,7 +14106,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="14.45">
+    <row r="442" ht="14.4" spans="1:4">
       <c r="A442" s="2" t="s">
         <v>1027</v>
       </c>
@@ -13496,7 +14120,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="14.45">
+    <row r="443" ht="14.4" spans="1:4">
       <c r="A443" s="2" t="s">
         <v>1029</v>
       </c>
@@ -13510,7 +14134,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="14.45">
+    <row r="444" ht="14.4" spans="1:4">
       <c r="A444" s="2" t="s">
         <v>1032</v>
       </c>
@@ -13524,7 +14148,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="14.45">
+    <row r="445" ht="14.4" spans="1:4">
       <c r="A445" s="2" t="s">
         <v>1035</v>
       </c>
@@ -13538,7 +14162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="14.45">
+    <row r="446" ht="14.4" spans="1:4">
       <c r="A446" s="2" t="s">
         <v>1037</v>
       </c>
@@ -13552,7 +14176,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="14.45">
+    <row r="447" ht="14.4" spans="1:4">
       <c r="A447" s="2" t="s">
         <v>1039</v>
       </c>
@@ -13566,7 +14190,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="14.45">
+    <row r="448" ht="14.4" spans="1:4">
       <c r="A448" s="2" t="s">
         <v>1041</v>
       </c>
@@ -13580,7 +14204,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="14.45">
+    <row r="449" ht="14.4" spans="1:4">
       <c r="A449" s="2" t="s">
         <v>1043</v>
       </c>
@@ -13594,7 +14218,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="14.45">
+    <row r="450" ht="14.4" spans="1:4">
       <c r="A450" s="2" t="s">
         <v>1045</v>
       </c>
@@ -13608,7 +14232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="14.45">
+    <row r="451" ht="14.4" spans="1:4">
       <c r="A451" s="2" t="s">
         <v>1047</v>
       </c>
@@ -13622,7 +14246,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="14.45">
+    <row r="452" ht="14.4" spans="1:4">
       <c r="A452" s="2" t="s">
         <v>1049</v>
       </c>
@@ -13636,7 +14260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="14.45">
+    <row r="453" ht="14.4" spans="1:4">
       <c r="A453" s="2" t="s">
         <v>1051</v>
       </c>
@@ -13650,7 +14274,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="14.45">
+    <row r="454" ht="14.4" spans="1:4">
       <c r="A454" s="2" t="s">
         <v>1053</v>
       </c>
@@ -13664,7 +14288,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="14.45">
+    <row r="455" ht="14.4" spans="1:4">
       <c r="A455" s="2" t="s">
         <v>1055</v>
       </c>
@@ -13678,7 +14302,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="14.45">
+    <row r="456" ht="14.4" spans="1:4">
       <c r="A456" s="2" t="s">
         <v>1058</v>
       </c>
@@ -13692,7 +14316,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="14.45">
+    <row r="457" ht="14.4" spans="1:4">
       <c r="A457" s="2" t="s">
         <v>1061</v>
       </c>
@@ -13706,7 +14330,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="14.45">
+    <row r="458" ht="14.4" spans="1:4">
       <c r="A458" s="2" t="s">
         <v>1064</v>
       </c>
@@ -13720,7 +14344,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="14.45">
+    <row r="459" ht="14.4" spans="1:4">
       <c r="A459" s="2" t="s">
         <v>1067</v>
       </c>
@@ -13734,7 +14358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="14.45">
+    <row r="460" ht="14.4" spans="1:4">
       <c r="A460" s="2" t="s">
         <v>1069</v>
       </c>
@@ -13748,7 +14372,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="14.45">
+    <row r="461" ht="14.4" spans="1:4">
       <c r="A461" s="2" t="s">
         <v>1071</v>
       </c>
@@ -13762,7 +14386,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="14.45">
+    <row r="462" ht="14.4" spans="1:4">
       <c r="A462" s="2" t="s">
         <v>1073</v>
       </c>
@@ -13776,7 +14400,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="14.45">
+    <row r="463" ht="14.4" spans="1:4">
       <c r="A463" s="2" t="s">
         <v>1075</v>
       </c>
@@ -13790,7 +14414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="14.45">
+    <row r="464" ht="14.4" spans="1:4">
       <c r="A464" s="2" t="s">
         <v>1077</v>
       </c>
@@ -13804,7 +14428,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="14.45">
+    <row r="465" ht="14.4" spans="1:4">
       <c r="A465" s="2" t="s">
         <v>1080</v>
       </c>
@@ -13818,7 +14442,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="14.45">
+    <row r="466" ht="14.4" spans="1:4">
       <c r="A466" s="2" t="s">
         <v>1082</v>
       </c>
@@ -13832,7 +14456,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="14.45">
+    <row r="467" ht="14.4" spans="1:4">
       <c r="A467" s="2" t="s">
         <v>1084</v>
       </c>
@@ -13846,7 +14470,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="14.45">
+    <row r="468" ht="14.4" spans="1:4">
       <c r="A468" s="2" t="s">
         <v>1086</v>
       </c>
@@ -13860,7 +14484,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="14.45">
+    <row r="469" ht="14.4" spans="1:4">
       <c r="A469" s="2" t="s">
         <v>1088</v>
       </c>
@@ -13874,7 +14498,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="14.45">
+    <row r="470" ht="14.4" spans="1:4">
       <c r="A470" s="2" t="s">
         <v>1090</v>
       </c>
@@ -13888,7 +14512,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="14.45">
+    <row r="471" ht="14.4" spans="1:4">
       <c r="A471" s="2" t="s">
         <v>1092</v>
       </c>
@@ -13902,7 +14526,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="14.45">
+    <row r="472" ht="14.4" spans="1:4">
       <c r="A472" s="2" t="s">
         <v>1094</v>
       </c>
@@ -13916,7 +14540,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="14.45">
+    <row r="473" ht="14.4" spans="1:4">
       <c r="A473" s="2" t="s">
         <v>1096</v>
       </c>
@@ -13930,7 +14554,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="14.45">
+    <row r="474" ht="14.4" spans="1:4">
       <c r="A474" s="2" t="s">
         <v>1098</v>
       </c>
@@ -13944,7 +14568,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="14.45">
+    <row r="475" ht="14.4" spans="1:4">
       <c r="A475" s="2" t="s">
         <v>1100</v>
       </c>
@@ -13958,7 +14582,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="14.45">
+    <row r="476" ht="14.4" spans="1:4">
       <c r="A476" s="2" t="s">
         <v>1102</v>
       </c>
@@ -13972,7 +14596,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="14.45">
+    <row r="477" ht="14.4" spans="1:4">
       <c r="A477" s="2" t="s">
         <v>1104</v>
       </c>
@@ -13986,7 +14610,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="14.45">
+    <row r="478" ht="14.4" spans="1:4">
       <c r="A478" s="2" t="s">
         <v>1106</v>
       </c>
@@ -14000,7 +14624,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="14.45">
+    <row r="479" ht="14.4" spans="1:4">
       <c r="A479" s="2" t="s">
         <v>1108</v>
       </c>
@@ -14014,7 +14638,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="14.45">
+    <row r="480" ht="14.4" spans="1:4">
       <c r="A480" s="2" t="s">
         <v>1110</v>
       </c>
@@ -14028,7 +14652,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="14.45">
+    <row r="481" ht="14.4" spans="1:4">
       <c r="A481" s="2" t="s">
         <v>1113</v>
       </c>
@@ -14042,7 +14666,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="14.45">
+    <row r="482" ht="14.4" spans="1:4">
       <c r="A482" s="2" t="s">
         <v>1115</v>
       </c>
@@ -14056,7 +14680,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="14.45">
+    <row r="483" ht="14.4" spans="1:4">
       <c r="A483" s="2" t="s">
         <v>1117</v>
       </c>
@@ -14070,7 +14694,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="14.45">
+    <row r="484" ht="14.4" spans="1:4">
       <c r="A484" s="2" t="s">
         <v>1119</v>
       </c>
@@ -14084,7 +14708,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="14.45">
+    <row r="485" ht="14.4" spans="1:4">
       <c r="A485" s="2" t="s">
         <v>1121</v>
       </c>
@@ -14098,7 +14722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="14.45">
+    <row r="486" ht="14.4" spans="1:4">
       <c r="A486" s="2" t="s">
         <v>1123</v>
       </c>
@@ -14112,7 +14736,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="14.45">
+    <row r="487" ht="14.4" spans="1:4">
       <c r="A487" s="2" t="s">
         <v>1125</v>
       </c>
@@ -14126,7 +14750,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="14.45">
+    <row r="488" ht="14.4" spans="1:4">
       <c r="A488" s="2" t="s">
         <v>1128</v>
       </c>
@@ -14140,7 +14764,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="14.45">
+    <row r="489" ht="14.4" spans="1:4">
       <c r="A489" s="2" t="s">
         <v>1131</v>
       </c>
@@ -14154,7 +14778,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="14.45">
+    <row r="490" ht="14.4" spans="1:4">
       <c r="A490" s="2" t="s">
         <v>1134</v>
       </c>
@@ -14168,7 +14792,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="14.45">
+    <row r="491" ht="14.4" spans="1:4">
       <c r="A491" s="2" t="s">
         <v>1137</v>
       </c>
@@ -14182,7 +14806,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="14.45">
+    <row r="492" ht="14.4" spans="1:4">
       <c r="A492" s="2" t="s">
         <v>1140</v>
       </c>
@@ -14196,7 +14820,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="14.45">
+    <row r="493" ht="14.4" spans="1:4">
       <c r="A493" s="2" t="s">
         <v>1142</v>
       </c>
@@ -14210,7 +14834,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="14.45">
+    <row r="494" ht="14.4" spans="1:4">
       <c r="A494" s="2" t="s">
         <v>1144</v>
       </c>
@@ -14224,7 +14848,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="14.45">
+    <row r="495" ht="14.4" spans="1:4">
       <c r="A495" s="2" t="s">
         <v>1146</v>
       </c>
@@ -14238,7 +14862,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="14.45">
+    <row r="496" ht="14.4" spans="1:4">
       <c r="A496" s="2" t="s">
         <v>1148</v>
       </c>
@@ -14252,7 +14876,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="14.45">
+    <row r="497" ht="14.4" spans="1:4">
       <c r="A497" s="2" t="s">
         <v>1150</v>
       </c>
@@ -14266,7 +14890,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="14.45">
+    <row r="498" ht="14.4" spans="1:4">
       <c r="A498" s="2" t="s">
         <v>1153</v>
       </c>
@@ -14280,7 +14904,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="14.45">
+    <row r="499" ht="14.4" spans="1:4">
       <c r="A499" s="2" t="s">
         <v>1155</v>
       </c>
@@ -14294,7 +14918,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="14.45">
+    <row r="500" ht="14.4" spans="1:4">
       <c r="A500" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14308,7 +14932,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="14.45">
+    <row r="501" ht="14.4" spans="1:4">
       <c r="A501" s="2" t="s">
         <v>1162</v>
       </c>
@@ -14322,7 +14946,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="14.45">
+    <row r="502" ht="14.4" spans="1:4">
       <c r="A502" s="2" t="s">
         <v>1165</v>
       </c>
@@ -14336,7 +14960,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="14.45">
+    <row r="503" ht="14.4" spans="1:4">
       <c r="A503" s="2" t="s">
         <v>1169</v>
       </c>
@@ -14350,7 +14974,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="14.45">
+    <row r="504" ht="14.4" spans="1:4">
       <c r="A504" s="2" t="s">
         <v>1173</v>
       </c>
@@ -14364,7 +14988,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="14.45">
+    <row r="505" ht="14.4" spans="1:4">
       <c r="A505" s="2" t="s">
         <v>1176</v>
       </c>
@@ -14378,7 +15002,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="14.45">
+    <row r="506" ht="14.4" spans="1:4">
       <c r="A506" s="2" t="s">
         <v>1180</v>
       </c>
@@ -14392,7 +15016,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="14.45">
+    <row r="507" ht="14.4" spans="1:4">
       <c r="A507" s="2" t="s">
         <v>1183</v>
       </c>
@@ -14406,7 +15030,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="14.45">
+    <row r="508" ht="14.4" spans="1:4">
       <c r="A508" s="2" t="s">
         <v>1186</v>
       </c>
@@ -14420,7 +15044,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="14.45">
+    <row r="509" ht="14.4" spans="1:4">
       <c r="A509" s="2" t="s">
         <v>1190</v>
       </c>
@@ -14434,7 +15058,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="14.45">
+    <row r="510" ht="14.4" spans="1:4">
       <c r="A510" s="2" t="s">
         <v>1193</v>
       </c>
@@ -14448,7 +15072,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="14.45">
+    <row r="511" ht="14.4" spans="1:4">
       <c r="A511" s="2" t="s">
         <v>1195</v>
       </c>
@@ -14462,7 +15086,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="14.45">
+    <row r="512" ht="14.4" spans="1:4">
       <c r="A512" s="2" t="s">
         <v>1198</v>
       </c>
@@ -14476,7 +15100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="14.45">
+    <row r="513" ht="14.4" spans="1:4">
       <c r="A513" s="2" t="s">
         <v>1201</v>
       </c>
@@ -14490,7 +15114,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="14.45">
+    <row r="514" ht="14.4" spans="1:4">
       <c r="A514" s="2" t="s">
         <v>1205</v>
       </c>
@@ -14504,7 +15128,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="14.45">
+    <row r="515" ht="14.4" spans="1:4">
       <c r="A515" s="2" t="s">
         <v>1207</v>
       </c>
@@ -14518,7 +15142,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="14.45">
+    <row r="516" ht="14.4" spans="1:4">
       <c r="A516" s="2" t="s">
         <v>1210</v>
       </c>
@@ -14532,7 +15156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="14.45">
+    <row r="517" ht="14.4" spans="1:4">
       <c r="A517" s="2" t="s">
         <v>1212</v>
       </c>
@@ -14546,7 +15170,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="14.45">
+    <row r="518" ht="14.4" spans="1:4">
       <c r="A518" s="2" t="s">
         <v>1215</v>
       </c>
@@ -14560,7 +15184,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="14.45">
+    <row r="519" ht="14.4" spans="1:4">
       <c r="A519" s="2" t="s">
         <v>1218</v>
       </c>
@@ -14574,7 +15198,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="14.45">
+    <row r="520" ht="14.4" spans="1:4">
       <c r="A520" s="2" t="s">
         <v>1220</v>
       </c>
@@ -14588,7 +15212,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="14.45">
+    <row r="521" ht="14.4" spans="1:4">
       <c r="A521" s="2" t="s">
         <v>1222</v>
       </c>
@@ -14602,7 +15226,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="14.45">
+    <row r="522" ht="14.4" spans="1:4">
       <c r="A522" s="2" t="s">
         <v>1224</v>
       </c>
@@ -14616,7 +15240,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="14.45">
+    <row r="523" ht="14.4" spans="1:4">
       <c r="A523" s="2" t="s">
         <v>1226</v>
       </c>
@@ -14630,7 +15254,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="14.45">
+    <row r="524" ht="14.4" spans="1:4">
       <c r="A524" s="2" t="s">
         <v>1229</v>
       </c>
@@ -14644,7 +15268,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="14.45">
+    <row r="525" ht="14.4" spans="1:4">
       <c r="A525" s="2" t="s">
         <v>1232</v>
       </c>
@@ -14658,7 +15282,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="14.45">
+    <row r="526" ht="14.4" spans="1:4">
       <c r="A526" s="2" t="s">
         <v>1235</v>
       </c>
@@ -14672,7 +15296,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="14.45">
+    <row r="527" ht="14.4" spans="1:4">
       <c r="A527" s="2" t="s">
         <v>1238</v>
       </c>
@@ -14686,7 +15310,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="14.45">
+    <row r="528" ht="14.4" spans="1:4">
       <c r="A528" s="2" t="s">
         <v>1241</v>
       </c>
@@ -14700,7 +15324,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="14.45">
+    <row r="529" ht="14.4" spans="1:4">
       <c r="A529" s="2" t="s">
         <v>1243</v>
       </c>
@@ -14714,7 +15338,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="14.45">
+    <row r="530" ht="14.4" spans="1:4">
       <c r="A530" s="2" t="s">
         <v>1246</v>
       </c>
@@ -14728,7 +15352,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="14.45">
+    <row r="531" ht="14.4" spans="1:4">
       <c r="A531" s="2" t="s">
         <v>1248</v>
       </c>
@@ -14742,7 +15366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="14.45">
+    <row r="532" ht="14.4" spans="1:4">
       <c r="A532" s="2" t="s">
         <v>1250</v>
       </c>
@@ -14756,7 +15380,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="14.45">
+    <row r="533" ht="14.4" spans="1:4">
       <c r="A533" s="2" t="s">
         <v>1252</v>
       </c>
@@ -14770,7 +15394,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="14.45">
+    <row r="534" ht="14.4" spans="1:4">
       <c r="A534" s="2" t="s">
         <v>1254</v>
       </c>
@@ -14784,7 +15408,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="14.45">
+    <row r="535" ht="14.4" spans="1:4">
       <c r="A535" s="2" t="s">
         <v>1256</v>
       </c>
@@ -14798,7 +15422,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="14.45">
+    <row r="536" ht="14.4" spans="1:4">
       <c r="A536" s="2" t="s">
         <v>1259</v>
       </c>
@@ -14812,7 +15436,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="14.45">
+    <row r="537" ht="14.4" spans="1:4">
       <c r="A537" s="2" t="s">
         <v>1261</v>
       </c>
@@ -14826,7 +15450,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="14.45">
+    <row r="538" ht="14.4" spans="1:4">
       <c r="A538" s="2" t="s">
         <v>1263</v>
       </c>
@@ -14840,7 +15464,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="14.45">
+    <row r="539" ht="14.4" spans="1:4">
       <c r="A539" s="2" t="s">
         <v>1265</v>
       </c>
@@ -14854,7 +15478,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="14.45">
+    <row r="540" ht="14.4" spans="1:4">
       <c r="A540" s="2" t="s">
         <v>1268</v>
       </c>
@@ -14868,7 +15492,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="14.45">
+    <row r="541" ht="14.4" spans="1:4">
       <c r="A541" s="2" t="s">
         <v>1271</v>
       </c>
@@ -14882,7 +15506,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="14.45">
+    <row r="542" ht="14.4" spans="1:4">
       <c r="A542" s="2" t="s">
         <v>1273</v>
       </c>
@@ -14896,7 +15520,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="14.45">
+    <row r="543" ht="14.4" spans="1:4">
       <c r="A543" s="2" t="s">
         <v>1276</v>
       </c>
@@ -14910,7 +15534,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="14.45">
+    <row r="544" ht="14.4" spans="1:4">
       <c r="A544" s="2" t="s">
         <v>1279</v>
       </c>
@@ -14924,7 +15548,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="14.45">
+    <row r="545" ht="14.4" spans="1:4">
       <c r="A545" s="2" t="s">
         <v>1281</v>
       </c>
@@ -14938,7 +15562,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="14.45">
+    <row r="546" ht="14.4" spans="1:4">
       <c r="A546" s="2" t="s">
         <v>1284</v>
       </c>
@@ -14952,7 +15576,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="14.45">
+    <row r="547" ht="14.4" spans="1:4">
       <c r="A547" s="2" t="s">
         <v>1287</v>
       </c>
@@ -14966,7 +15590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="14.45">
+    <row r="548" ht="14.4" spans="1:4">
       <c r="A548" s="2" t="s">
         <v>1290</v>
       </c>
@@ -14980,7 +15604,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="14.45">
+    <row r="549" ht="14.4" spans="1:4">
       <c r="A549" s="2" t="s">
         <v>1292</v>
       </c>
@@ -14994,7 +15618,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="14.45">
+    <row r="550" ht="14.4" spans="1:4">
       <c r="A550" s="2" t="s">
         <v>1294</v>
       </c>
@@ -15008,7 +15632,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="14.45">
+    <row r="551" ht="14.4" spans="1:4">
       <c r="A551" s="2" t="s">
         <v>1296</v>
       </c>
@@ -15022,7 +15646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="14.45">
+    <row r="552" ht="14.4" spans="1:4">
       <c r="A552" s="2" t="s">
         <v>1298</v>
       </c>
@@ -15036,7 +15660,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="14.45">
+    <row r="553" ht="14.4" spans="1:4">
       <c r="A553" s="2" t="s">
         <v>1300</v>
       </c>
@@ -15050,7 +15674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="14.45">
+    <row r="554" ht="14.4" spans="1:4">
       <c r="A554" s="2" t="s">
         <v>1302</v>
       </c>
@@ -15064,7 +15688,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="14.45">
+    <row r="555" ht="14.4" spans="1:4">
       <c r="A555" s="2" t="s">
         <v>1304</v>
       </c>
@@ -15078,7 +15702,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="14.45">
+    <row r="556" ht="14.4" spans="1:4">
       <c r="A556" s="2" t="s">
         <v>1307</v>
       </c>
@@ -15092,7 +15716,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="14.45">
+    <row r="557" ht="14.4" spans="1:4">
       <c r="A557" s="2" t="s">
         <v>1310</v>
       </c>
@@ -15106,7 +15730,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="14.45">
+    <row r="558" ht="14.4" spans="1:4">
       <c r="A558" s="2" t="s">
         <v>1313</v>
       </c>
@@ -15120,7 +15744,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="14.45">
+    <row r="559" ht="14.4" spans="1:4">
       <c r="A559" s="2" t="s">
         <v>1316</v>
       </c>
@@ -15134,7 +15758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="14.45">
+    <row r="560" ht="14.4" spans="1:4">
       <c r="A560" s="2" t="s">
         <v>1318</v>
       </c>
@@ -15148,7 +15772,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="14.45">
+    <row r="561" ht="14.4" spans="1:4">
       <c r="A561" s="2" t="s">
         <v>1320</v>
       </c>
@@ -15162,7 +15786,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="14.45">
+    <row r="562" ht="14.4" spans="1:4">
       <c r="A562" s="2" t="s">
         <v>1323</v>
       </c>
@@ -15176,7 +15800,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="14.45">
+    <row r="563" ht="14.4" spans="1:4">
       <c r="A563" s="2" t="s">
         <v>1325</v>
       </c>
@@ -15190,7 +15814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="14.45">
+    <row r="564" ht="14.4" spans="1:4">
       <c r="A564" s="2" t="s">
         <v>1327</v>
       </c>
@@ -15204,7 +15828,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="14.45">
+    <row r="565" ht="14.4" spans="1:4">
       <c r="A565" s="2" t="s">
         <v>1330</v>
       </c>
@@ -15218,7 +15842,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="14.45">
+    <row r="566" ht="14.4" spans="1:4">
       <c r="A566" s="2" t="s">
         <v>1333</v>
       </c>
@@ -15232,7 +15856,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="14.45">
+    <row r="567" ht="14.4" spans="1:4">
       <c r="A567" s="2" t="s">
         <v>1335</v>
       </c>
@@ -15246,7 +15870,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="14.45">
+    <row r="568" ht="14.4" spans="1:4">
       <c r="A568" s="2" t="s">
         <v>1337</v>
       </c>
@@ -15260,7 +15884,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="14.45">
+    <row r="569" ht="14.4" spans="1:4">
       <c r="A569" s="2" t="s">
         <v>1339</v>
       </c>
@@ -15274,7 +15898,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="14.45">
+    <row r="570" ht="14.4" spans="1:4">
       <c r="A570" s="2" t="s">
         <v>1341</v>
       </c>
@@ -15288,7 +15912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="14.45">
+    <row r="571" ht="14.4" spans="1:4">
       <c r="A571" s="2" t="s">
         <v>1343</v>
       </c>
@@ -15302,7 +15926,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="14.45">
+    <row r="572" ht="14.4" spans="1:4">
       <c r="A572" s="2" t="s">
         <v>1346</v>
       </c>
@@ -15316,7 +15940,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="14.45">
+    <row r="573" ht="14.4" spans="1:4">
       <c r="A573" s="2" t="s">
         <v>1349</v>
       </c>
@@ -15330,7 +15954,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="14.45">
+    <row r="574" ht="14.4" spans="1:4">
       <c r="A574" s="2" t="s">
         <v>1352</v>
       </c>
@@ -15344,7 +15968,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="14.45">
+    <row r="575" ht="14.4" spans="1:4">
       <c r="A575" s="2" t="s">
         <v>1355</v>
       </c>
@@ -15358,7 +15982,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="14.45">
+    <row r="576" ht="14.4" spans="1:4">
       <c r="A576" s="2" t="s">
         <v>1358</v>
       </c>
@@ -15372,7 +15996,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="14.45">
+    <row r="577" ht="14.4" spans="1:4">
       <c r="A577" s="2" t="s">
         <v>1361</v>
       </c>
@@ -15386,7 +16010,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="14.45">
+    <row r="578" ht="14.4" spans="1:4">
       <c r="A578" s="2" t="s">
         <v>1363</v>
       </c>
@@ -15400,7 +16024,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="14.45">
+    <row r="579" ht="14.4" spans="1:4">
       <c r="A579" s="2" t="s">
         <v>1365</v>
       </c>
@@ -15414,7 +16038,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="14.45">
+    <row r="580" ht="14.4" spans="1:4">
       <c r="A580" s="2" t="s">
         <v>1367</v>
       </c>
@@ -15428,7 +16052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="14.45">
+    <row r="581" ht="14.4" spans="1:4">
       <c r="A581" s="2" t="s">
         <v>1369</v>
       </c>
@@ -15442,7 +16066,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="14.45">
+    <row r="582" ht="14.4" spans="1:4">
       <c r="A582" s="2" t="s">
         <v>1372</v>
       </c>
@@ -15456,7 +16080,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="14.45">
+    <row r="583" ht="14.4" spans="1:4">
       <c r="A583" s="2" t="s">
         <v>1374</v>
       </c>
@@ -15470,7 +16094,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="14.45">
+    <row r="584" ht="14.4" spans="1:4">
       <c r="A584" s="2" t="s">
         <v>1377</v>
       </c>
@@ -15484,7 +16108,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="14.45">
+    <row r="585" ht="14.4" spans="1:4">
       <c r="A585" s="2" t="s">
         <v>1380</v>
       </c>
@@ -15498,7 +16122,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="14.45">
+    <row r="586" ht="14.4" spans="1:4">
       <c r="A586" s="2" t="s">
         <v>1382</v>
       </c>
@@ -15512,7 +16136,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="14.45">
+    <row r="587" ht="14.4" spans="1:4">
       <c r="A587" s="2" t="s">
         <v>1384</v>
       </c>
@@ -15526,7 +16150,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="14.45">
+    <row r="588" ht="14.4" spans="1:4">
       <c r="A588" s="2" t="s">
         <v>1386</v>
       </c>
@@ -15540,7 +16164,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="14.45">
+    <row r="589" ht="14.4" spans="1:4">
       <c r="A589" s="2" t="s">
         <v>1388</v>
       </c>
@@ -15554,7 +16178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="14.45">
+    <row r="590" ht="14.4" spans="1:4">
       <c r="A590" s="2" t="s">
         <v>1390</v>
       </c>
@@ -15568,7 +16192,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="14.45">
+    <row r="591" ht="14.4" spans="1:4">
       <c r="A591" s="2" t="s">
         <v>1392</v>
       </c>
@@ -15582,7 +16206,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="14.45">
+    <row r="592" ht="14.4" spans="1:4">
       <c r="A592" s="2" t="s">
         <v>1394</v>
       </c>
@@ -15596,7 +16220,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="14.45">
+    <row r="593" ht="14.4" spans="1:4">
       <c r="A593" s="2" t="s">
         <v>1397</v>
       </c>
@@ -15610,7 +16234,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="14.45">
+    <row r="594" ht="14.4" spans="1:4">
       <c r="A594" s="2" t="s">
         <v>1399</v>
       </c>
@@ -15624,7 +16248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="14.45">
+    <row r="595" ht="14.4" spans="1:4">
       <c r="A595" s="2" t="s">
         <v>1401</v>
       </c>
@@ -15638,7 +16262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="14.45">
+    <row r="596" ht="14.4" spans="1:4">
       <c r="A596" s="2" t="s">
         <v>1403</v>
       </c>
@@ -15652,7 +16276,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="14.45">
+    <row r="597" ht="14.4" spans="1:4">
       <c r="A597" s="2" t="s">
         <v>1405</v>
       </c>
@@ -15666,7 +16290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="14.45">
+    <row r="598" ht="14.4" spans="1:4">
       <c r="A598" s="2" t="s">
         <v>1407</v>
       </c>
@@ -15680,7 +16304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="14.45">
+    <row r="599" ht="14.4" spans="1:4">
       <c r="A599" s="2" t="s">
         <v>1410</v>
       </c>
@@ -15694,7 +16318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="14.45">
+    <row r="600" ht="14.4" spans="1:4">
       <c r="A600" s="2" t="s">
         <v>1413</v>
       </c>
@@ -15708,7 +16332,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="14.45">
+    <row r="601" ht="14.4" spans="1:4">
       <c r="A601" s="2" t="s">
         <v>1416</v>
       </c>
@@ -15722,7 +16346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="14.45">
+    <row r="602" ht="14.4" spans="1:4">
       <c r="A602" s="2" t="s">
         <v>1418</v>
       </c>
@@ -15736,7 +16360,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="14.45">
+    <row r="603" ht="14.4" spans="1:4">
       <c r="A603" s="2" t="s">
         <v>1421</v>
       </c>
@@ -15750,7 +16374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="14.45">
+    <row r="604" ht="14.4" spans="1:4">
       <c r="A604" s="2" t="s">
         <v>1424</v>
       </c>
@@ -15764,7 +16388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="14.45">
+    <row r="605" ht="14.4" spans="1:4">
       <c r="A605" s="2" t="s">
         <v>1426</v>
       </c>
@@ -15778,7 +16402,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="14.45">
+    <row r="606" ht="14.4" spans="1:4">
       <c r="A606" s="2" t="s">
         <v>1429</v>
       </c>
@@ -15792,7 +16416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="14.45">
+    <row r="607" ht="14.4" spans="1:4">
       <c r="A607" s="2" t="s">
         <v>1431</v>
       </c>
@@ -15806,7 +16430,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="14.45">
+    <row r="608" ht="14.4" spans="1:4">
       <c r="A608" s="2" t="s">
         <v>1434</v>
       </c>
@@ -15820,7 +16444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="14.45">
+    <row r="609" ht="14.4" spans="1:4">
       <c r="A609" s="2" t="s">
         <v>1437</v>
       </c>
@@ -15834,7 +16458,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="14.45">
+    <row r="610" ht="14.4" spans="1:4">
       <c r="A610" s="2" t="s">
         <v>1440</v>
       </c>
@@ -15848,7 +16472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="14.45">
+    <row r="611" ht="14.4" spans="1:4">
       <c r="A611" s="2" t="s">
         <v>1442</v>
       </c>
@@ -15862,7 +16486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="14.45">
+    <row r="612" ht="14.4" spans="1:4">
       <c r="A612" s="2" t="s">
         <v>1443</v>
       </c>
@@ -15876,7 +16500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="14.45">
+    <row r="613" ht="14.4" spans="1:4">
       <c r="A613" s="2" t="s">
         <v>1446</v>
       </c>
@@ -15890,7 +16514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="14.45">
+    <row r="614" ht="14.4" spans="1:4">
       <c r="A614" s="2" t="s">
         <v>1448</v>
       </c>
@@ -15904,7 +16528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="14.45">
+    <row r="615" ht="14.4" spans="1:4">
       <c r="A615" s="2" t="s">
         <v>1450</v>
       </c>
@@ -15918,7 +16542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="14.45">
+    <row r="616" ht="14.4" spans="1:4">
       <c r="A616" s="2" t="s">
         <v>1452</v>
       </c>
@@ -15932,7 +16556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="14.45">
+    <row r="617" ht="14.4" spans="1:4">
       <c r="A617" s="2" t="s">
         <v>1454</v>
       </c>
@@ -15946,7 +16570,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="14.45">
+    <row r="618" ht="14.4" spans="1:4">
       <c r="A618" s="2" t="s">
         <v>1456</v>
       </c>
@@ -15960,7 +16584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="14.45">
+    <row r="619" ht="14.4" spans="1:4">
       <c r="A619" s="2" t="s">
         <v>1458</v>
       </c>
@@ -15974,7 +16598,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="14.45">
+    <row r="620" ht="14.4" spans="1:4">
       <c r="A620" s="2" t="s">
         <v>1460</v>
       </c>
@@ -15988,7 +16612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="14.45">
+    <row r="621" ht="14.4" spans="1:4">
       <c r="A621" s="2" t="s">
         <v>1462</v>
       </c>
@@ -16002,7 +16626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="14.45">
+    <row r="622" ht="14.4" spans="1:4">
       <c r="A622" s="2" t="s">
         <v>1464</v>
       </c>
@@ -16016,7 +16640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="14.45">
+    <row r="623" ht="14.4" spans="1:4">
       <c r="A623" s="2" t="s">
         <v>1466</v>
       </c>
@@ -16030,7 +16654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="14.45">
+    <row r="624" ht="14.4" spans="1:4">
       <c r="A624" s="2" t="s">
         <v>1468</v>
       </c>
@@ -16044,7 +16668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="14.45">
+    <row r="625" ht="14.4" spans="1:4">
       <c r="A625" s="2" t="s">
         <v>1470</v>
       </c>
@@ -16058,7 +16682,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="14.45">
+    <row r="626" ht="14.4" spans="1:4">
       <c r="A626" s="2" t="s">
         <v>1472</v>
       </c>
@@ -16072,7 +16696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="14.45">
+    <row r="627" ht="14.4" spans="1:4">
       <c r="A627" s="2" t="s">
         <v>1474</v>
       </c>
@@ -16086,7 +16710,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="14.45">
+    <row r="628" ht="14.4" spans="1:4">
       <c r="A628" s="2" t="s">
         <v>1475</v>
       </c>
@@ -16100,7 +16724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="14.45">
+    <row r="629" ht="14.4" spans="1:4">
       <c r="A629" s="2" t="s">
         <v>1477</v>
       </c>
@@ -16114,7 +16738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="14.45">
+    <row r="630" ht="14.4" spans="1:4">
       <c r="A630" s="2" t="s">
         <v>1479</v>
       </c>
@@ -16128,7 +16752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="14.45">
+    <row r="631" ht="14.4" spans="1:4">
       <c r="A631" s="2" t="s">
         <v>1481</v>
       </c>
@@ -16142,7 +16766,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="14.45">
+    <row r="632" ht="14.4" spans="1:4">
       <c r="A632" s="2" t="s">
         <v>1484</v>
       </c>
@@ -16156,7 +16780,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="14.45">
+    <row r="633" ht="14.4" spans="1:4">
       <c r="A633" s="2" t="s">
         <v>1487</v>
       </c>
@@ -16170,7 +16794,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="14.45">
+    <row r="634" ht="14.4" spans="1:4">
       <c r="A634" s="2" t="s">
         <v>1489</v>
       </c>
@@ -16184,7 +16808,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="14.45">
+    <row r="635" ht="14.4" spans="1:4">
       <c r="A635" s="2" t="s">
         <v>1491</v>
       </c>
@@ -16198,7 +16822,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="14.45">
+    <row r="636" ht="14.4" spans="1:4">
       <c r="A636" s="2" t="s">
         <v>1493</v>
       </c>
@@ -16212,7 +16836,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="14.45">
+    <row r="637" ht="14.4" spans="1:4">
       <c r="A637" s="2" t="s">
         <v>1496</v>
       </c>
@@ -16226,7 +16850,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="14.45">
+    <row r="638" ht="14.4" spans="1:4">
       <c r="A638" s="2" t="s">
         <v>1498</v>
       </c>
@@ -16240,7 +16864,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="14.45">
+    <row r="639" ht="14.4" spans="1:4">
       <c r="A639" s="2" t="s">
         <v>1500</v>
       </c>
@@ -16254,7 +16878,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="14.45">
+    <row r="640" ht="14.4" spans="1:4">
       <c r="A640" s="2" t="s">
         <v>1502</v>
       </c>
@@ -16268,7 +16892,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="14.45">
+    <row r="641" ht="14.4" spans="1:4">
       <c r="A641" s="2" t="s">
         <v>1504</v>
       </c>
@@ -16282,7 +16906,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="14.45">
+    <row r="642" ht="14.4" spans="1:4">
       <c r="A642" s="2" t="s">
         <v>1506</v>
       </c>
@@ -16296,7 +16920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="14.45">
+    <row r="643" ht="14.4" spans="1:4">
       <c r="A643" s="2" t="s">
         <v>1508</v>
       </c>
@@ -16310,7 +16934,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="14.45">
+    <row r="644" ht="14.4" spans="1:4">
       <c r="A644" s="2" t="s">
         <v>1510</v>
       </c>
@@ -16324,7 +16948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="14.45">
+    <row r="645" ht="14.4" spans="1:4">
       <c r="A645" s="2" t="s">
         <v>1513</v>
       </c>
@@ -16338,7 +16962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="14.45">
+    <row r="646" ht="14.4" spans="1:4">
       <c r="A646" s="2" t="s">
         <v>1515</v>
       </c>
@@ -16352,7 +16976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="14.45">
+    <row r="647" ht="14.4" spans="1:4">
       <c r="A647" s="2" t="s">
         <v>1517</v>
       </c>
@@ -16366,7 +16990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="14.45">
+    <row r="648" ht="14.4" spans="1:4">
       <c r="A648" s="2" t="s">
         <v>1519</v>
       </c>
@@ -16380,7 +17004,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="14.45">
+    <row r="649" ht="14.4" spans="1:4">
       <c r="A649" s="2" t="s">
         <v>1521</v>
       </c>
@@ -16394,7 +17018,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="14.45">
+    <row r="650" ht="14.4" spans="1:4">
       <c r="A650" s="2" t="s">
         <v>1523</v>
       </c>
@@ -16408,7 +17032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="14.45">
+    <row r="651" ht="14.4" spans="1:4">
       <c r="A651" s="2" t="s">
         <v>1525</v>
       </c>
@@ -16422,7 +17046,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="14.45">
+    <row r="652" ht="14.4" spans="1:4">
       <c r="A652" s="2" t="s">
         <v>1527</v>
       </c>
@@ -16436,7 +17060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="14.45">
+    <row r="653" ht="14.4" spans="1:4">
       <c r="A653" s="2" t="s">
         <v>1529</v>
       </c>
@@ -16450,7 +17074,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="14.45">
+    <row r="654" ht="14.4" spans="1:4">
       <c r="A654" s="2" t="s">
         <v>1533</v>
       </c>
@@ -16464,7 +17088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="14.45">
+    <row r="655" ht="14.4" spans="1:4">
       <c r="A655" s="2" t="s">
         <v>1535</v>
       </c>
@@ -16478,7 +17102,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="14.45">
+    <row r="656" ht="14.4" spans="1:4">
       <c r="A656" s="2" t="s">
         <v>1537</v>
       </c>
@@ -16492,7 +17116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="14.45">
+    <row r="657" ht="14.4" spans="1:4">
       <c r="A657" s="2" t="s">
         <v>1540</v>
       </c>
@@ -16506,7 +17130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="14.45">
+    <row r="658" ht="14.4" spans="1:4">
       <c r="A658" s="2" t="s">
         <v>1542</v>
       </c>
@@ -16520,7 +17144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="14.45">
+    <row r="659" ht="14.4" spans="1:4">
       <c r="A659" s="2" t="s">
         <v>1544</v>
       </c>
@@ -16534,7 +17158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="14.45">
+    <row r="660" ht="14.4" spans="1:4">
       <c r="A660" s="2" t="s">
         <v>1546</v>
       </c>
@@ -16548,7 +17172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="14.45">
+    <row r="661" ht="14.4" spans="1:4">
       <c r="A661" s="2" t="s">
         <v>1548</v>
       </c>
@@ -16562,7 +17186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="14.45">
+    <row r="662" ht="14.4" spans="1:4">
       <c r="A662" s="2" t="s">
         <v>1550</v>
       </c>
@@ -16576,7 +17200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="14.45">
+    <row r="663" ht="14.4" spans="1:4">
       <c r="A663" s="2" t="s">
         <v>1552</v>
       </c>
@@ -16590,7 +17214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="14.45">
+    <row r="664" ht="14.4" spans="1:4">
       <c r="A664" s="2" t="s">
         <v>1555</v>
       </c>
@@ -16604,7 +17228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="14.45">
+    <row r="665" ht="14.4" spans="1:4">
       <c r="A665" s="2" t="s">
         <v>1557</v>
       </c>
@@ -16618,7 +17242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="14.45">
+    <row r="666" ht="14.4" spans="1:4">
       <c r="A666" s="2" t="s">
         <v>1559</v>
       </c>
@@ -16632,7 +17256,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="14.45">
+    <row r="667" ht="14.4" spans="1:4">
       <c r="A667" s="2" t="s">
         <v>1562</v>
       </c>
@@ -16646,7 +17270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="14.45">
+    <row r="668" ht="14.4" spans="1:4">
       <c r="A668" s="2" t="s">
         <v>1565</v>
       </c>
@@ -16660,7 +17284,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="14.45">
+    <row r="669" ht="14.4" spans="1:4">
       <c r="A669" s="2" t="s">
         <v>1567</v>
       </c>
@@ -16674,7 +17298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="14.45">
+    <row r="670" ht="14.4" spans="1:4">
       <c r="A670" s="2" t="s">
         <v>1569</v>
       </c>
@@ -16688,7 +17312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="14.45">
+    <row r="671" ht="14.4" spans="1:4">
       <c r="A671" s="2" t="s">
         <v>1571</v>
       </c>
@@ -16702,7 +17326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="14.45">
+    <row r="672" ht="14.4" spans="1:4">
       <c r="A672" s="2" t="s">
         <v>1573</v>
       </c>
@@ -16716,7 +17340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="14.45">
+    <row r="673" ht="14.4" spans="1:4">
       <c r="A673" s="2" t="s">
         <v>1575</v>
       </c>
@@ -16730,7 +17354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="14.45">
+    <row r="674" ht="14.4" spans="1:4">
       <c r="A674" s="2" t="s">
         <v>1577</v>
       </c>
@@ -16744,7 +17368,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="14.45">
+    <row r="675" ht="14.4" spans="1:4">
       <c r="A675" s="2" t="s">
         <v>1579</v>
       </c>
@@ -16758,7 +17382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="14.45">
+    <row r="676" ht="14.4" spans="1:4">
       <c r="A676" s="2" t="s">
         <v>1580</v>
       </c>
@@ -16772,7 +17396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="14.45">
+    <row r="677" ht="14.4" spans="1:4">
       <c r="A677" s="2" t="s">
         <v>1582</v>
       </c>
@@ -16786,7 +17410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="14.45">
+    <row r="678" ht="14.4" spans="1:4">
       <c r="A678" s="2" t="s">
         <v>1584</v>
       </c>
@@ -16800,7 +17424,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="14.45">
+    <row r="679" ht="14.4" spans="1:4">
       <c r="A679" s="2" t="s">
         <v>1586</v>
       </c>
@@ -16814,7 +17438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="14.45">
+    <row r="680" ht="14.4" spans="1:4">
       <c r="A680" s="2" t="s">
         <v>1588</v>
       </c>
@@ -16828,7 +17452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="14.45">
+    <row r="681" ht="14.4" spans="1:4">
       <c r="A681" s="2" t="s">
         <v>1590</v>
       </c>
@@ -16842,7 +17466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="14.45">
+    <row r="682" ht="14.4" spans="1:4">
       <c r="A682" s="2" t="s">
         <v>1591</v>
       </c>
@@ -16856,7 +17480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="14.45">
+    <row r="683" ht="14.4" spans="1:4">
       <c r="A683" s="2" t="s">
         <v>1592</v>
       </c>
@@ -16870,7 +17494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="14.45">
+    <row r="684" ht="14.4" spans="1:4">
       <c r="A684" s="2" t="s">
         <v>1593</v>
       </c>
@@ -16884,7 +17508,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="14.45">
+    <row r="685" ht="14.4" spans="1:4">
       <c r="A685" s="2" t="s">
         <v>1596</v>
       </c>
@@ -16898,7 +17522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="14.45">
+    <row r="686" ht="14.4" spans="1:4">
       <c r="A686" s="2" t="s">
         <v>1598</v>
       </c>
@@ -16912,7 +17536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="14.45">
+    <row r="687" ht="14.4" spans="1:4">
       <c r="A687" s="2" t="s">
         <v>1600</v>
       </c>
@@ -16926,7 +17550,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="14.45">
+    <row r="688" ht="14.4" spans="1:4">
       <c r="A688" s="2" t="s">
         <v>1604</v>
       </c>
@@ -16940,7 +17564,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="14.45">
+    <row r="689" ht="14.4" spans="1:4">
       <c r="A689" s="2" t="s">
         <v>1606</v>
       </c>
@@ -16954,7 +17578,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="14.45">
+    <row r="690" ht="14.4" spans="1:4">
       <c r="A690" s="2" t="s">
         <v>1610</v>
       </c>
@@ -16968,7 +17592,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="14.45">
+    <row r="691" ht="14.4" spans="1:4">
       <c r="A691" s="2" t="s">
         <v>1613</v>
       </c>
@@ -16982,7 +17606,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="14.45">
+    <row r="692" ht="14.4" spans="1:4">
       <c r="A692" s="2" t="s">
         <v>1616</v>
       </c>
@@ -16996,7 +17620,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="14.45">
+    <row r="693" ht="14.4" spans="1:4">
       <c r="A693" s="2" t="s">
         <v>1618</v>
       </c>
@@ -17010,7 +17634,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="14.45">
+    <row r="694" ht="14.4" spans="1:4">
       <c r="A694" s="2" t="s">
         <v>1620</v>
       </c>
@@ -17024,7 +17648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="14.45">
+    <row r="695" ht="14.4" spans="1:4">
       <c r="A695" s="2" t="s">
         <v>1622</v>
       </c>
@@ -17038,7 +17662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="14.45">
+    <row r="696" ht="14.4" spans="1:4">
       <c r="A696" s="2" t="s">
         <v>1624</v>
       </c>
@@ -17052,7 +17676,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="14.45">
+    <row r="697" ht="14.4" spans="1:4">
       <c r="A697" s="2" t="s">
         <v>1626</v>
       </c>
@@ -17066,7 +17690,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="14.45">
+    <row r="698" ht="14.4" spans="1:4">
       <c r="A698" s="2" t="s">
         <v>1629</v>
       </c>
@@ -17080,7 +17704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="14.45">
+    <row r="699" ht="14.4" spans="1:4">
       <c r="A699" s="2" t="s">
         <v>1631</v>
       </c>
@@ -17094,7 +17718,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="700" spans="1:4" ht="14.45">
+    <row r="700" ht="14.4" spans="1:4">
       <c r="A700" s="2" t="s">
         <v>1633</v>
       </c>
@@ -17108,7 +17732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="701" spans="1:4" ht="14.45">
+    <row r="701" ht="14.4" spans="1:4">
       <c r="A701" s="2" t="s">
         <v>1636</v>
       </c>
@@ -17122,7 +17746,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="702" spans="1:4" ht="14.45">
+    <row r="702" ht="14.4" spans="1:4">
       <c r="A702" s="2" t="s">
         <v>1639</v>
       </c>
@@ -17136,7 +17760,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="703" spans="1:4" ht="14.45">
+    <row r="703" ht="14.4" spans="1:4">
       <c r="A703" s="2" t="s">
         <v>1642</v>
       </c>
@@ -17150,7 +17774,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="14.45">
+    <row r="704" ht="14.4" spans="1:4">
       <c r="A704" s="2" t="s">
         <v>1645</v>
       </c>
@@ -17164,7 +17788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="705" spans="1:4" ht="14.45">
+    <row r="705" ht="14.4" spans="1:4">
       <c r="A705" s="2" t="s">
         <v>1647</v>
       </c>
@@ -17178,7 +17802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="14.45">
+    <row r="706" ht="14.4" spans="1:4">
       <c r="A706" s="2" t="s">
         <v>1650</v>
       </c>
@@ -17192,7 +17816,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="707" spans="1:4" ht="14.45">
+    <row r="707" ht="14.4" spans="1:4">
       <c r="A707" s="2" t="s">
         <v>1654</v>
       </c>
@@ -17206,7 +17830,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="14.45">
+    <row r="708" ht="14.4" spans="1:4">
       <c r="A708" s="2" t="s">
         <v>1658</v>
       </c>
@@ -17220,7 +17844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="709" spans="1:4" ht="14.45">
+    <row r="709" ht="14.4" spans="1:4">
       <c r="A709" s="2" t="s">
         <v>1660</v>
       </c>
@@ -17234,7 +17858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="710" spans="1:4" ht="14.45">
+    <row r="710" ht="14.4" spans="1:4">
       <c r="A710" s="2" t="s">
         <v>1662</v>
       </c>
@@ -17248,7 +17872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="711" spans="1:4" ht="14.45">
+    <row r="711" ht="14.4" spans="1:4">
       <c r="A711" s="2" t="s">
         <v>1664</v>
       </c>
@@ -17262,7 +17886,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="14.45">
+    <row r="712" ht="14.4" spans="1:4">
       <c r="A712" s="2" t="s">
         <v>1666</v>
       </c>
@@ -17276,7 +17900,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="14.45">
+    <row r="713" ht="14.4" spans="1:4">
       <c r="A713" s="2" t="s">
         <v>1669</v>
       </c>
@@ -17290,7 +17914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="714" spans="1:4" ht="14.45">
+    <row r="714" ht="14.4" spans="1:4">
       <c r="A714" s="2" t="s">
         <v>1671</v>
       </c>
@@ -17304,7 +17928,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="715" spans="1:4" ht="14.45">
+    <row r="715" ht="14.4" spans="1:4">
       <c r="A715" s="2" t="s">
         <v>1673</v>
       </c>
@@ -17318,7 +17942,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="716" spans="1:4" ht="14.45">
+    <row r="716" ht="14.4" spans="1:4">
       <c r="A716" s="2" t="s">
         <v>1675</v>
       </c>
@@ -17332,7 +17956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="717" spans="1:4" ht="14.45">
+    <row r="717" ht="14.4" spans="1:4">
       <c r="A717" s="2" t="s">
         <v>1677</v>
       </c>
@@ -17346,7 +17970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="718" spans="1:4" ht="14.45">
+    <row r="718" ht="14.4" spans="1:4">
       <c r="A718" s="2" t="s">
         <v>1679</v>
       </c>
@@ -17360,7 +17984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="719" spans="1:4" ht="14.45">
+    <row r="719" ht="14.4" spans="1:4">
       <c r="A719" s="2" t="s">
         <v>1681</v>
       </c>
@@ -17374,7 +17998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="720" spans="1:4" ht="14.45">
+    <row r="720" ht="14.4" spans="1:4">
       <c r="A720" s="2" t="s">
         <v>1684</v>
       </c>
@@ -17388,7 +18012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="721" spans="1:4" ht="14.45">
+    <row r="721" ht="14.4" spans="1:4">
       <c r="A721" s="2" t="s">
         <v>1686</v>
       </c>
@@ -17402,7 +18026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="722" spans="1:4" ht="14.45">
+    <row r="722" ht="14.4" spans="1:4">
       <c r="A722" s="2" t="s">
         <v>1688</v>
       </c>
@@ -17416,7 +18040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="723" spans="1:4" ht="14.45">
+    <row r="723" ht="14.4" spans="1:4">
       <c r="A723" s="2" t="s">
         <v>1690</v>
       </c>
@@ -17430,7 +18054,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="724" spans="1:4" ht="14.45">
+    <row r="724" ht="14.4" spans="1:4">
       <c r="A724" s="2" t="s">
         <v>1692</v>
       </c>
@@ -17444,7 +18068,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="725" spans="1:4" ht="14.45">
+    <row r="725" ht="14.4" spans="1:4">
       <c r="A725" s="2" t="s">
         <v>1695</v>
       </c>
@@ -17458,7 +18082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="726" spans="1:4" ht="14.45">
+    <row r="726" ht="14.4" spans="1:4">
       <c r="A726" s="2" t="s">
         <v>1697</v>
       </c>
@@ -17472,7 +18096,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="727" spans="1:4" ht="14.45">
+    <row r="727" ht="14.4" spans="1:4">
       <c r="A727" s="2" t="s">
         <v>1699</v>
       </c>
@@ -17486,7 +18110,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="728" spans="1:4" ht="14.45">
+    <row r="728" ht="14.4" spans="1:4">
       <c r="A728" s="2" t="s">
         <v>1701</v>
       </c>
@@ -17500,7 +18124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="729" spans="1:4" ht="14.45">
+    <row r="729" ht="14.4" spans="1:4">
       <c r="A729" s="2" t="s">
         <v>1703</v>
       </c>
@@ -17514,7 +18138,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="730" spans="1:4" ht="14.45">
+    <row r="730" ht="14.4" spans="1:4">
       <c r="A730" s="2" t="s">
         <v>1705</v>
       </c>
@@ -17528,7 +18152,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="731" spans="1:4" ht="14.45">
+    <row r="731" ht="14.4" spans="1:4">
       <c r="A731" s="2" t="s">
         <v>1707</v>
       </c>
@@ -17542,7 +18166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="732" spans="1:4" ht="14.45">
+    <row r="732" ht="14.4" spans="1:4">
       <c r="A732" s="2" t="s">
         <v>1709</v>
       </c>
@@ -17556,7 +18180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="733" spans="1:4" ht="14.45">
+    <row r="733" ht="14.4" spans="1:4">
       <c r="A733" s="2" t="s">
         <v>1711</v>
       </c>
@@ -17570,7 +18194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="734" spans="1:4" ht="14.45">
+    <row r="734" ht="14.4" spans="1:4">
       <c r="A734" s="2" t="s">
         <v>1713</v>
       </c>
@@ -17584,7 +18208,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="735" spans="1:4" ht="14.45">
+    <row r="735" ht="14.4" spans="1:4">
       <c r="A735" s="2" t="s">
         <v>1715</v>
       </c>
@@ -17598,7 +18222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="14.45">
+    <row r="736" ht="14.4" spans="1:4">
       <c r="A736" s="2" t="s">
         <v>1717</v>
       </c>
@@ -17612,7 +18236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="14.45">
+    <row r="737" ht="14.4" spans="1:4">
       <c r="A737" s="2" t="s">
         <v>1719</v>
       </c>
@@ -17626,7 +18250,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="14.45">
+    <row r="738" ht="14.4" spans="1:4">
       <c r="A738" s="2" t="s">
         <v>1722</v>
       </c>
@@ -17640,7 +18264,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="739" spans="1:4" ht="14.45">
+    <row r="739" ht="14.4" spans="1:4">
       <c r="A739" s="2" t="s">
         <v>1724</v>
       </c>
@@ -17654,7 +18278,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="740" spans="1:4" ht="14.45">
+    <row r="740" ht="14.4" spans="1:4">
       <c r="A740" s="2" t="s">
         <v>1726</v>
       </c>
@@ -17668,7 +18292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="741" spans="1:4" ht="14.45">
+    <row r="741" ht="14.4" spans="1:4">
       <c r="A741" s="2" t="s">
         <v>1729</v>
       </c>
@@ -17682,7 +18306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="742" spans="1:4" ht="14.45">
+    <row r="742" ht="14.4" spans="1:4">
       <c r="A742" s="2" t="s">
         <v>1732</v>
       </c>
@@ -17696,7 +18320,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="743" spans="1:4" ht="14.45">
+    <row r="743" ht="14.4" spans="1:4">
       <c r="A743" s="2" t="s">
         <v>1735</v>
       </c>
@@ -17710,7 +18334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="744" spans="1:4" ht="14.45">
+    <row r="744" ht="14.4" spans="1:4">
       <c r="A744" s="2" t="s">
         <v>1737</v>
       </c>
@@ -17724,7 +18348,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="745" spans="1:4" ht="14.45">
+    <row r="745" ht="14.4" spans="1:4">
       <c r="A745" s="2" t="s">
         <v>1739</v>
       </c>
@@ -17738,7 +18362,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="746" spans="1:4" ht="14.45">
+    <row r="746" ht="14.4" spans="1:4">
       <c r="A746" s="2" t="s">
         <v>1742</v>
       </c>
@@ -17752,7 +18376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="747" spans="1:4" ht="14.45">
+    <row r="747" ht="14.4" spans="1:4">
       <c r="A747" s="2" t="s">
         <v>1744</v>
       </c>
@@ -17766,7 +18390,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="748" spans="1:4" ht="14.45">
+    <row r="748" ht="14.4" spans="1:4">
       <c r="A748" s="2" t="s">
         <v>1746</v>
       </c>
@@ -17780,7 +18404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="749" spans="1:4" ht="14.45">
+    <row r="749" ht="14.4" spans="1:4">
       <c r="A749" s="2" t="s">
         <v>1748</v>
       </c>
@@ -17794,7 +18418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="750" spans="1:4" ht="14.45">
+    <row r="750" ht="14.4" spans="1:4">
       <c r="A750" s="2" t="s">
         <v>1750</v>
       </c>
@@ -17808,7 +18432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="751" spans="1:4" ht="14.45">
+    <row r="751" ht="14.4" spans="1:4">
       <c r="A751" s="2" t="s">
         <v>1752</v>
       </c>
@@ -17822,7 +18446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="14.45">
+    <row r="752" ht="14.4" spans="1:4">
       <c r="A752" s="2" t="s">
         <v>1754</v>
       </c>
@@ -17836,7 +18460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="753" spans="1:4" ht="14.45">
+    <row r="753" ht="14.4" spans="1:4">
       <c r="A753" s="2" t="s">
         <v>1756</v>
       </c>
@@ -17850,7 +18474,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="14.45">
+    <row r="754" ht="14.4" spans="1:4">
       <c r="A754" s="2" t="s">
         <v>1758</v>
       </c>
@@ -17864,7 +18488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="14.45">
+    <row r="755" ht="14.4" spans="1:4">
       <c r="A755" s="2" t="s">
         <v>1760</v>
       </c>
@@ -17878,7 +18502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="14.45">
+    <row r="756" ht="14.4" spans="1:4">
       <c r="A756" s="2" t="s">
         <v>1763</v>
       </c>
@@ -17892,7 +18516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="14.45">
+    <row r="757" ht="14.4" spans="1:4">
       <c r="A757" s="2" t="s">
         <v>1765</v>
       </c>
@@ -17906,7 +18530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="758" spans="1:4" ht="14.45">
+    <row r="758" ht="14.4" spans="1:4">
       <c r="A758" s="2" t="s">
         <v>1767</v>
       </c>
@@ -17920,7 +18544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="14.45">
+    <row r="759" ht="14.4" spans="1:4">
       <c r="A759" s="2" t="s">
         <v>1769</v>
       </c>
@@ -17934,7 +18558,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="760" spans="1:4" ht="14.45">
+    <row r="760" ht="14.4" spans="1:4">
       <c r="A760" s="2" t="s">
         <v>1771</v>
       </c>
@@ -17948,7 +18572,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="761" spans="1:4" ht="14.45">
+    <row r="761" ht="14.4" spans="1:4">
       <c r="A761" s="2" t="s">
         <v>1773</v>
       </c>
@@ -17962,7 +18586,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="14.45">
+    <row r="762" ht="14.4" spans="1:4">
       <c r="A762" s="2" t="s">
         <v>1775</v>
       </c>
@@ -17976,7 +18600,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="763" spans="1:4" ht="14.45">
+    <row r="763" ht="14.4" spans="1:4">
       <c r="A763" s="2" t="s">
         <v>1777</v>
       </c>
@@ -17990,7 +18614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="764" spans="1:4" ht="14.45">
+    <row r="764" ht="14.4" spans="1:4">
       <c r="A764" s="2" t="s">
         <v>1779</v>
       </c>
@@ -18004,7 +18628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="765" spans="1:4" ht="14.45">
+    <row r="765" ht="14.4" spans="1:4">
       <c r="A765" s="2" t="s">
         <v>1781</v>
       </c>
@@ -18018,7 +18642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="766" spans="1:4" ht="14.45">
+    <row r="766" ht="14.4" spans="1:4">
       <c r="A766" s="2" t="s">
         <v>1783</v>
       </c>
@@ -18032,7 +18656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="767" spans="1:4" ht="14.45">
+    <row r="767" ht="14.4" spans="1:4">
       <c r="A767" s="2" t="s">
         <v>1785</v>
       </c>
@@ -18046,7 +18670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="14.45">
+    <row r="768" ht="14.4" spans="1:4">
       <c r="A768" s="2" t="s">
         <v>1787</v>
       </c>
@@ -18060,7 +18684,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="14.45">
+    <row r="769" ht="14.4" spans="1:4">
       <c r="A769" s="2" t="s">
         <v>1789</v>
       </c>
@@ -18074,7 +18698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="14.45">
+    <row r="770" ht="14.4" spans="1:4">
       <c r="A770" s="2" t="s">
         <v>1792</v>
       </c>
@@ -18088,7 +18712,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="14.45">
+    <row r="771" ht="14.4" spans="1:4">
       <c r="A771" s="2" t="s">
         <v>1795</v>
       </c>
@@ -18102,7 +18726,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="14.45">
+    <row r="772" ht="14.4" spans="1:4">
       <c r="A772" s="2" t="s">
         <v>1798</v>
       </c>
@@ -18116,7 +18740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="14.45">
+    <row r="773" ht="14.4" spans="1:4">
       <c r="A773" s="2" t="s">
         <v>1800</v>
       </c>
@@ -18130,7 +18754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="14.45">
+    <row r="774" ht="14.4" spans="1:4">
       <c r="A774" s="2" t="s">
         <v>1802</v>
       </c>
@@ -18144,7 +18768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="14.45">
+    <row r="775" ht="14.4" spans="1:4">
       <c r="A775" s="2" t="s">
         <v>1805</v>
       </c>
@@ -18158,7 +18782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="14.45">
+    <row r="776" ht="14.4" spans="1:4">
       <c r="A776" s="2" t="s">
         <v>1806</v>
       </c>
@@ -18172,7 +18796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="14.45">
+    <row r="777" ht="14.4" spans="1:4">
       <c r="A777" s="2" t="s">
         <v>1808</v>
       </c>
@@ -18186,7 +18810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="14.45">
+    <row r="778" ht="14.4" spans="1:4">
       <c r="A778" s="2" t="s">
         <v>1810</v>
       </c>
@@ -18200,7 +18824,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="14.45">
+    <row r="779" ht="14.4" spans="1:4">
       <c r="A779" s="2" t="s">
         <v>1812</v>
       </c>
@@ -18214,7 +18838,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="14.45">
+    <row r="780" ht="14.4" spans="1:4">
       <c r="A780" s="2" t="s">
         <v>1814</v>
       </c>
@@ -18228,7 +18852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="14.45">
+    <row r="781" ht="14.4" spans="1:4">
       <c r="A781" s="2" t="s">
         <v>1817</v>
       </c>
@@ -18242,7 +18866,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="14.45">
+    <row r="782" ht="14.4" spans="1:4">
       <c r="A782" s="2" t="s">
         <v>1819</v>
       </c>
@@ -18256,7 +18880,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="14.45">
+    <row r="783" ht="14.4" spans="1:4">
       <c r="A783" s="2" t="s">
         <v>1822</v>
       </c>
@@ -18270,7 +18894,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="14.45">
+    <row r="784" ht="14.4" spans="1:4">
       <c r="A784" s="2" t="s">
         <v>1824</v>
       </c>
@@ -18284,7 +18908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="785" spans="1:4" ht="14.45">
+    <row r="785" ht="14.4" spans="1:4">
       <c r="A785" s="2" t="s">
         <v>1826</v>
       </c>
@@ -18298,7 +18922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="786" spans="1:4" ht="14.45">
+    <row r="786" ht="14.4" spans="1:4">
       <c r="A786" s="2" t="s">
         <v>1828</v>
       </c>
@@ -18312,7 +18936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="787" spans="1:4" ht="14.45">
+    <row r="787" ht="14.4" spans="1:4">
       <c r="A787" s="2" t="s">
         <v>1830</v>
       </c>
@@ -18326,7 +18950,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="788" spans="1:4" ht="14.45">
+    <row r="788" ht="14.4" spans="1:4">
       <c r="A788" s="2" t="s">
         <v>1832</v>
       </c>
@@ -18340,7 +18964,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="789" spans="1:4" ht="14.45">
+    <row r="789" ht="14.4" spans="1:4">
       <c r="A789" s="2" t="s">
         <v>1834</v>
       </c>
@@ -18354,7 +18978,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="790" spans="1:4" ht="14.45">
+    <row r="790" ht="14.4" spans="1:4">
       <c r="A790" s="2" t="s">
         <v>1836</v>
       </c>
@@ -18368,7 +18992,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="791" spans="1:4" ht="14.45">
+    <row r="791" ht="14.4" spans="1:4">
       <c r="A791" s="2" t="s">
         <v>1838</v>
       </c>
@@ -18382,7 +19006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="792" spans="1:4" ht="14.45">
+    <row r="792" ht="14.4" spans="1:4">
       <c r="A792" s="2" t="s">
         <v>1840</v>
       </c>
@@ -18396,7 +19020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="793" spans="1:4" ht="14.45">
+    <row r="793" ht="14.4" spans="1:4">
       <c r="A793" s="2" t="s">
         <v>1841</v>
       </c>
@@ -18410,7 +19034,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="794" spans="1:4" ht="14.45">
+    <row r="794" ht="14.4" spans="1:4">
       <c r="A794" s="2" t="s">
         <v>1844</v>
       </c>
@@ -18424,7 +19048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="795" spans="1:4" ht="14.45">
+    <row r="795" ht="14.4" spans="1:4">
       <c r="A795" s="2" t="s">
         <v>1846</v>
       </c>
@@ -18438,7 +19062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="796" spans="1:4" ht="14.45">
+    <row r="796" ht="14.4" spans="1:4">
       <c r="A796" s="2" t="s">
         <v>1848</v>
       </c>
@@ -18452,7 +19076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="797" spans="1:4" ht="14.45">
+    <row r="797" ht="14.4" spans="1:4">
       <c r="A797" s="2" t="s">
         <v>1850</v>
       </c>
@@ -18466,7 +19090,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="798" spans="1:4" ht="14.45">
+    <row r="798" ht="14.4" spans="1:4">
       <c r="A798" s="2" t="s">
         <v>1852</v>
       </c>
@@ -18480,7 +19104,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="14.45">
+    <row r="799" ht="14.4" spans="1:4">
       <c r="A799" s="2" t="s">
         <v>1854</v>
       </c>
@@ -18494,7 +19118,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="14.45">
+    <row r="800" ht="14.4" spans="1:4">
       <c r="A800" s="2" t="s">
         <v>1856</v>
       </c>
@@ -18508,7 +19132,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="14.45">
+    <row r="801" ht="14.4" spans="1:4">
       <c r="A801" s="2" t="s">
         <v>1858</v>
       </c>
@@ -18522,7 +19146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="14.45">
+    <row r="802" ht="14.4" spans="1:4">
       <c r="A802" s="2" t="s">
         <v>1860</v>
       </c>
@@ -18536,7 +19160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="14.45">
+    <row r="803" ht="14.4" spans="1:4">
       <c r="A803" s="2" t="s">
         <v>1862</v>
       </c>
@@ -18550,7 +19174,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="14.45">
+    <row r="804" ht="14.4" spans="1:4">
       <c r="A804" s="2" t="s">
         <v>1864</v>
       </c>
@@ -18564,7 +19188,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="14.45">
+    <row r="805" ht="14.4" spans="1:4">
       <c r="A805" s="2" t="s">
         <v>1866</v>
       </c>
@@ -18578,7 +19202,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="14.45">
+    <row r="806" ht="14.4" spans="1:4">
       <c r="A806" s="2" t="s">
         <v>1868</v>
       </c>
@@ -18592,7 +19216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="14.45">
+    <row r="807" ht="14.4" spans="1:4">
       <c r="A807" s="2" t="s">
         <v>1870</v>
       </c>
@@ -18606,7 +19230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="808" spans="1:4" ht="14.45">
+    <row r="808" ht="14.4" spans="1:4">
       <c r="A808" s="2" t="s">
         <v>1872</v>
       </c>
@@ -18620,7 +19244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="14.45">
+    <row r="809" ht="14.4" spans="1:4">
       <c r="A809" s="2" t="s">
         <v>1874</v>
       </c>
@@ -18634,7 +19258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="14.45">
+    <row r="810" ht="14.4" spans="1:4">
       <c r="A810" s="2" t="s">
         <v>1877</v>
       </c>
@@ -18648,7 +19272,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="811" spans="1:4" ht="14.45">
+    <row r="811" ht="14.4" spans="1:4">
       <c r="A811" s="2" t="s">
         <v>1879</v>
       </c>
@@ -18662,7 +19286,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="812" spans="1:4" ht="14.45">
+    <row r="812" ht="14.4" spans="1:4">
       <c r="A812" s="2" t="s">
         <v>1881</v>
       </c>
@@ -18676,7 +19300,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="813" spans="1:4" ht="14.45">
+    <row r="813" ht="14.4" spans="1:4">
       <c r="A813" s="2" t="s">
         <v>1883</v>
       </c>
@@ -18690,7 +19314,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="814" spans="1:4" ht="14.45">
+    <row r="814" ht="14.4" spans="1:4">
       <c r="A814" s="2" t="s">
         <v>1885</v>
       </c>
@@ -18704,7 +19328,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="815" spans="1:4" ht="14.45">
+    <row r="815" ht="14.4" spans="1:4">
       <c r="A815" s="2" t="s">
         <v>1887</v>
       </c>
@@ -18718,7 +19342,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="816" spans="1:4" ht="14.45">
+    <row r="816" ht="14.4" spans="1:4">
       <c r="A816" s="2" t="s">
         <v>1889</v>
       </c>
@@ -18732,7 +19356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="817" spans="1:4" ht="14.45">
+    <row r="817" ht="14.4" spans="1:4">
       <c r="A817" s="2" t="s">
         <v>1891</v>
       </c>
@@ -18746,7 +19370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="818" spans="1:4" ht="14.45">
+    <row r="818" ht="14.4" spans="1:4">
       <c r="A818" s="2" t="s">
         <v>1893</v>
       </c>
@@ -18760,7 +19384,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="819" spans="1:4" ht="14.45">
+    <row r="819" ht="14.4" spans="1:4">
       <c r="A819" s="2" t="s">
         <v>1895</v>
       </c>
@@ -18774,7 +19398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="820" spans="1:4" ht="14.45">
+    <row r="820" ht="14.4" spans="1:4">
       <c r="A820" s="2" t="s">
         <v>1896</v>
       </c>
@@ -18788,7 +19412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="821" spans="1:4" ht="14.45">
+    <row r="821" ht="14.4" spans="1:4">
       <c r="A821" s="2" t="s">
         <v>1898</v>
       </c>
@@ -18802,7 +19426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="822" spans="1:4" ht="14.45">
+    <row r="822" ht="14.4" spans="1:4">
       <c r="A822" s="2" t="s">
         <v>1900</v>
       </c>
@@ -18816,7 +19440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="823" spans="1:4" ht="14.45">
+    <row r="823" ht="14.4" spans="1:4">
       <c r="A823" s="2" t="s">
         <v>1902</v>
       </c>
@@ -18830,7 +19454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="824" spans="1:4" ht="14.45">
+    <row r="824" ht="14.4" spans="1:4">
       <c r="A824" s="2" t="s">
         <v>1904</v>
       </c>
@@ -18844,7 +19468,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="825" spans="1:4" ht="14.45">
+    <row r="825" ht="14.4" spans="1:4">
       <c r="A825" s="2" t="s">
         <v>1906</v>
       </c>
@@ -18858,7 +19482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="826" spans="1:4" ht="14.45">
+    <row r="826" ht="14.4" spans="1:4">
       <c r="A826" s="2" t="s">
         <v>1908</v>
       </c>
@@ -18872,7 +19496,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="827" spans="1:4" ht="14.45">
+    <row r="827" ht="14.4" spans="1:4">
       <c r="A827" s="2" t="s">
         <v>1910</v>
       </c>
@@ -18886,7 +19510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="828" spans="1:4" ht="14.45">
+    <row r="828" ht="14.4" spans="1:4">
       <c r="A828" s="2" t="s">
         <v>1913</v>
       </c>
@@ -18900,7 +19524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="829" spans="1:4" ht="14.45">
+    <row r="829" ht="14.4" spans="1:4">
       <c r="A829" s="2" t="s">
         <v>1915</v>
       </c>
@@ -18914,7 +19538,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="830" spans="1:4" ht="14.45">
+    <row r="830" ht="14.4" spans="1:4">
       <c r="A830" s="2" t="s">
         <v>1918</v>
       </c>
@@ -18928,7 +19552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="831" spans="1:4" ht="14.45">
+    <row r="831" ht="14.4" spans="1:4">
       <c r="A831" s="2" t="s">
         <v>1921</v>
       </c>
@@ -18942,7 +19566,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="14.45">
+    <row r="832" ht="14.4" spans="1:4">
       <c r="A832" s="2" t="s">
         <v>1924</v>
       </c>
@@ -18956,7 +19580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="833" spans="1:4" ht="14.45">
+    <row r="833" ht="14.4" spans="1:4">
       <c r="A833" s="2" t="s">
         <v>1926</v>
       </c>
@@ -18970,7 +19594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="834" spans="1:4" ht="14.45">
+    <row r="834" ht="14.4" spans="1:4">
       <c r="A834" s="2" t="s">
         <v>1929</v>
       </c>
@@ -18984,7 +19608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="835" spans="1:4" ht="14.45">
+    <row r="835" ht="14.4" spans="1:4">
       <c r="A835" s="2" t="s">
         <v>1932</v>
       </c>
@@ -18998,7 +19622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="836" spans="1:4" ht="14.45">
+    <row r="836" ht="14.4" spans="1:4">
       <c r="A836" s="2" t="s">
         <v>1934</v>
       </c>
@@ -19012,7 +19636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="14.45">
+    <row r="837" ht="14.4" spans="1:4">
       <c r="A837" s="2" t="s">
         <v>1936</v>
       </c>
@@ -19026,7 +19650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="838" spans="1:4" ht="14.45">
+    <row r="838" ht="14.4" spans="1:4">
       <c r="A838" s="2" t="s">
         <v>1938</v>
       </c>
@@ -19040,7 +19664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="839" spans="1:4" ht="14.45">
+    <row r="839" ht="14.4" spans="1:4">
       <c r="A839" s="2" t="s">
         <v>1940</v>
       </c>
@@ -19054,7 +19678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="840" spans="1:4" ht="14.45">
+    <row r="840" ht="14.4" spans="1:4">
       <c r="A840" s="2" t="s">
         <v>1942</v>
       </c>
@@ -19068,7 +19692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="841" spans="1:4" ht="14.45">
+    <row r="841" ht="14.4" spans="1:4">
       <c r="A841" s="2" t="s">
         <v>1944</v>
       </c>
@@ -19082,7 +19706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="842" spans="1:4" ht="14.45">
+    <row r="842" ht="14.4" spans="1:4">
       <c r="A842" s="2" t="s">
         <v>1947</v>
       </c>
@@ -19096,7 +19720,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="843" spans="1:4" ht="14.45">
+    <row r="843" ht="14.4" spans="1:4">
       <c r="A843" s="2" t="s">
         <v>1950</v>
       </c>
@@ -19110,7 +19734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="844" spans="1:4" ht="14.45">
+    <row r="844" ht="14.4" spans="1:4">
       <c r="A844" s="2" t="s">
         <v>1952</v>
       </c>
@@ -19124,7 +19748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="14.45">
+    <row r="845" ht="14.4" spans="1:4">
       <c r="A845" s="2" t="s">
         <v>1954</v>
       </c>
@@ -19138,7 +19762,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="846" spans="1:4" ht="14.45">
+    <row r="846" ht="14.4" spans="1:4">
       <c r="A846" s="2" t="s">
         <v>1956</v>
       </c>
@@ -19152,7 +19776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="847" spans="1:4" ht="14.45">
+    <row r="847" ht="14.4" spans="1:4">
       <c r="A847" s="2" t="s">
         <v>1958</v>
       </c>
@@ -19166,7 +19790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="848" spans="1:4" ht="14.45">
+    <row r="848" ht="14.4" spans="1:4">
       <c r="A848" s="2" t="s">
         <v>1960</v>
       </c>
@@ -19180,7 +19804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="849" spans="1:4" ht="14.45">
+    <row r="849" ht="14.4" spans="1:4">
       <c r="A849" s="2" t="s">
         <v>1962</v>
       </c>
@@ -19194,7 +19818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="850" spans="1:4" ht="14.45">
+    <row r="850" ht="14.4" spans="1:4">
       <c r="A850" s="2" t="s">
         <v>1964</v>
       </c>
@@ -19208,7 +19832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="851" spans="1:4" ht="14.45">
+    <row r="851" ht="14.4" spans="1:4">
       <c r="A851" s="2" t="s">
         <v>1966</v>
       </c>
@@ -19222,7 +19846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="852" spans="1:4" ht="14.45">
+    <row r="852" ht="14.4" spans="1:4">
       <c r="A852" s="2" t="s">
         <v>1968</v>
       </c>
@@ -19236,7 +19860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="853" spans="1:4" ht="14.45">
+    <row r="853" ht="14.4" spans="1:4">
       <c r="A853" s="2" t="s">
         <v>1970</v>
       </c>
@@ -19250,7 +19874,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="854" spans="1:4" ht="14.45">
+    <row r="854" ht="14.4" spans="1:4">
       <c r="A854" s="2" t="s">
         <v>1973</v>
       </c>
@@ -19264,7 +19888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="855" spans="1:4" ht="14.45">
+    <row r="855" ht="14.4" spans="1:4">
       <c r="A855" s="2" t="s">
         <v>1975</v>
       </c>
@@ -19278,7 +19902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="856" spans="1:4" ht="14.45">
+    <row r="856" ht="14.4" spans="1:4">
       <c r="A856" s="2" t="s">
         <v>1977</v>
       </c>
@@ -19292,7 +19916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="857" spans="1:4" ht="14.45">
+    <row r="857" ht="14.4" spans="1:4">
       <c r="A857" s="2" t="s">
         <v>1979</v>
       </c>
@@ -19306,7 +19930,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="858" spans="1:4" ht="14.45">
+    <row r="858" ht="14.4" spans="1:4">
       <c r="A858" s="2" t="s">
         <v>1983</v>
       </c>
@@ -19320,7 +19944,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="859" spans="1:4" ht="14.45">
+    <row r="859" ht="14.4" spans="1:4">
       <c r="A859" s="2" t="s">
         <v>1985</v>
       </c>
@@ -19334,7 +19958,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="860" spans="1:4" ht="14.45">
+    <row r="860" ht="14.4" spans="1:4">
       <c r="A860" s="2" t="s">
         <v>1988</v>
       </c>
@@ -19348,7 +19972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="861" spans="1:4" ht="14.45">
+    <row r="861" ht="14.4" spans="1:4">
       <c r="A861" s="2" t="s">
         <v>1990</v>
       </c>
@@ -19362,7 +19986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="862" spans="1:4" ht="14.45">
+    <row r="862" ht="14.4" spans="1:4">
       <c r="A862" s="2" t="s">
         <v>1992</v>
       </c>
@@ -19376,7 +20000,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="863" spans="1:4" ht="14.45">
+    <row r="863" ht="14.4" spans="1:4">
       <c r="A863" s="2" t="s">
         <v>1994</v>
       </c>
@@ -19390,7 +20014,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="864" spans="1:4" ht="14.45">
+    <row r="864" ht="14.4" spans="1:4">
       <c r="A864" s="2" t="s">
         <v>1996</v>
       </c>
@@ -19404,7 +20028,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="865" spans="1:4" ht="14.45">
+    <row r="865" ht="14.4" spans="1:4">
       <c r="A865" s="2" t="s">
         <v>1999</v>
       </c>
@@ -19418,7 +20042,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="866" spans="1:4" ht="14.45">
+    <row r="866" ht="14.4" spans="1:4">
       <c r="A866" s="2" t="s">
         <v>2001</v>
       </c>
@@ -19432,7 +20056,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="867" spans="1:4" ht="14.45">
+    <row r="867" ht="14.4" spans="1:4">
       <c r="A867" s="2" t="s">
         <v>2004</v>
       </c>
@@ -19446,7 +20070,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="868" spans="1:4" ht="14.45">
+    <row r="868" ht="14.4" spans="1:4">
       <c r="A868" s="2" t="s">
         <v>2006</v>
       </c>
@@ -19460,7 +20084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="869" spans="1:4" ht="14.45">
+    <row r="869" ht="14.4" spans="1:4">
       <c r="A869" s="2" t="s">
         <v>2008</v>
       </c>
@@ -19474,7 +20098,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="870" spans="1:4" ht="14.45">
+    <row r="870" ht="14.4" spans="1:4">
       <c r="A870" s="2" t="s">
         <v>2010</v>
       </c>
@@ -19488,7 +20112,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="871" spans="1:4" ht="14.45">
+    <row r="871" ht="14.4" spans="1:4">
       <c r="A871" s="2" t="s">
         <v>2012</v>
       </c>
@@ -19502,7 +20126,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="872" spans="1:4" ht="14.45">
+    <row r="872" ht="14.4" spans="1:4">
       <c r="A872" s="2" t="s">
         <v>2014</v>
       </c>
@@ -19516,7 +20140,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="873" spans="1:4" ht="14.45">
+    <row r="873" ht="14.4" spans="1:4">
       <c r="A873" s="2" t="s">
         <v>2016</v>
       </c>
@@ -19530,7 +20154,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="874" spans="1:4" ht="14.45">
+    <row r="874" ht="14.4" spans="1:4">
       <c r="A874" s="2" t="s">
         <v>2018</v>
       </c>
@@ -19544,7 +20168,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="875" spans="1:4" ht="14.45">
+    <row r="875" ht="14.4" spans="1:4">
       <c r="A875" s="2" t="s">
         <v>2020</v>
       </c>
@@ -19558,7 +20182,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="876" spans="1:4" ht="14.45">
+    <row r="876" ht="14.4" spans="1:4">
       <c r="A876" s="2" t="s">
         <v>2023</v>
       </c>
@@ -19572,7 +20196,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="877" spans="1:4" ht="14.45">
+    <row r="877" ht="14.4" spans="1:4">
       <c r="A877" s="2" t="s">
         <v>2025</v>
       </c>
@@ -19586,7 +20210,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="878" spans="1:4" ht="14.45">
+    <row r="878" ht="14.4" spans="1:4">
       <c r="A878" s="2" t="s">
         <v>2027</v>
       </c>
@@ -19600,7 +20224,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="14.45">
+    <row r="879" ht="14.4" spans="1:4">
       <c r="A879" s="2" t="s">
         <v>2030</v>
       </c>
@@ -19614,7 +20238,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="880" spans="1:4" ht="14.45">
+    <row r="880" ht="14.4" spans="1:4">
       <c r="A880" s="2" t="s">
         <v>2032</v>
       </c>
@@ -19628,7 +20252,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="881" spans="1:4" ht="14.45">
+    <row r="881" ht="14.4" spans="1:4">
       <c r="A881" s="2" t="s">
         <v>2034</v>
       </c>
@@ -19642,7 +20266,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="882" spans="1:4" ht="14.45">
+    <row r="882" ht="14.4" spans="1:4">
       <c r="A882" s="2" t="s">
         <v>2036</v>
       </c>
@@ -19656,7 +20280,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="883" spans="1:4" ht="14.45">
+    <row r="883" ht="14.4" spans="1:4">
       <c r="A883" s="2" t="s">
         <v>2038</v>
       </c>
@@ -19670,7 +20294,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="884" spans="1:4" ht="14.45">
+    <row r="884" ht="14.4" spans="1:4">
       <c r="A884" s="2" t="s">
         <v>2040</v>
       </c>
@@ -19684,7 +20308,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="885" spans="1:4" ht="14.45">
+    <row r="885" ht="14.4" spans="1:4">
       <c r="A885" s="2" t="s">
         <v>2042</v>
       </c>
@@ -19698,7 +20322,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="886" spans="1:4" ht="14.45">
+    <row r="886" ht="14.4" spans="1:4">
       <c r="A886" s="2" t="s">
         <v>2044</v>
       </c>
@@ -19712,7 +20336,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="887" spans="1:4" ht="14.45">
+    <row r="887" ht="14.4" spans="1:4">
       <c r="A887" s="2" t="s">
         <v>2048</v>
       </c>
@@ -19726,7 +20350,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="888" spans="1:4" ht="14.45">
+    <row r="888" ht="14.4" spans="1:4">
       <c r="A888" s="2" t="s">
         <v>2050</v>
       </c>
@@ -19740,7 +20364,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="889" spans="1:4" ht="14.45">
+    <row r="889" ht="14.4" spans="1:4">
       <c r="A889" s="2" t="s">
         <v>2054</v>
       </c>
@@ -19754,7 +20378,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="890" spans="1:4" ht="14.45">
+    <row r="890" ht="14.4" spans="1:4">
       <c r="A890" s="2" t="s">
         <v>2057</v>
       </c>
@@ -19768,7 +20392,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="891" spans="1:4" ht="14.45">
+    <row r="891" ht="14.4" spans="1:4">
       <c r="A891" s="2" t="s">
         <v>2059</v>
       </c>
@@ -19782,7 +20406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="892" spans="1:4" ht="14.45">
+    <row r="892" ht="14.4" spans="1:4">
       <c r="A892" s="2" t="s">
         <v>2062</v>
       </c>
@@ -19796,7 +20420,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="893" spans="1:4" ht="14.45">
+    <row r="893" ht="14.4" spans="1:4">
       <c r="A893" s="2" t="s">
         <v>2064</v>
       </c>
@@ -19810,7 +20434,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="894" spans="1:4" ht="14.45">
+    <row r="894" ht="14.4" spans="1:4">
       <c r="A894" s="2" t="s">
         <v>2066</v>
       </c>
@@ -19824,7 +20448,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="895" spans="1:4" ht="14.45">
+    <row r="895" ht="14.4" spans="1:4">
       <c r="A895" s="2" t="s">
         <v>2068</v>
       </c>
@@ -19838,7 +20462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="896" spans="1:4" ht="14.45">
+    <row r="896" ht="14.4" spans="1:4">
       <c r="A896" s="2" t="s">
         <v>2071</v>
       </c>
@@ -19852,7 +20476,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="897" spans="1:4" ht="14.45">
+    <row r="897" ht="14.4" spans="1:4">
       <c r="A897" s="2" t="s">
         <v>2074</v>
       </c>
@@ -19866,7 +20490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="898" spans="1:4" ht="14.45">
+    <row r="898" ht="14.4" spans="1:4">
       <c r="A898" s="2" t="s">
         <v>2076</v>
       </c>
@@ -19880,7 +20504,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="899" spans="1:4" ht="14.45">
+    <row r="899" ht="14.4" spans="1:4">
       <c r="A899" s="2" t="s">
         <v>2078</v>
       </c>
@@ -19894,7 +20518,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="900" spans="1:4" ht="14.45">
+    <row r="900" ht="14.4" spans="1:4">
       <c r="A900" s="2" t="s">
         <v>2081</v>
       </c>
@@ -19908,7 +20532,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="901" spans="1:4" ht="14.45">
+    <row r="901" ht="14.4" spans="1:4">
       <c r="A901" s="2" t="s">
         <v>2083</v>
       </c>
@@ -19922,7 +20546,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="902" spans="1:4" ht="14.45">
+    <row r="902" ht="14.4" spans="1:4">
       <c r="A902" s="2" t="s">
         <v>2085</v>
       </c>
@@ -19936,7 +20560,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="903" spans="1:4" ht="14.45">
+    <row r="903" ht="14.4" spans="1:4">
       <c r="A903" s="2" t="s">
         <v>2088</v>
       </c>
@@ -19950,7 +20574,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="904" spans="1:4" ht="14.45">
+    <row r="904" ht="14.4" spans="1:4">
       <c r="A904" s="2" t="s">
         <v>2090</v>
       </c>
@@ -19964,7 +20588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="905" spans="1:4" ht="14.45">
+    <row r="905" ht="14.4" spans="1:4">
       <c r="A905" s="2" t="s">
         <v>2092</v>
       </c>
@@ -19978,7 +20602,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="906" spans="1:4" ht="14.45">
+    <row r="906" ht="14.4" spans="1:4">
       <c r="A906" s="2" t="s">
         <v>2094</v>
       </c>
@@ -19992,7 +20616,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="907" spans="1:4" ht="14.45">
+    <row r="907" ht="14.4" spans="1:4">
       <c r="A907" s="2" t="s">
         <v>2096</v>
       </c>
@@ -20006,7 +20630,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="908" spans="1:4" ht="14.45">
+    <row r="908" ht="14.4" spans="1:4">
       <c r="A908" s="2" t="s">
         <v>2100</v>
       </c>
@@ -20020,7 +20644,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="909" spans="1:4" ht="14.45">
+    <row r="909" ht="14.4" spans="1:4">
       <c r="A909" s="2" t="s">
         <v>2102</v>
       </c>
@@ -20034,7 +20658,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="910" spans="1:4" ht="14.45">
+    <row r="910" ht="14.4" spans="1:4">
       <c r="A910" s="2" t="s">
         <v>2104</v>
       </c>
@@ -20048,7 +20672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="911" spans="1:4" ht="14.45">
+    <row r="911" ht="14.4" spans="1:4">
       <c r="A911" s="2" t="s">
         <v>2105</v>
       </c>
@@ -20062,7 +20686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="912" spans="1:4" ht="14.45">
+    <row r="912" ht="14.4" spans="1:4">
       <c r="A912" s="2" t="s">
         <v>2107</v>
       </c>
@@ -20076,7 +20700,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="913" spans="1:4" ht="14.45">
+    <row r="913" ht="14.4" spans="1:4">
       <c r="A913" s="2" t="s">
         <v>2109</v>
       </c>
@@ -20090,7 +20714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="914" spans="1:4" ht="14.45">
+    <row r="914" ht="14.4" spans="1:4">
       <c r="A914" s="2" t="s">
         <v>2111</v>
       </c>
@@ -20104,7 +20728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="915" spans="1:4" ht="14.45">
+    <row r="915" ht="14.4" spans="1:4">
       <c r="A915" s="2" t="s">
         <v>2113</v>
       </c>
@@ -20118,7 +20742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="916" spans="1:4" ht="14.45">
+    <row r="916" ht="14.4" spans="1:4">
       <c r="A916" s="2" t="s">
         <v>2115</v>
       </c>
@@ -20132,7 +20756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="917" spans="1:4" ht="14.45">
+    <row r="917" ht="14.4" spans="1:4">
       <c r="A917" s="2" t="s">
         <v>2118</v>
       </c>
@@ -20146,7 +20770,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="918" spans="1:4" ht="14.45">
+    <row r="918" ht="14.4" spans="1:4">
       <c r="A918" s="2" t="s">
         <v>2121</v>
       </c>
@@ -20160,7 +20784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="919" spans="1:4" ht="14.45">
+    <row r="919" ht="14.4" spans="1:4">
       <c r="A919" s="2" t="s">
         <v>2123</v>
       </c>
@@ -20174,7 +20798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="920" spans="1:4" ht="14.45">
+    <row r="920" ht="14.4" spans="1:4">
       <c r="A920" s="2" t="s">
         <v>2125</v>
       </c>
@@ -20188,7 +20812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="921" spans="1:4" ht="14.45">
+    <row r="921" ht="14.4" spans="1:4">
       <c r="A921" s="2" t="s">
         <v>2128</v>
       </c>
@@ -20202,7 +20826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="922" spans="1:4" ht="14.45">
+    <row r="922" ht="14.4" spans="1:4">
       <c r="A922" s="2" t="s">
         <v>2130</v>
       </c>
@@ -20216,7 +20840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="923" spans="1:4" ht="14.45">
+    <row r="923" ht="14.4" spans="1:4">
       <c r="A923" s="2" t="s">
         <v>2133</v>
       </c>
@@ -20230,7 +20854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="924" spans="1:4" ht="14.45">
+    <row r="924" ht="14.4" spans="1:4">
       <c r="A924" s="2" t="s">
         <v>2135</v>
       </c>
@@ -20244,7 +20868,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="925" spans="1:4" ht="14.45">
+    <row r="925" ht="14.4" spans="1:4">
       <c r="A925" s="2" t="s">
         <v>2137</v>
       </c>
@@ -20258,7 +20882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="926" spans="1:4" ht="14.45">
+    <row r="926" ht="14.4" spans="1:4">
       <c r="A926" s="2" t="s">
         <v>2139</v>
       </c>
@@ -20272,7 +20896,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="927" spans="1:4" ht="14.45">
+    <row r="927" ht="14.4" spans="1:4">
       <c r="A927" s="2" t="s">
         <v>2141</v>
       </c>
@@ -20286,7 +20910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="928" spans="1:4" ht="14.45">
+    <row r="928" ht="14.4" spans="1:4">
       <c r="A928" s="2" t="s">
         <v>2143</v>
       </c>
@@ -20300,7 +20924,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="929" spans="1:4" ht="14.45">
+    <row r="929" ht="14.4" spans="1:4">
       <c r="A929" s="2" t="s">
         <v>2145</v>
       </c>
@@ -20314,7 +20938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="930" spans="1:4" ht="14.45">
+    <row r="930" ht="14.4" spans="1:4">
       <c r="A930" s="2" t="s">
         <v>2147</v>
       </c>
@@ -20328,7 +20952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="931" spans="1:4" ht="14.45">
+    <row r="931" ht="14.4" spans="1:4">
       <c r="A931" s="2" t="s">
         <v>2149</v>
       </c>
@@ -20342,7 +20966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="932" spans="1:4" ht="14.45">
+    <row r="932" ht="14.4" spans="1:4">
       <c r="A932" s="2" t="s">
         <v>2152</v>
       </c>
@@ -20356,7 +20980,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="933" spans="1:4" ht="14.45">
+    <row r="933" ht="14.4" spans="1:4">
       <c r="A933" s="2" t="s">
         <v>2155</v>
       </c>
@@ -20370,7 +20994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="934" spans="1:4" ht="14.45">
+    <row r="934" ht="14.4" spans="1:4">
       <c r="A934" s="2" t="s">
         <v>2156</v>
       </c>
@@ -20384,7 +21008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="935" spans="1:4" ht="14.45">
+    <row r="935" ht="14.4" spans="1:4">
       <c r="A935" s="2" t="s">
         <v>2159</v>
       </c>
@@ -20398,7 +21022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="936" spans="1:4" ht="14.45">
+    <row r="936" ht="14.4" spans="1:4">
       <c r="A936" s="2" t="s">
         <v>2162</v>
       </c>
@@ -20412,7 +21036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="937" spans="1:4" ht="14.45">
+    <row r="937" ht="14.4" spans="1:4">
       <c r="A937" s="2" t="s">
         <v>2165</v>
       </c>
@@ -20426,7 +21050,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="938" spans="1:4" ht="14.45">
+    <row r="938" ht="14.4" spans="1:4">
       <c r="A938" s="2" t="s">
         <v>2167</v>
       </c>
@@ -20440,7 +21064,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="939" spans="1:4" ht="14.45">
+    <row r="939" ht="14.4" spans="1:4">
       <c r="A939" s="2" t="s">
         <v>2170</v>
       </c>
@@ -20454,7 +21078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="940" spans="1:4" ht="14.45">
+    <row r="940" ht="14.4" spans="1:4">
       <c r="A940" s="2" t="s">
         <v>2172</v>
       </c>
@@ -20468,7 +21092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="941" spans="1:4" ht="14.45">
+    <row r="941" ht="14.4" spans="1:4">
       <c r="A941" s="2" t="s">
         <v>2174</v>
       </c>
@@ -20482,7 +21106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="942" spans="1:4" ht="14.45">
+    <row r="942" ht="14.4" spans="1:4">
       <c r="A942" s="2" t="s">
         <v>2176</v>
       </c>
@@ -20496,7 +21120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="943" spans="1:4" ht="14.45">
+    <row r="943" ht="14.4" spans="1:4">
       <c r="A943" s="2" t="s">
         <v>2178</v>
       </c>
@@ -20510,7 +21134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="944" spans="1:4" ht="14.45">
+    <row r="944" ht="14.4" spans="1:4">
       <c r="A944" s="2" t="s">
         <v>2181</v>
       </c>
@@ -20524,7 +21148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="945" spans="1:4" ht="14.45">
+    <row r="945" ht="14.4" spans="1:4">
       <c r="A945" s="2" t="s">
         <v>2183</v>
       </c>
@@ -20538,7 +21162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="946" spans="1:4" ht="14.45">
+    <row r="946" ht="14.4" spans="1:4">
       <c r="A946" s="2" t="s">
         <v>2185</v>
       </c>
@@ -20552,7 +21176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="947" spans="1:4" ht="14.45">
+    <row r="947" ht="14.4" spans="1:4">
       <c r="A947" s="2" t="s">
         <v>2187</v>
       </c>
@@ -20566,7 +21190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="948" spans="1:4" ht="14.45">
+    <row r="948" ht="14.4" spans="1:4">
       <c r="A948" s="2" t="s">
         <v>2189</v>
       </c>
@@ -20580,7 +21204,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="949" spans="1:4" ht="14.45">
+    <row r="949" ht="14.4" spans="1:4">
       <c r="A949" s="2" t="s">
         <v>2191</v>
       </c>
@@ -20594,7 +21218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="950" spans="1:4" ht="14.45">
+    <row r="950" ht="14.4" spans="1:4">
       <c r="A950" s="2" t="s">
         <v>2193</v>
       </c>
@@ -20608,7 +21232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="951" spans="1:4" ht="14.45">
+    <row r="951" ht="14.4" spans="1:4">
       <c r="A951" s="2" t="s">
         <v>2195</v>
       </c>
@@ -20622,7 +21246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="952" spans="1:4" ht="14.45">
+    <row r="952" ht="14.4" spans="1:4">
       <c r="A952" s="2" t="s">
         <v>2197</v>
       </c>
@@ -20636,7 +21260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="953" spans="1:4" ht="14.45">
+    <row r="953" ht="14.4" spans="1:4">
       <c r="A953" s="2" t="s">
         <v>2199</v>
       </c>
@@ -20650,7 +21274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="954" spans="1:4" ht="14.45">
+    <row r="954" ht="14.4" spans="1:4">
       <c r="A954" s="2" t="s">
         <v>2201</v>
       </c>
@@ -20664,7 +21288,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="955" spans="1:4" ht="14.45">
+    <row r="955" ht="14.4" spans="1:4">
       <c r="A955" s="2" t="s">
         <v>2203</v>
       </c>
@@ -20678,7 +21302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="956" spans="1:4" ht="14.45">
+    <row r="956" ht="14.4" spans="1:4">
       <c r="A956" s="2" t="s">
         <v>2205</v>
       </c>
@@ -20692,7 +21316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="957" spans="1:4" ht="14.45">
+    <row r="957" ht="14.4" spans="1:4">
       <c r="A957" s="2" t="s">
         <v>2207</v>
       </c>
@@ -20706,7 +21330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="958" spans="1:4" ht="14.45">
+    <row r="958" ht="14.4" spans="1:4">
       <c r="A958" s="2" t="s">
         <v>2209</v>
       </c>
@@ -20720,7 +21344,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="959" spans="1:4" ht="14.45">
+    <row r="959" ht="14.4" spans="1:4">
       <c r="A959" s="2" t="s">
         <v>2212</v>
       </c>
@@ -20734,7 +21358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="960" spans="1:4" ht="14.45">
+    <row r="960" ht="14.4" spans="1:4">
       <c r="A960" s="2" t="s">
         <v>2214</v>
       </c>
@@ -20748,7 +21372,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="961" spans="1:4" ht="14.45">
+    <row r="961" ht="14.4" spans="1:4">
       <c r="A961" s="2" t="s">
         <v>2217</v>
       </c>
@@ -20762,7 +21386,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="962" spans="1:4" ht="14.45">
+    <row r="962" ht="14.4" spans="1:4">
       <c r="A962" s="2" t="s">
         <v>2220</v>
       </c>
@@ -20776,7 +21400,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="963" spans="1:4" ht="14.45">
+    <row r="963" ht="14.4" spans="1:4">
       <c r="A963" s="2" t="s">
         <v>2222</v>
       </c>
@@ -20790,7 +21414,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="964" spans="1:4" ht="14.45">
+    <row r="964" ht="14.4" spans="1:4">
       <c r="A964" s="2" t="s">
         <v>2225</v>
       </c>
@@ -20804,7 +21428,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="965" spans="1:4" ht="14.45">
+    <row r="965" ht="14.4" spans="1:4">
       <c r="A965" s="2" t="s">
         <v>2228</v>
       </c>
@@ -20818,7 +21442,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="966" spans="1:4" ht="14.45">
+    <row r="966" ht="14.4" spans="1:4">
       <c r="A966" s="2" t="s">
         <v>2230</v>
       </c>
@@ -20832,7 +21456,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="967" spans="1:4" ht="14.45">
+    <row r="967" ht="14.4" spans="1:4">
       <c r="A967" s="2" t="s">
         <v>2232</v>
       </c>
@@ -20846,7 +21470,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="968" spans="1:4" ht="14.45">
+    <row r="968" ht="14.4" spans="1:4">
       <c r="A968" s="2" t="s">
         <v>2234</v>
       </c>
@@ -20860,7 +21484,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="969" spans="1:4" ht="14.45">
+    <row r="969" ht="14.4" spans="1:4">
       <c r="A969" s="2" t="s">
         <v>2236</v>
       </c>
@@ -20874,7 +21498,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="970" spans="1:4" ht="14.45">
+    <row r="970" ht="14.4" spans="1:4">
       <c r="A970" s="2" t="s">
         <v>2238</v>
       </c>
@@ -20888,7 +21512,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="971" spans="1:4" ht="14.45">
+    <row r="971" ht="14.4" spans="1:4">
       <c r="A971" s="2" t="s">
         <v>2240</v>
       </c>
@@ -20902,7 +21526,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="972" spans="1:4" ht="14.45">
+    <row r="972" ht="14.4" spans="1:4">
       <c r="A972" s="2" t="s">
         <v>2242</v>
       </c>
@@ -20916,7 +21540,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="973" spans="1:4" ht="14.45">
+    <row r="973" ht="14.4" spans="1:4">
       <c r="A973" s="2" t="s">
         <v>2245</v>
       </c>
@@ -20930,7 +21554,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="974" spans="1:4" ht="14.45">
+    <row r="974" ht="14.4" spans="1:4">
       <c r="A974" s="2" t="s">
         <v>2248</v>
       </c>
@@ -20944,7 +21568,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="975" spans="1:4" ht="14.45">
+    <row r="975" ht="14.4" spans="1:4">
       <c r="A975" s="2" t="s">
         <v>2250</v>
       </c>
@@ -20958,7 +21582,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="976" spans="1:4" ht="14.45">
+    <row r="976" ht="14.4" spans="1:4">
       <c r="A976" s="2" t="s">
         <v>2252</v>
       </c>
@@ -20972,7 +21596,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="977" spans="1:4" ht="14.45">
+    <row r="977" ht="14.4" spans="1:4">
       <c r="A977" s="2" t="s">
         <v>2254</v>
       </c>
@@ -20986,7 +21610,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="978" spans="1:4" ht="14.45">
+    <row r="978" ht="14.4" spans="1:4">
       <c r="A978" s="2" t="s">
         <v>2257</v>
       </c>
@@ -21000,7 +21624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="979" spans="1:4" ht="14.45">
+    <row r="979" ht="14.4" spans="1:4">
       <c r="A979" s="2" t="s">
         <v>2258</v>
       </c>
@@ -21014,7 +21638,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="980" spans="1:4" ht="14.45">
+    <row r="980" ht="14.4" spans="1:4">
       <c r="A980" s="2" t="s">
         <v>2260</v>
       </c>
@@ -21028,7 +21652,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="981" spans="1:4" ht="14.45">
+    <row r="981" ht="14.4" spans="1:4">
       <c r="A981" s="2" t="s">
         <v>2262</v>
       </c>
@@ -21042,7 +21666,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="982" spans="1:4" ht="14.45">
+    <row r="982" ht="14.4" spans="1:4">
       <c r="A982" s="2" t="s">
         <v>2264</v>
       </c>
@@ -21056,7 +21680,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="983" spans="1:4" ht="14.45">
+    <row r="983" ht="14.4" spans="1:4">
       <c r="A983" s="2" t="s">
         <v>2266</v>
       </c>
@@ -21070,7 +21694,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="984" spans="1:4" ht="14.45">
+    <row r="984" ht="14.4" spans="1:4">
       <c r="A984" s="2" t="s">
         <v>2268</v>
       </c>
@@ -21084,7 +21708,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="985" spans="1:4" ht="14.45">
+    <row r="985" ht="14.4" spans="1:4">
       <c r="A985" s="2" t="s">
         <v>2270</v>
       </c>
@@ -21098,7 +21722,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="986" spans="1:4" ht="14.45">
+    <row r="986" ht="14.4" spans="1:4">
       <c r="A986" s="2" t="s">
         <v>2272</v>
       </c>
@@ -21112,7 +21736,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="987" spans="1:4" ht="14.45">
+    <row r="987" ht="14.4" spans="1:4">
       <c r="A987" s="2" t="s">
         <v>2274</v>
       </c>
@@ -21126,7 +21750,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="988" spans="1:4" ht="14.45">
+    <row r="988" ht="14.4" spans="1:4">
       <c r="A988" s="2" t="s">
         <v>2276</v>
       </c>
@@ -21140,7 +21764,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="989" spans="1:4" ht="14.45">
+    <row r="989" ht="14.4" spans="1:4">
       <c r="A989" s="2" t="s">
         <v>2278</v>
       </c>
@@ -21154,7 +21778,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="990" spans="1:4" ht="14.45">
+    <row r="990" ht="14.4" spans="1:4">
       <c r="A990" s="2" t="s">
         <v>2280</v>
       </c>
@@ -21168,7 +21792,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="991" spans="1:4" ht="14.45">
+    <row r="991" ht="14.4" spans="1:4">
       <c r="A991" s="2" t="s">
         <v>2282</v>
       </c>
@@ -21182,7 +21806,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="992" spans="1:4" ht="14.45">
+    <row r="992" ht="14.4" spans="1:4">
       <c r="A992" s="2" t="s">
         <v>2283</v>
       </c>
@@ -21196,7 +21820,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="993" spans="1:4" ht="14.45">
+    <row r="993" ht="14.4" spans="1:4">
       <c r="A993" s="2" t="s">
         <v>2285</v>
       </c>
@@ -21210,7 +21834,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="994" spans="1:4" ht="14.45">
+    <row r="994" ht="14.4" spans="1:4">
       <c r="A994" s="2" t="s">
         <v>2288</v>
       </c>
@@ -21224,7 +21848,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="995" spans="1:4" ht="14.45">
+    <row r="995" ht="14.4" spans="1:4">
       <c r="A995" s="2" t="s">
         <v>2290</v>
       </c>
@@ -21238,7 +21862,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="996" spans="1:4" ht="14.45">
+    <row r="996" ht="14.4" spans="1:4">
       <c r="A996" s="2" t="s">
         <v>2292</v>
       </c>
@@ -21252,7 +21876,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="997" spans="1:4" ht="14.45">
+    <row r="997" ht="14.4" spans="1:4">
       <c r="A997" s="2" t="s">
         <v>2294</v>
       </c>
@@ -21266,7 +21890,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="998" spans="1:4" ht="14.45">
+    <row r="998" ht="14.4" spans="1:4">
       <c r="A998" s="2" t="s">
         <v>2296</v>
       </c>
@@ -21280,7 +21904,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="999" spans="1:4" ht="14.45">
+    <row r="999" ht="14.4" spans="1:4">
       <c r="A999" s="2" t="s">
         <v>2298</v>
       </c>
@@ -21294,7 +21918,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" ht="14.45">
+    <row r="1000" ht="14.4" spans="1:4">
       <c r="A1000" s="2" t="s">
         <v>2300</v>
       </c>
@@ -21308,7 +21932,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" ht="14.45">
+    <row r="1001" ht="14.4" spans="1:4">
       <c r="A1001" s="2" t="s">
         <v>2302</v>
       </c>
@@ -21322,7 +21946,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" ht="14.45">
+    <row r="1002" ht="14.4" spans="1:4">
       <c r="A1002" s="2" t="s">
         <v>2304</v>
       </c>
@@ -21336,7 +21960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" ht="14.45">
+    <row r="1003" ht="14.4" spans="1:4">
       <c r="A1003" s="2" t="s">
         <v>2306</v>
       </c>
@@ -21350,7 +21974,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" ht="14.45">
+    <row r="1004" ht="14.4" spans="1:4">
       <c r="A1004" s="2" t="s">
         <v>2308</v>
       </c>
@@ -21364,7 +21988,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" ht="14.45">
+    <row r="1005" ht="14.4" spans="1:4">
       <c r="A1005" s="2" t="s">
         <v>2311</v>
       </c>
@@ -21378,7 +22002,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" ht="14.45">
+    <row r="1006" ht="14.4" spans="1:4">
       <c r="A1006" s="2" t="s">
         <v>2313</v>
       </c>
@@ -21392,7 +22016,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" ht="14.45">
+    <row r="1007" ht="14.4" spans="1:4">
       <c r="A1007" s="2" t="s">
         <v>2315</v>
       </c>
@@ -21406,7 +22030,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" ht="14.45">
+    <row r="1008" ht="14.4" spans="1:4">
       <c r="A1008" s="2" t="s">
         <v>2317</v>
       </c>
@@ -21420,7 +22044,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" ht="14.45">
+    <row r="1009" ht="14.4" spans="1:4">
       <c r="A1009" s="2" t="s">
         <v>2320</v>
       </c>
@@ -21434,7 +22058,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" ht="14.45">
+    <row r="1010" ht="14.4" spans="1:4">
       <c r="A1010" s="2" t="s">
         <v>2322</v>
       </c>
@@ -21448,7 +22072,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" ht="14.45">
+    <row r="1011" ht="14.4" spans="1:4">
       <c r="A1011" s="2" t="s">
         <v>2324</v>
       </c>
@@ -21462,7 +22086,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1012" spans="1:4" ht="14.45">
+    <row r="1012" ht="14.4" spans="1:4">
       <c r="A1012" s="2" t="s">
         <v>2326</v>
       </c>
@@ -21478,5 +22102,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>